--- a/ResultsHPCC.xlsx
+++ b/ResultsHPCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B1E381-856F-4171-91B7-F1F3B448E272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61878F77-A8FF-42C5-A4A3-0DC32ECCB01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{6AF1A893-C99E-4402-8250-ECFA3279128F}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" activeTab="1" xr2:uid="{6AF1A893-C99E-4402-8250-ECFA3279128F}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="17">
   <si>
     <t>ALL EXPERIMENTS DONE on MSU HPCC WITH THE FOLLOWING SETTINGS</t>
   </si>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75700BE6-961B-4EED-9E57-E1BAE03CF329}">
   <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83:I83"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="L104" sqref="L104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1691,6 +1691,18 @@
         <f>A58*($A$57^$B$57)</f>
         <v>1166400</v>
       </c>
+      <c r="F58">
+        <v>900</v>
+      </c>
+      <c r="G58">
+        <v>100</v>
+      </c>
+      <c r="H58">
+        <v>194.96</v>
+      </c>
+      <c r="I58">
+        <v>1.574237544</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
@@ -1709,6 +1721,18 @@
         <f t="shared" ref="E59:E67" si="5">A59*($A$57^$B$57)</f>
         <v>1016064</v>
       </c>
+      <c r="F59">
+        <v>784</v>
+      </c>
+      <c r="G59">
+        <v>100</v>
+      </c>
+      <c r="H59">
+        <v>263.87</v>
+      </c>
+      <c r="I59">
+        <v>2.132760217</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
@@ -1727,6 +1751,18 @@
         <f t="shared" si="5"/>
         <v>876096</v>
       </c>
+      <c r="F60">
+        <v>676</v>
+      </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+      <c r="H60">
+        <v>361.81</v>
+      </c>
+      <c r="I60">
+        <v>2.8993404329999999</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
@@ -1745,6 +1781,18 @@
         <f t="shared" si="5"/>
         <v>746496</v>
       </c>
+      <c r="F61">
+        <v>576</v>
+      </c>
+      <c r="G61">
+        <v>99</v>
+      </c>
+      <c r="H61">
+        <v>482.56565660000001</v>
+      </c>
+      <c r="I61">
+        <v>3.7012304079999998</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
@@ -1763,6 +1811,18 @@
         <f t="shared" si="5"/>
         <v>627264</v>
       </c>
+      <c r="F62">
+        <v>484</v>
+      </c>
+      <c r="G62">
+        <v>89</v>
+      </c>
+      <c r="H62">
+        <v>618.0561798</v>
+      </c>
+      <c r="I62">
+        <v>4.7559216769999999</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
@@ -1781,6 +1841,18 @@
         <f t="shared" si="5"/>
         <v>518400</v>
       </c>
+      <c r="F63">
+        <v>400</v>
+      </c>
+      <c r="G63">
+        <v>53</v>
+      </c>
+      <c r="H63">
+        <v>807.92452830000002</v>
+      </c>
+      <c r="I63">
+        <v>6.2137707390000001</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
@@ -1799,6 +1871,18 @@
         <f t="shared" si="5"/>
         <v>419904</v>
       </c>
+      <c r="F64">
+        <v>324</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>932</v>
+      </c>
+      <c r="I64">
+        <v>7.0893830940000004</v>
+      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
@@ -2768,6 +2852,18 @@
         <f>A102*($A$101^$B$101)</f>
         <v>3841600</v>
       </c>
+      <c r="F102">
+        <v>1600</v>
+      </c>
+      <c r="G102">
+        <v>100</v>
+      </c>
+      <c r="H102">
+        <v>192.24</v>
+      </c>
+      <c r="I102">
+        <v>1.68770534011826</v>
+      </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
@@ -2786,6 +2882,18 @@
         <f t="shared" ref="E103:E115" si="8">A103*($A$101^$B$101)</f>
         <v>3467044</v>
       </c>
+      <c r="F103">
+        <v>1444</v>
+      </c>
+      <c r="G103">
+        <v>100</v>
+      </c>
+      <c r="H103">
+        <v>242.42</v>
+      </c>
+      <c r="I103">
+        <v>2.1461047132877802</v>
+      </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
@@ -2804,6 +2912,18 @@
         <f t="shared" si="8"/>
         <v>3111696</v>
       </c>
+      <c r="F104">
+        <v>1296</v>
+      </c>
+      <c r="G104">
+        <v>100</v>
+      </c>
+      <c r="H104">
+        <v>284.02999999999997</v>
+      </c>
+      <c r="I104">
+        <v>2.4915599223610401</v>
+      </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
@@ -2822,6 +2942,18 @@
         <f t="shared" si="8"/>
         <v>2775556</v>
       </c>
+      <c r="F105">
+        <v>1156</v>
+      </c>
+      <c r="G105">
+        <v>100</v>
+      </c>
+      <c r="H105">
+        <v>353.59</v>
+      </c>
+      <c r="I105">
+        <v>3.10447684776911</v>
+      </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
@@ -2840,6 +2972,18 @@
         <f t="shared" si="8"/>
         <v>2458624</v>
       </c>
+      <c r="F106">
+        <v>1024</v>
+      </c>
+      <c r="G106">
+        <v>100</v>
+      </c>
+      <c r="H106">
+        <v>458.71</v>
+      </c>
+      <c r="I106">
+        <v>4.0199577969295204</v>
+      </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
@@ -2858,6 +3002,18 @@
         <f t="shared" si="8"/>
         <v>2160900</v>
       </c>
+      <c r="F107">
+        <v>900</v>
+      </c>
+      <c r="G107">
+        <v>100</v>
+      </c>
+      <c r="H107">
+        <v>556.54999999999995</v>
+      </c>
+      <c r="I107">
+        <v>4.9358509203191998</v>
+      </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
@@ -2876,6 +3032,18 @@
         <f t="shared" si="8"/>
         <v>1882384</v>
       </c>
+      <c r="F108">
+        <v>784</v>
+      </c>
+      <c r="G108">
+        <v>95</v>
+      </c>
+      <c r="H108">
+        <v>667.26315789473597</v>
+      </c>
+      <c r="I108">
+        <v>5.8018848451816298</v>
+      </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
@@ -2894,6 +3062,18 @@
         <f t="shared" si="8"/>
         <v>1623076</v>
       </c>
+      <c r="F109">
+        <v>676</v>
+      </c>
+      <c r="G109">
+        <v>69</v>
+      </c>
+      <c r="H109">
+        <v>798.37681159420197</v>
+      </c>
+      <c r="I109">
+        <v>6.9462721655651398</v>
+      </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
@@ -2912,6 +3092,18 @@
         <f t="shared" si="8"/>
         <v>1382976</v>
       </c>
+      <c r="F110">
+        <v>576</v>
+      </c>
+      <c r="G110">
+        <v>24</v>
+      </c>
+      <c r="H110">
+        <v>875.91666666666595</v>
+      </c>
+      <c r="I110">
+        <v>7.6113937729145</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
@@ -2929,6 +3121,18 @@
       <c r="E111">
         <f t="shared" si="8"/>
         <v>1162084</v>
+      </c>
+      <c r="F111">
+        <v>484</v>
+      </c>
+      <c r="G111">
+        <v>3</v>
+      </c>
+      <c r="H111">
+        <v>950</v>
+      </c>
+      <c r="I111">
+        <v>8.24591497333798</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3876,10 +4080,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B52C55F-5FA9-44C4-BD8D-FE095EDBEDBC}">
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:J165"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5622,6 +5826,18 @@
         <f>A69*($A$68^$B$68)</f>
         <v>3841600</v>
       </c>
+      <c r="F69">
+        <v>1600</v>
+      </c>
+      <c r="G69">
+        <v>100</v>
+      </c>
+      <c r="H69">
+        <v>374.53</v>
+      </c>
+      <c r="I69">
+        <v>1.7313746833521799</v>
+      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
@@ -5640,6 +5856,18 @@
         <f t="shared" ref="E70:E82" si="6">A70*($A$68^$B$68)</f>
         <v>3467044</v>
       </c>
+      <c r="F70">
+        <v>1444</v>
+      </c>
+      <c r="G70">
+        <v>98</v>
+      </c>
+      <c r="H70">
+        <v>445.20408163265301</v>
+      </c>
+      <c r="I70">
+        <v>2.0694150141278702</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
@@ -5658,6 +5886,18 @@
         <f t="shared" si="6"/>
         <v>3111696</v>
       </c>
+      <c r="F71">
+        <v>1296</v>
+      </c>
+      <c r="G71">
+        <v>95</v>
+      </c>
+      <c r="H71">
+        <v>439.46315789473601</v>
+      </c>
+      <c r="I71">
+        <v>2.0225859158666202</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
@@ -5676,6 +5916,18 @@
         <f t="shared" si="6"/>
         <v>2775556</v>
       </c>
+      <c r="F72">
+        <v>1156</v>
+      </c>
+      <c r="G72">
+        <v>97</v>
+      </c>
+      <c r="H72">
+        <v>458.20618556700998</v>
+      </c>
+      <c r="I72">
+        <v>2.1150438447432398</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
@@ -5694,6 +5946,18 @@
         <f t="shared" si="6"/>
         <v>2458624</v>
       </c>
+      <c r="F73">
+        <v>1024</v>
+      </c>
+      <c r="G73">
+        <v>88</v>
+      </c>
+      <c r="H73">
+        <v>403.54545454545399</v>
+      </c>
+      <c r="I73">
+        <v>1.8472035889777001</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
@@ -5712,6 +5976,18 @@
         <f t="shared" si="6"/>
         <v>2160900</v>
       </c>
+      <c r="F74">
+        <v>900</v>
+      </c>
+      <c r="G74">
+        <v>83</v>
+      </c>
+      <c r="H74">
+        <v>375.77108433734901</v>
+      </c>
+      <c r="I74">
+        <v>1.7445144087948601</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
@@ -5730,6 +6006,18 @@
         <f t="shared" si="6"/>
         <v>1882384</v>
       </c>
+      <c r="F75">
+        <v>784</v>
+      </c>
+      <c r="G75">
+        <v>71</v>
+      </c>
+      <c r="H75">
+        <v>553.95774647887299</v>
+      </c>
+      <c r="I75">
+        <v>2.54953712888691</v>
+      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
@@ -5748,6 +6036,18 @@
         <f t="shared" si="6"/>
         <v>1623076</v>
       </c>
+      <c r="F76">
+        <v>676</v>
+      </c>
+      <c r="G76">
+        <v>76</v>
+      </c>
+      <c r="H76">
+        <v>484.63157894736798</v>
+      </c>
+      <c r="I76">
+        <v>2.2151995546339101</v>
+      </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
@@ -5766,6 +6066,18 @@
         <f t="shared" si="6"/>
         <v>1382976</v>
       </c>
+      <c r="F77">
+        <v>576</v>
+      </c>
+      <c r="G77">
+        <v>48</v>
+      </c>
+      <c r="H77">
+        <v>699.20833333333303</v>
+      </c>
+      <c r="I77">
+        <v>3.20620357985656</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
@@ -5784,6 +6096,18 @@
         <f t="shared" si="6"/>
         <v>1162084</v>
       </c>
+      <c r="F78">
+        <v>484</v>
+      </c>
+      <c r="G78">
+        <v>30</v>
+      </c>
+      <c r="H78">
+        <v>702.33333333333303</v>
+      </c>
+      <c r="I78">
+        <v>3.2351420855653998</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
@@ -5802,6 +6126,18 @@
         <f t="shared" si="6"/>
         <v>960400</v>
       </c>
+      <c r="F79">
+        <v>400</v>
+      </c>
+      <c r="G79">
+        <v>15</v>
+      </c>
+      <c r="H79">
+        <v>720.6</v>
+      </c>
+      <c r="I79">
+        <v>3.3198222393286398</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
@@ -5820,8 +6156,20 @@
         <f t="shared" si="6"/>
         <v>777924</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F80">
+        <v>324</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <v>771</v>
+      </c>
+      <c r="I80">
+        <v>3.54831584001658</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>256</v>
       </c>
@@ -5838,8 +6186,20 @@
         <f t="shared" si="6"/>
         <v>614656</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F81">
+        <v>256</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>1000</v>
+      </c>
+      <c r="I81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>196</v>
       </c>
@@ -5856,8 +6216,20 @@
         <f t="shared" si="6"/>
         <v>470596</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F82">
+        <v>196</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>1000</v>
+      </c>
+      <c r="I82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
         <v>4</v>
       </c>
@@ -5868,7 +6240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>7</v>
       </c>
@@ -5879,7 +6251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>1600</v>
       </c>
@@ -5896,8 +6268,20 @@
         <f>A85*($A$84^$B$84)</f>
         <v>3841600</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F85">
+        <v>1600</v>
+      </c>
+      <c r="G85">
+        <v>100</v>
+      </c>
+      <c r="H85">
+        <v>302.94</v>
+      </c>
+      <c r="I85">
+        <v>2.5606260000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>1444</v>
       </c>
@@ -5914,8 +6298,20 @@
         <f t="shared" ref="E86:E98" si="7">A86*($A$84^$B$84)</f>
         <v>3467044</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F86">
+        <v>1444</v>
+      </c>
+      <c r="G86">
+        <v>100</v>
+      </c>
+      <c r="H86">
+        <v>321.43</v>
+      </c>
+      <c r="I86">
+        <v>2.7275550000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>1296</v>
       </c>
@@ -5932,8 +6328,20 @@
         <f t="shared" si="7"/>
         <v>3111696</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F87">
+        <v>1296</v>
+      </c>
+      <c r="G87">
+        <v>99</v>
+      </c>
+      <c r="H87">
+        <v>366.97979797979798</v>
+      </c>
+      <c r="I87">
+        <v>3.189988</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>1156</v>
       </c>
@@ -5950,8 +6358,20 @@
         <f t="shared" si="7"/>
         <v>2775556</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F88">
+        <v>1156</v>
+      </c>
+      <c r="G88">
+        <v>98</v>
+      </c>
+      <c r="H88">
+        <v>415.775510204081</v>
+      </c>
+      <c r="I88">
+        <v>3.7245590000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>1024</v>
       </c>
@@ -5968,8 +6388,20 @@
         <f t="shared" si="7"/>
         <v>2458624</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F89">
+        <v>1024</v>
+      </c>
+      <c r="G89">
+        <v>93</v>
+      </c>
+      <c r="H89">
+        <v>428.94623655913898</v>
+      </c>
+      <c r="I89">
+        <v>3.8415159999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>900</v>
       </c>
@@ -5986,8 +6418,20 @@
         <f t="shared" si="7"/>
         <v>2160900</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F90">
+        <v>900</v>
+      </c>
+      <c r="G90">
+        <v>84</v>
+      </c>
+      <c r="H90">
+        <v>482.142857142857</v>
+      </c>
+      <c r="I90">
+        <v>4.3916849999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>784</v>
       </c>
@@ -6004,8 +6448,20 @@
         <f t="shared" si="7"/>
         <v>1882384</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F91">
+        <v>784</v>
+      </c>
+      <c r="G91">
+        <v>89</v>
+      </c>
+      <c r="H91">
+        <v>527.13483146067404</v>
+      </c>
+      <c r="I91">
+        <v>4.5915730000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>676</v>
       </c>
@@ -6022,8 +6478,20 @@
         <f t="shared" si="7"/>
         <v>1623076</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F92">
+        <v>676</v>
+      </c>
+      <c r="G92">
+        <v>75</v>
+      </c>
+      <c r="H92">
+        <v>605.613333333333</v>
+      </c>
+      <c r="I92">
+        <v>5.1080129999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>576</v>
       </c>
@@ -6040,8 +6508,20 @@
         <f t="shared" si="7"/>
         <v>1382976</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F93">
+        <v>576</v>
+      </c>
+      <c r="G93">
+        <v>41</v>
+      </c>
+      <c r="H93">
+        <v>692.34146341463395</v>
+      </c>
+      <c r="I93">
+        <v>5.9213050000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>484</v>
       </c>
@@ -6058,8 +6538,20 @@
         <f t="shared" si="7"/>
         <v>1162084</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F94">
+        <v>484</v>
+      </c>
+      <c r="G94">
+        <v>27</v>
+      </c>
+      <c r="H94">
+        <v>775.37037037036998</v>
+      </c>
+      <c r="I94">
+        <v>6.524152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>400</v>
       </c>
@@ -6076,8 +6568,20 @@
         <f t="shared" si="7"/>
         <v>960400</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F95">
+        <v>400</v>
+      </c>
+      <c r="G95">
+        <v>4</v>
+      </c>
+      <c r="H95">
+        <v>748.5</v>
+      </c>
+      <c r="I95">
+        <v>6.2731440000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>324</v>
       </c>
@@ -6094,8 +6598,20 @@
         <f t="shared" si="7"/>
         <v>777924</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F96">
+        <v>324</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>839</v>
+      </c>
+      <c r="I96">
+        <v>7.0363319999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>256</v>
       </c>
@@ -6112,8 +6628,20 @@
         <f t="shared" si="7"/>
         <v>614656</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F97">
+        <v>256</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>1000</v>
+      </c>
+      <c r="I97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>196</v>
       </c>
@@ -6130,8 +6658,20 @@
         <f t="shared" si="7"/>
         <v>470596</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F98">
+        <v>196</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>1000</v>
+      </c>
+      <c r="I98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
         <v>4</v>
       </c>
@@ -6142,7 +6682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>7</v>
       </c>
@@ -6153,7 +6693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>1600</v>
       </c>
@@ -6170,8 +6710,20 @@
         <f>A101*($A$100^$B$100)</f>
         <v>3841600</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G101">
+        <v>1600</v>
+      </c>
+      <c r="H101">
+        <v>98</v>
+      </c>
+      <c r="I101">
+        <v>459.09183669999999</v>
+      </c>
+      <c r="J101">
+        <v>4.6258631570000004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>1444</v>
       </c>
@@ -6188,8 +6740,20 @@
         <f t="shared" ref="E102:E114" si="8">A102*($A$100^$B$100)</f>
         <v>3467044</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G102">
+        <v>1444</v>
+      </c>
+      <c r="H102">
+        <v>98</v>
+      </c>
+      <c r="I102">
+        <v>492.6020408</v>
+      </c>
+      <c r="J102">
+        <v>4.9668090620000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>1296</v>
       </c>
@@ -6206,8 +6770,20 @@
         <f t="shared" si="8"/>
         <v>3111696</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G103">
+        <v>1296</v>
+      </c>
+      <c r="H103">
+        <v>99</v>
+      </c>
+      <c r="I103">
+        <v>548.65656569999999</v>
+      </c>
+      <c r="J103">
+        <v>5.4604042860000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>1156</v>
       </c>
@@ -6224,8 +6800,20 @@
         <f t="shared" si="8"/>
         <v>2775556</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G104">
+        <v>1156</v>
+      </c>
+      <c r="H104">
+        <v>98</v>
+      </c>
+      <c r="I104">
+        <v>612.74489800000003</v>
+      </c>
+      <c r="J104">
+        <v>6.095365224</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>1024</v>
       </c>
@@ -6242,8 +6830,20 @@
         <f t="shared" si="8"/>
         <v>2458624</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G105">
+        <v>1024</v>
+      </c>
+      <c r="H105">
+        <v>89</v>
+      </c>
+      <c r="I105">
+        <v>623.73033710000004</v>
+      </c>
+      <c r="J105">
+        <v>6.1745665279999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>900</v>
       </c>
@@ -6260,8 +6860,20 @@
         <f t="shared" si="8"/>
         <v>2160900</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G106">
+        <v>900</v>
+      </c>
+      <c r="H106">
+        <v>74</v>
+      </c>
+      <c r="I106">
+        <v>701.21621619999996</v>
+      </c>
+      <c r="J106">
+        <v>6.9811537279999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>784</v>
       </c>
@@ -6278,8 +6890,20 @@
         <f t="shared" si="8"/>
         <v>1882384</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G107">
+        <v>784</v>
+      </c>
+      <c r="H107">
+        <v>56</v>
+      </c>
+      <c r="I107">
+        <v>767.14285710000001</v>
+      </c>
+      <c r="J107">
+        <v>7.5885931019999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>676</v>
       </c>
@@ -6296,8 +6920,20 @@
         <f t="shared" si="8"/>
         <v>1623076</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G108">
+        <v>676</v>
+      </c>
+      <c r="H108">
+        <v>23</v>
+      </c>
+      <c r="I108">
+        <v>839.52173909999999</v>
+      </c>
+      <c r="J108">
+        <v>8.3232024350000007</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>576</v>
       </c>
@@ -6314,8 +6950,20 @@
         <f t="shared" si="8"/>
         <v>1382976</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G109">
+        <v>576</v>
+      </c>
+      <c r="H109">
+        <v>5</v>
+      </c>
+      <c r="I109">
+        <v>900.8</v>
+      </c>
+      <c r="J109">
+        <v>8.9559645579999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>484</v>
       </c>
@@ -6332,8 +6980,20 @@
         <f t="shared" si="8"/>
         <v>1162084</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G110">
+        <v>484</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>1000</v>
+      </c>
+      <c r="J110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>400</v>
       </c>
@@ -6350,8 +7010,20 @@
         <f t="shared" si="8"/>
         <v>960400</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G111">
+        <v>400</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>1000</v>
+      </c>
+      <c r="J111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>324</v>
       </c>
@@ -6368,8 +7040,20 @@
         <f t="shared" si="8"/>
         <v>777924</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G112">
+        <v>324</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>1000</v>
+      </c>
+      <c r="J112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>256</v>
       </c>
@@ -6386,8 +7070,20 @@
         <f t="shared" si="8"/>
         <v>614656</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G113">
+        <v>256</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>1000</v>
+      </c>
+      <c r="J113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>196</v>
       </c>
@@ -6404,8 +7100,20 @@
         <f t="shared" si="8"/>
         <v>470596</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G114">
+        <v>196</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>1000</v>
+      </c>
+      <c r="J114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
         <v>4</v>
       </c>
@@ -6416,7 +7124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>8</v>
       </c>
@@ -6427,7 +7135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>784</v>
       </c>
@@ -6444,8 +7152,20 @@
         <f>A117*($A$116^$B$116)</f>
         <v>3211264</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G117">
+        <v>784</v>
+      </c>
+      <c r="H117">
+        <v>27</v>
+      </c>
+      <c r="I117">
+        <v>729.25925925925901</v>
+      </c>
+      <c r="J117">
+        <v>4.2519677724835798</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>676</v>
       </c>
@@ -6462,8 +7182,20 @@
         <f t="shared" ref="E118:E124" si="9">A118*($A$116^$B$116)</f>
         <v>2768896</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G118">
+        <v>676</v>
+      </c>
+      <c r="H118">
+        <v>20</v>
+      </c>
+      <c r="I118">
+        <v>787.25</v>
+      </c>
+      <c r="J118">
+        <v>4.5860035040968796</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>576</v>
       </c>
@@ -6480,8 +7212,20 @@
         <f t="shared" si="9"/>
         <v>2359296</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G119">
+        <v>576</v>
+      </c>
+      <c r="H119">
+        <v>3</v>
+      </c>
+      <c r="I119">
+        <v>794</v>
+      </c>
+      <c r="J119">
+        <v>4.7013305836395904</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>484</v>
       </c>
@@ -6498,8 +7242,20 @@
         <f t="shared" si="9"/>
         <v>1982464</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G120">
+        <v>484</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>886</v>
+      </c>
+      <c r="J120">
+        <v>5.1418725360417703</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>400</v>
       </c>
@@ -6517,7 +7273,7 @@
         <v>1638400</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>324</v>
       </c>
@@ -6535,7 +7291,7 @@
         <v>1327104</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>256</v>
       </c>
@@ -6553,7 +7309,7 @@
         <v>1048576</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>196</v>
       </c>
@@ -6571,7 +7327,7 @@
         <v>802816</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
         <v>4</v>
       </c>
@@ -6582,7 +7338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>8</v>
       </c>
@@ -6593,7 +7349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>784</v>
       </c>
@@ -6610,8 +7366,20 @@
         <f>A127*($A$126^$B$126)</f>
         <v>3211264</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G127">
+        <v>784</v>
+      </c>
+      <c r="H127">
+        <v>53</v>
+      </c>
+      <c r="I127">
+        <v>645.98113209999997</v>
+      </c>
+      <c r="J127">
+        <v>6.8307841729999996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>676</v>
       </c>
@@ -6628,8 +7396,20 @@
         <f t="shared" ref="E128:E134" si="10">A128*($A$126^$B$126)</f>
         <v>2768896</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G128">
+        <v>676</v>
+      </c>
+      <c r="H128">
+        <v>25</v>
+      </c>
+      <c r="I128">
+        <v>782.68</v>
+      </c>
+      <c r="J128">
+        <v>8.2045628750000006</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>576</v>
       </c>
@@ -6646,8 +7426,20 @@
         <f t="shared" si="10"/>
         <v>2359296</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G129">
+        <v>576</v>
+      </c>
+      <c r="H129">
+        <v>9</v>
+      </c>
+      <c r="I129">
+        <v>729.66666669999995</v>
+      </c>
+      <c r="J129">
+        <v>7.8266478629999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>484</v>
       </c>
@@ -6664,8 +7456,20 @@
         <f t="shared" si="10"/>
         <v>1982464</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G130">
+        <v>484</v>
+      </c>
+      <c r="H130">
+        <v>8</v>
+      </c>
+      <c r="I130">
+        <v>858.125</v>
+      </c>
+      <c r="J130">
+        <v>9.0234523450000008</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>400</v>
       </c>
@@ -6683,7 +7487,7 @@
         <v>1638400</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>324</v>
       </c>
@@ -6701,7 +7505,7 @@
         <v>1327104</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>256</v>
       </c>
@@ -6719,7 +7523,7 @@
         <v>1048576</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>196</v>
       </c>
@@ -6737,7 +7541,7 @@
         <v>802816</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1" t="s">
         <v>4</v>
       </c>
@@ -6748,7 +7552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>8</v>
       </c>
@@ -6759,7 +7563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>784</v>
       </c>
@@ -6776,8 +7580,20 @@
         <f>A137*($A$136^$B$136)</f>
         <v>3211264</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G137">
+        <v>784</v>
+      </c>
+      <c r="H137">
+        <v>19</v>
+      </c>
+      <c r="I137">
+        <v>804.31578947368405</v>
+      </c>
+      <c r="J137">
+        <v>8.6321268895775702</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>676</v>
       </c>
@@ -6794,8 +7610,20 @@
         <f t="shared" ref="E138:E141" si="11">A138*($A$136^$B$136)</f>
         <v>2768896</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G138">
+        <v>676</v>
+      </c>
+      <c r="H138">
+        <v>4</v>
+      </c>
+      <c r="I138">
+        <v>907.75</v>
+      </c>
+      <c r="J138">
+        <v>9.7276839250116591</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>576</v>
       </c>
@@ -6813,7 +7641,7 @@
         <v>2359296</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>484</v>
       </c>
@@ -6831,7 +7659,7 @@
         <v>1982464</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>400</v>
       </c>
@@ -6849,7 +7677,7 @@
         <v>1638400</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1" t="s">
         <v>4</v>
       </c>
@@ -6860,7 +7688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>10</v>
       </c>
@@ -6871,7 +7699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>1600</v>
       </c>

--- a/ResultsHPCC.xlsx
+++ b/ResultsHPCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61878F77-A8FF-42C5-A4A3-0DC32ECCB01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B028323C-8AC7-4242-9329-FD1E5540F4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" activeTab="1" xr2:uid="{6AF1A893-C99E-4402-8250-ECFA3279128F}"/>
+    <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{6AF1A893-C99E-4402-8250-ECFA3279128F}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="18">
   <si>
     <t>ALL EXPERIMENTS DONE on MSU HPCC WITH THE FOLLOWING SETTINGS</t>
   </si>
@@ -79,12 +79,15 @@
   <si>
     <t>RUN THIS</t>
   </si>
+  <si>
+    <t>NEED TO RUN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +105,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,10 +138,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,10 +492,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75700BE6-961B-4EED-9E57-E1BAE03CF329}">
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="L104" sqref="L104"/>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="N159" sqref="N159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3153,7 +3165,7 @@
         <v>960400</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>324</v>
       </c>
@@ -3171,7 +3183,7 @@
         <v>777924</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>256</v>
       </c>
@@ -3189,7 +3201,7 @@
         <v>614656</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>196</v>
       </c>
@@ -3207,7 +3219,7 @@
         <v>470596</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1" t="s">
         <v>4</v>
       </c>
@@ -3218,7 +3230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>8</v>
       </c>
@@ -3229,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>784</v>
       </c>
@@ -3246,8 +3258,20 @@
         <f>A118*($A$117^$B$117)</f>
         <v>3211264</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F118">
+        <v>784</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
+      </c>
+      <c r="H118">
+        <v>951</v>
+      </c>
+      <c r="I118">
+        <v>5.0039216572961998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>676</v>
       </c>
@@ -3264,8 +3288,20 @@
         <f t="shared" ref="E119:E125" si="9">A119*($A$117^$B$117)</f>
         <v>2768896</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F119">
+        <v>676</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>993</v>
+      </c>
+      <c r="I119">
+        <v>5.1505129029974297</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>576</v>
       </c>
@@ -3283,7 +3319,7 @@
         <v>2359296</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>484</v>
       </c>
@@ -3301,7 +3337,7 @@
         <v>1982464</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>400</v>
       </c>
@@ -3319,7 +3355,7 @@
         <v>1638400</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>324</v>
       </c>
@@ -3337,7 +3373,7 @@
         <v>1327104</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>256</v>
       </c>
@@ -3355,7 +3391,7 @@
         <v>1048576</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>196</v>
       </c>
@@ -3373,7 +3409,7 @@
         <v>802816</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1" t="s">
         <v>4</v>
       </c>
@@ -3384,7 +3420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>8</v>
       </c>
@@ -3395,7 +3431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>784</v>
       </c>
@@ -3412,8 +3448,20 @@
         <f>A128*($A$127^$B$127)</f>
         <v>3211264</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F128">
+        <v>784</v>
+      </c>
+      <c r="G128">
+        <v>17</v>
+      </c>
+      <c r="H128">
+        <v>858.76470589999997</v>
+      </c>
+      <c r="I128">
+        <v>8.0043342509999995</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>676</v>
       </c>
@@ -3430,8 +3478,20 @@
         <f t="shared" ref="E129:E135" si="10">A129*($A$127^$B$127)</f>
         <v>2768896</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F129">
+        <v>676</v>
+      </c>
+      <c r="G129">
+        <v>6</v>
+      </c>
+      <c r="H129">
+        <v>862.33333330000005</v>
+      </c>
+      <c r="I129">
+        <v>8.0775783000000008</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>576</v>
       </c>
@@ -3448,8 +3508,20 @@
         <f t="shared" si="10"/>
         <v>2359296</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F130">
+        <v>576</v>
+      </c>
+      <c r="G130">
+        <v>2</v>
+      </c>
+      <c r="H130">
+        <v>872</v>
+      </c>
+      <c r="I130">
+        <v>8.1681945519999992</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>484</v>
       </c>
@@ -3467,7 +3539,7 @@
         <v>1982464</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>400</v>
       </c>
@@ -3485,7 +3557,7 @@
         <v>1638400</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>324</v>
       </c>
@@ -3503,7 +3575,7 @@
         <v>1327104</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>256</v>
       </c>
@@ -3521,7 +3593,7 @@
         <v>1048576</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>196</v>
       </c>
@@ -3539,7 +3611,7 @@
         <v>802816</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1" t="s">
         <v>4</v>
       </c>
@@ -3550,7 +3622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>8</v>
       </c>
@@ -3561,7 +3633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>784</v>
       </c>
@@ -3579,7 +3651,7 @@
         <v>3211264</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>676</v>
       </c>
@@ -3597,7 +3669,7 @@
         <v>2768896</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>576</v>
       </c>
@@ -3615,7 +3687,7 @@
         <v>2359296</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>484</v>
       </c>
@@ -3633,7 +3705,7 @@
         <v>1982464</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>400</v>
       </c>
@@ -3651,7 +3723,7 @@
         <v>1638400</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1" t="s">
         <v>4</v>
       </c>
@@ -3662,7 +3734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>10</v>
       </c>
@@ -3673,7 +3745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>2500</v>
       </c>
@@ -3691,7 +3763,7 @@
         <v>25000000</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>2304</v>
       </c>
@@ -3709,7 +3781,7 @@
         <v>23040000</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>2116</v>
       </c>
@@ -3727,7 +3799,7 @@
         <v>21160000</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>1936</v>
       </c>
@@ -3745,7 +3817,7 @@
         <v>19360000</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>1764</v>
       </c>
@@ -3762,8 +3834,23 @@
         <f t="shared" si="12"/>
         <v>17640000</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="J149">
+        <v>1764</v>
+      </c>
+      <c r="K149">
+        <v>100</v>
+      </c>
+      <c r="L149">
+        <v>231.23</v>
+      </c>
+      <c r="M149">
+        <v>17.799812491958701</v>
+      </c>
+      <c r="N149">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>1600</v>
       </c>
@@ -3780,8 +3867,23 @@
         <f t="shared" si="12"/>
         <v>16000000</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="J150">
+        <v>1600</v>
+      </c>
+      <c r="K150">
+        <v>100</v>
+      </c>
+      <c r="L150">
+        <v>180.43</v>
+      </c>
+      <c r="M150">
+        <v>12.8192447564424</v>
+      </c>
+      <c r="N150">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>1444</v>
       </c>
@@ -3798,8 +3900,23 @@
         <f t="shared" si="12"/>
         <v>14440000</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="J151">
+        <v>1444</v>
+      </c>
+      <c r="K151">
+        <v>100</v>
+      </c>
+      <c r="L151">
+        <v>260.87</v>
+      </c>
+      <c r="M151">
+        <v>17.1117929873813</v>
+      </c>
+      <c r="N151">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>1296</v>
       </c>
@@ -3816,8 +3933,23 @@
         <f t="shared" si="12"/>
         <v>12960000</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="J152">
+        <v>1296</v>
+      </c>
+      <c r="K152">
+        <v>100</v>
+      </c>
+      <c r="L152">
+        <v>169.46</v>
+      </c>
+      <c r="M152">
+        <v>10.179820107907201</v>
+      </c>
+      <c r="N152">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>1156</v>
       </c>
@@ -3834,8 +3966,23 @@
         <f t="shared" si="12"/>
         <v>11560000</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="J153">
+        <v>1156</v>
+      </c>
+      <c r="K153">
+        <v>100</v>
+      </c>
+      <c r="L153">
+        <v>153.69999999999999</v>
+      </c>
+      <c r="M153">
+        <v>8.4657328579563096</v>
+      </c>
+      <c r="N153">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>1024</v>
       </c>
@@ -3852,8 +3999,23 @@
         <f t="shared" si="12"/>
         <v>10240000</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="J154">
+        <v>1024</v>
+      </c>
+      <c r="K154">
+        <v>100</v>
+      </c>
+      <c r="L154">
+        <v>170.66</v>
+      </c>
+      <c r="M154">
+        <v>8.5238273511477693</v>
+      </c>
+      <c r="N154">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>900</v>
       </c>
@@ -3870,8 +4032,23 @@
         <f t="shared" si="12"/>
         <v>9000000</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="J155">
+        <v>900</v>
+      </c>
+      <c r="K155">
+        <v>100</v>
+      </c>
+      <c r="L155">
+        <v>208.58</v>
+      </c>
+      <c r="M155">
+        <v>9.4261198371113206</v>
+      </c>
+      <c r="N155">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>784</v>
       </c>
@@ -3889,7 +4066,7 @@
         <v>7840000</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>676</v>
       </c>
@@ -3907,7 +4084,7 @@
         <v>6760000</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>576</v>
       </c>
@@ -3925,7 +4102,7 @@
         <v>5760000</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>484</v>
       </c>
@@ -3943,7 +4120,7 @@
         <v>4840000</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>400</v>
       </c>
@@ -3961,115 +4138,115 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161" s="1" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" s="1">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="1">
         <v>10</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B166" s="1">
         <v>4</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C166" s="1">
         <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A163">
-        <v>2500</v>
-      </c>
-      <c r="B163">
-        <v>100</v>
-      </c>
-      <c r="C163">
-        <v>130.12</v>
-      </c>
-      <c r="D163">
-        <v>3.5453392092193798</v>
-      </c>
-      <c r="E163">
-        <f>A163*($A$162^$B$162)</f>
-        <v>25000000</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A164">
-        <v>2304</v>
-      </c>
-      <c r="B164">
-        <v>100</v>
-      </c>
-      <c r="C164">
-        <v>138.72999999999999</v>
-      </c>
-      <c r="D164">
-        <v>3.6323938088185899</v>
-      </c>
-      <c r="E164">
-        <f t="shared" ref="E164:E167" si="13">A164*($A$162^$B$162)</f>
-        <v>23040000</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A165">
-        <v>2116</v>
-      </c>
-      <c r="B165">
-        <v>100</v>
-      </c>
-      <c r="C165">
-        <v>141.72999999999999</v>
-      </c>
-      <c r="D165">
-        <v>3.5438134080797301</v>
-      </c>
-      <c r="E165">
-        <f t="shared" si="13"/>
-        <v>21160000</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A166">
-        <v>1936</v>
-      </c>
-      <c r="B166">
-        <v>100</v>
-      </c>
-      <c r="C166">
-        <v>147.21</v>
-      </c>
-      <c r="D166">
-        <v>3.5180230547688498</v>
-      </c>
-      <c r="E166">
-        <f t="shared" si="13"/>
-        <v>19360000</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
+        <v>2500</v>
+      </c>
+      <c r="B167">
+        <v>100</v>
+      </c>
+      <c r="C167">
+        <v>130.12</v>
+      </c>
+      <c r="D167">
+        <v>3.5453392092193798</v>
+      </c>
+      <c r="E167">
+        <f>A167*($A$166^$B$166)</f>
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168">
+        <v>2304</v>
+      </c>
+      <c r="B168">
+        <v>100</v>
+      </c>
+      <c r="C168">
+        <v>138.72999999999999</v>
+      </c>
+      <c r="D168">
+        <v>3.6323938088185899</v>
+      </c>
+      <c r="E168">
+        <f>A168*($A$166^$B$166)</f>
+        <v>23040000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169">
+        <v>2116</v>
+      </c>
+      <c r="B169">
+        <v>100</v>
+      </c>
+      <c r="C169">
+        <v>141.72999999999999</v>
+      </c>
+      <c r="D169">
+        <v>3.5438134080797301</v>
+      </c>
+      <c r="E169">
+        <f>A169*($A$166^$B$166)</f>
+        <v>21160000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170">
+        <v>1936</v>
+      </c>
+      <c r="B170">
+        <v>100</v>
+      </c>
+      <c r="C170">
+        <v>147.21</v>
+      </c>
+      <c r="D170">
+        <v>3.5180230547688498</v>
+      </c>
+      <c r="E170">
+        <f>A170*($A$166^$B$166)</f>
+        <v>19360000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171">
         <v>1764</v>
       </c>
-      <c r="B167">
-        <v>100</v>
-      </c>
-      <c r="C167">
+      <c r="B171">
+        <v>100</v>
+      </c>
+      <c r="C171">
         <v>165.08</v>
       </c>
-      <c r="D167">
+      <c r="D171">
         <v>3.7877152578276498</v>
       </c>
-      <c r="E167">
-        <f t="shared" si="13"/>
+      <c r="E171">
+        <f>A171*($A$166^$B$166)</f>
         <v>17640000</v>
       </c>
     </row>
@@ -4080,15 +4257,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B52C55F-5FA9-44C4-BD8D-FE095EDBEDBC}">
-  <dimension ref="A1:J165"/>
+  <dimension ref="A1:P168"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="L144" sqref="L144:P168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -4096,7 +4273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4113,7 +4290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4124,7 +4301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -4135,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>400</v>
       </c>
@@ -4152,20 +4329,20 @@
         <f>A5*($A$4^$B$4)</f>
         <v>250000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>400</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>95</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>380.83157890000001</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.52957784</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>324</v>
       </c>
@@ -4182,20 +4359,20 @@
         <f t="shared" ref="E6:E12" si="0">A6*($A$4^$B$4)</f>
         <v>202500</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>324</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>92</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>441.78260870000003</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1.794378228</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>256</v>
       </c>
@@ -4212,20 +4389,20 @@
         <f t="shared" si="0"/>
         <v>160000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>256</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>68</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>626.79411760000005</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2.5272142770000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>196</v>
       </c>
@@ -4242,20 +4419,20 @@
         <f t="shared" si="0"/>
         <v>122500</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>196</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>16</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>747.375</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>3.006916634</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>144</v>
       </c>
@@ -4263,20 +4440,20 @@
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>144</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>866</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>3.4409233229999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>100</v>
       </c>
@@ -4293,20 +4470,20 @@
         <f t="shared" si="0"/>
         <v>62500</v>
       </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
       <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>886</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>3.578355057</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>64</v>
       </c>
@@ -4323,20 +4500,20 @@
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>64</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1000</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>36</v>
       </c>
@@ -4353,20 +4530,20 @@
         <f t="shared" si="0"/>
         <v>22500</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>36</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1000</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -4377,7 +4554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -4388,7 +4565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>400</v>
       </c>
@@ -4405,20 +4582,20 @@
         <f>A15*($A$14^$B$14)</f>
         <v>250000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>400</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>90</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>549.06666670000004</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>3.690852027</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>324</v>
       </c>
@@ -4435,20 +4612,20 @@
         <f t="shared" ref="E16:E22" si="1">A16*($A$14^$B$14)</f>
         <v>202500</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>324</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>75</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>685.09333330000004</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>4.6249293500000004</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>256</v>
       </c>
@@ -4465,20 +4642,20 @@
         <f t="shared" si="1"/>
         <v>160000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>256</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>29</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>710.5517241</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>4.7584462089999997</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>196</v>
       </c>
@@ -4495,20 +4672,20 @@
         <f t="shared" si="1"/>
         <v>122500</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>196</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>15</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>815.8666667</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>5.4696796650000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>144</v>
       </c>
@@ -4516,20 +4693,20 @@
         <f t="shared" si="1"/>
         <v>90000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>144</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1000</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>100</v>
       </c>
@@ -4546,20 +4723,20 @@
         <f t="shared" si="1"/>
         <v>62500</v>
       </c>
-      <c r="F20">
-        <v>100</v>
-      </c>
       <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
         <v>0</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1000</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>64</v>
       </c>
@@ -4576,20 +4753,20 @@
         <f t="shared" si="1"/>
         <v>40000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>64</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1000</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>36</v>
       </c>
@@ -4606,20 +4783,20 @@
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>36</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1000</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -4630,7 +4807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>5</v>
       </c>
@@ -4641,7 +4818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>400</v>
       </c>
@@ -4658,20 +4835,20 @@
         <f>A25*($A$24^$B$24)</f>
         <v>250000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>400</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>3</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>958.66666666666595</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>6.6530941783372901</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>324</v>
       </c>
@@ -4688,20 +4865,20 @@
         <f t="shared" ref="E26:E28" si="2">A26*($A$24^$B$24)</f>
         <v>202500</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>324</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>947</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>6.6299094699788803</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>256</v>
       </c>
@@ -4718,20 +4895,20 @@
         <f t="shared" si="2"/>
         <v>160000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>256</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>0</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1000</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>196</v>
       </c>
@@ -4748,20 +4925,20 @@
         <f t="shared" si="2"/>
         <v>122500</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>196</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1000</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -4772,7 +4949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>6</v>
       </c>
@@ -4783,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>900</v>
       </c>
@@ -4800,20 +4977,20 @@
         <f>A31*($A$30^$B$30)</f>
         <v>1166400</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>900</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>96</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>363.71875</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1.5165340607309099</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>784</v>
       </c>
@@ -4830,20 +5007,20 @@
         <f t="shared" ref="E32:E41" si="3">A32*($A$30^$B$30)</f>
         <v>1016064</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>784</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>93</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>468.40860215053698</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>1.9403764418606699</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>676</v>
       </c>
@@ -4860,20 +5037,20 @@
         <f t="shared" si="3"/>
         <v>876096</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>676</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>86</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>486.62790697674399</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>2.01821525460569</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>576</v>
       </c>
@@ -4890,20 +5067,20 @@
         <f t="shared" si="3"/>
         <v>746496</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>576</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>85</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>482.69411764705802</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>2.0000625129254899</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>484</v>
       </c>
@@ -4920,20 +5097,20 @@
         <f t="shared" si="3"/>
         <v>627264</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>484</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>54</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>593.25925925925901</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>2.4739464566982501</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>400</v>
       </c>
@@ -4950,20 +5127,20 @@
         <f t="shared" si="3"/>
         <v>518400</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>400</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>44</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>636.09090909090901</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>2.65267952657251</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>324</v>
       </c>
@@ -4980,20 +5157,20 @@
         <f t="shared" si="3"/>
         <v>419904</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>324</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>10</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>798</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>3.3750213126942898</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>256</v>
       </c>
@@ -5010,20 +5187,20 @@
         <f t="shared" si="3"/>
         <v>331776</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>256</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>3</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>783.66666666666595</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>3.2160208433439599</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>196</v>
       </c>
@@ -5040,20 +5217,20 @@
         <f t="shared" si="3"/>
         <v>254016</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>196</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>1</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>670</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>2.7637152009992798</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>144</v>
       </c>
@@ -5070,20 +5247,20 @@
         <f t="shared" si="3"/>
         <v>186624</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>144</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>0</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>1000</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>100</v>
       </c>
@@ -5100,20 +5277,20 @@
         <f t="shared" si="3"/>
         <v>129600</v>
       </c>
-      <c r="F41">
-        <v>100</v>
-      </c>
       <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41">
         <v>0</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>1000</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -5124,7 +5301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>6</v>
       </c>
@@ -5135,7 +5312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>900</v>
       </c>
@@ -5152,20 +5329,20 @@
         <f>A44*($A$43^$B$43)</f>
         <v>1166400</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>900</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>98</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>341.43877551020398</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>2.4790127786816001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>784</v>
       </c>
@@ -5182,20 +5359,20 @@
         <f t="shared" ref="E45:E54" si="4">A45*($A$43^$B$43)</f>
         <v>1016064</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>784</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>93</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>430.43010752688099</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>3.0934673675494899</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>676</v>
       </c>
@@ -5212,20 +5389,20 @@
         <f t="shared" si="4"/>
         <v>876096</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>676</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>85</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>508.14117647058799</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>3.7289204112493701</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>576</v>
       </c>
@@ -5242,20 +5419,20 @@
         <f t="shared" si="4"/>
         <v>746496</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>576</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>78</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>584.74358974358904</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>4.2087193515483001</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>484</v>
       </c>
@@ -5272,20 +5449,20 @@
         <f t="shared" si="4"/>
         <v>627264</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>484</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>54</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>664.53703703703695</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>4.7850637857368801</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>400</v>
       </c>
@@ -5302,20 +5479,20 @@
         <f t="shared" si="4"/>
         <v>518400</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>400</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>42</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>690.88095238095195</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>4.9315968201761802</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>324</v>
       </c>
@@ -5332,20 +5509,20 @@
         <f t="shared" si="4"/>
         <v>419904</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>324</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>16</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>807.625</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>5.7882655927460203</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>256</v>
       </c>
@@ -5362,20 +5539,20 @@
         <f t="shared" si="4"/>
         <v>331776</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>256</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>6</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>871</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>6.23860630299896</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>196</v>
       </c>
@@ -5392,20 +5569,20 @@
         <f t="shared" si="4"/>
         <v>254016</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>196</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>1</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>905</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>6.5324204220087196</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>144</v>
       </c>
@@ -5422,20 +5599,20 @@
         <f t="shared" si="4"/>
         <v>186624</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>144</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>0</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>1000</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>100</v>
       </c>
@@ -5452,20 +5629,20 @@
         <f t="shared" si="4"/>
         <v>129600</v>
       </c>
-      <c r="F54">
-        <v>100</v>
-      </c>
       <c r="G54">
+        <v>100</v>
+      </c>
+      <c r="H54">
         <v>0</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>1000</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
         <v>4</v>
       </c>
@@ -5476,7 +5653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>6</v>
       </c>
@@ -5487,7 +5664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>900</v>
       </c>
@@ -5504,20 +5681,20 @@
         <f>A57*($A$56^$B$56)</f>
         <v>1166400</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>900</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>96</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>587.20833333333303</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>6.2221731568454999</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>784</v>
       </c>
@@ -5534,20 +5711,20 @@
         <f t="shared" ref="E58:E66" si="5">A58*($A$56^$B$56)</f>
         <v>1016064</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>784</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>85</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>697.17647058823502</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>7.4084431919878702</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>676</v>
       </c>
@@ -5564,20 +5741,20 @@
         <f t="shared" si="5"/>
         <v>876096</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>676</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>64</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>718.546875</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>7.6165240975033104</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>576</v>
       </c>
@@ -5594,20 +5771,20 @@
         <f t="shared" si="5"/>
         <v>746496</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>576</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>40</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>785.42499999999995</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>8.1698059798742104</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>484</v>
       </c>
@@ -5624,20 +5801,20 @@
         <f t="shared" si="5"/>
         <v>627264</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>484</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>21</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>815.23809523809496</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>8.5082471764236196</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>400</v>
       </c>
@@ -5654,20 +5831,20 @@
         <f t="shared" si="5"/>
         <v>518400</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>400</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>1</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>926</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>9.5970999459968809</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>324</v>
       </c>
@@ -5684,20 +5861,20 @@
         <f t="shared" si="5"/>
         <v>419904</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>324</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>0</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>1000</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>256</v>
       </c>
@@ -5714,20 +5891,20 @@
         <f t="shared" si="5"/>
         <v>331776</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>256</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>0</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>1000</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>196</v>
       </c>
@@ -5744,20 +5921,20 @@
         <f t="shared" si="5"/>
         <v>254016</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>196</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>0</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>1000</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>144</v>
       </c>
@@ -5774,20 +5951,20 @@
         <f t="shared" si="5"/>
         <v>186624</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>144</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>0</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>1000</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>4</v>
       </c>
@@ -5798,7 +5975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>7</v>
       </c>
@@ -5809,7 +5986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>1600</v>
       </c>
@@ -5826,20 +6003,20 @@
         <f>A69*($A$68^$B$68)</f>
         <v>3841600</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>1600</v>
       </c>
-      <c r="G69">
-        <v>100</v>
-      </c>
       <c r="H69">
+        <v>100</v>
+      </c>
+      <c r="I69">
         <v>374.53</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>1.7313746833521799</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>1444</v>
       </c>
@@ -5856,20 +6033,20 @@
         <f t="shared" ref="E70:E82" si="6">A70*($A$68^$B$68)</f>
         <v>3467044</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>1444</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>98</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>445.20408163265301</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>2.0694150141278702</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>1296</v>
       </c>
@@ -5886,20 +6063,20 @@
         <f t="shared" si="6"/>
         <v>3111696</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>1296</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>95</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>439.46315789473601</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>2.0225859158666202</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>1156</v>
       </c>
@@ -5916,20 +6093,20 @@
         <f t="shared" si="6"/>
         <v>2775556</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>1156</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>97</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>458.20618556700998</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>2.1150438447432398</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>1024</v>
       </c>
@@ -5946,20 +6123,20 @@
         <f t="shared" si="6"/>
         <v>2458624</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>1024</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>88</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>403.54545454545399</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>1.8472035889777001</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>900</v>
       </c>
@@ -5976,20 +6153,20 @@
         <f t="shared" si="6"/>
         <v>2160900</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>900</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>83</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>375.77108433734901</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>1.7445144087948601</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>784</v>
       </c>
@@ -6006,20 +6183,20 @@
         <f t="shared" si="6"/>
         <v>1882384</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>784</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>71</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>553.95774647887299</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>2.54953712888691</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>676</v>
       </c>
@@ -6036,20 +6213,20 @@
         <f t="shared" si="6"/>
         <v>1623076</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>676</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>76</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>484.63157894736798</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>2.2151995546339101</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>576</v>
       </c>
@@ -6066,20 +6243,20 @@
         <f t="shared" si="6"/>
         <v>1382976</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>576</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>48</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>699.20833333333303</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>3.20620357985656</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>484</v>
       </c>
@@ -6096,20 +6273,20 @@
         <f t="shared" si="6"/>
         <v>1162084</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>484</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>30</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>702.33333333333303</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>3.2351420855653998</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>400</v>
       </c>
@@ -6126,20 +6303,20 @@
         <f t="shared" si="6"/>
         <v>960400</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>400</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>15</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>720.6</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>3.3198222393286398</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>324</v>
       </c>
@@ -6156,20 +6333,20 @@
         <f t="shared" si="6"/>
         <v>777924</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>324</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>2</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>771</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>3.54831584001658</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>256</v>
       </c>
@@ -6186,20 +6363,20 @@
         <f t="shared" si="6"/>
         <v>614656</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>256</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>0</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>1000</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>196</v>
       </c>
@@ -6216,20 +6393,20 @@
         <f t="shared" si="6"/>
         <v>470596</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>196</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>0</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>1000</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
         <v>4</v>
       </c>
@@ -6240,7 +6417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>7</v>
       </c>
@@ -6251,7 +6428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>1600</v>
       </c>
@@ -6268,20 +6445,20 @@
         <f>A85*($A$84^$B$84)</f>
         <v>3841600</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>1600</v>
       </c>
-      <c r="G85">
-        <v>100</v>
-      </c>
       <c r="H85">
+        <v>100</v>
+      </c>
+      <c r="I85">
         <v>302.94</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>2.5606260000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>1444</v>
       </c>
@@ -6298,20 +6475,20 @@
         <f t="shared" ref="E86:E98" si="7">A86*($A$84^$B$84)</f>
         <v>3467044</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>1444</v>
       </c>
-      <c r="G86">
-        <v>100</v>
-      </c>
       <c r="H86">
+        <v>100</v>
+      </c>
+      <c r="I86">
         <v>321.43</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>2.7275550000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>1296</v>
       </c>
@@ -6328,20 +6505,20 @@
         <f t="shared" si="7"/>
         <v>3111696</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>1296</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>99</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>366.97979797979798</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>3.189988</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>1156</v>
       </c>
@@ -6358,20 +6535,20 @@
         <f t="shared" si="7"/>
         <v>2775556</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>1156</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>98</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>415.775510204081</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>3.7245590000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>1024</v>
       </c>
@@ -6388,20 +6565,20 @@
         <f t="shared" si="7"/>
         <v>2458624</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>1024</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>93</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>428.94623655913898</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>3.8415159999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>900</v>
       </c>
@@ -6418,20 +6595,20 @@
         <f t="shared" si="7"/>
         <v>2160900</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>900</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>84</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>482.142857142857</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>4.3916849999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>784</v>
       </c>
@@ -6448,20 +6625,20 @@
         <f t="shared" si="7"/>
         <v>1882384</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>784</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>89</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>527.13483146067404</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>4.5915730000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>676</v>
       </c>
@@ -6478,20 +6655,20 @@
         <f t="shared" si="7"/>
         <v>1623076</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>676</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>75</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>605.613333333333</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>5.1080129999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>576</v>
       </c>
@@ -6508,20 +6685,20 @@
         <f t="shared" si="7"/>
         <v>1382976</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>576</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>41</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>692.34146341463395</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>5.9213050000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>484</v>
       </c>
@@ -6538,20 +6715,20 @@
         <f t="shared" si="7"/>
         <v>1162084</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>484</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>27</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>775.37037037036998</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>6.524152</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>400</v>
       </c>
@@ -6568,20 +6745,20 @@
         <f t="shared" si="7"/>
         <v>960400</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>400</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>4</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>748.5</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>6.2731440000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>324</v>
       </c>
@@ -6598,16 +6775,16 @@
         <f t="shared" si="7"/>
         <v>777924</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>324</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>1</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>839</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>7.0363319999999998</v>
       </c>
     </row>
@@ -6628,16 +6805,16 @@
         <f t="shared" si="7"/>
         <v>614656</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>256</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>0</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>1000</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6658,16 +6835,16 @@
         <f t="shared" si="7"/>
         <v>470596</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>196</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>0</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>1000</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7409,7 +7586,7 @@
         <v>8.2045628750000006</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>576</v>
       </c>
@@ -7439,7 +7616,7 @@
         <v>7.8266478629999998</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>484</v>
       </c>
@@ -7469,7 +7646,7 @@
         <v>9.0234523450000008</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>400</v>
       </c>
@@ -7487,7 +7664,7 @@
         <v>1638400</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>324</v>
       </c>
@@ -7505,7 +7682,7 @@
         <v>1327104</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>256</v>
       </c>
@@ -7523,7 +7700,7 @@
         <v>1048576</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>196</v>
       </c>
@@ -7541,7 +7718,7 @@
         <v>802816</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1" t="s">
         <v>4</v>
       </c>
@@ -7552,7 +7729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>8</v>
       </c>
@@ -7563,7 +7740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>784</v>
       </c>
@@ -7593,7 +7770,7 @@
         <v>8.6321268895775702</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>676</v>
       </c>
@@ -7623,7 +7800,7 @@
         <v>9.7276839250116591</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>576</v>
       </c>
@@ -7641,7 +7818,7 @@
         <v>2359296</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>484</v>
       </c>
@@ -7659,7 +7836,7 @@
         <v>1982464</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>400</v>
       </c>
@@ -7677,7 +7854,7 @@
         <v>1638400</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1" t="s">
         <v>4</v>
       </c>
@@ -7688,7 +7865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>10</v>
       </c>
@@ -7699,7 +7876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>1600</v>
       </c>
@@ -7716,8 +7893,23 @@
         <f>A144*($A$143^$B$143)</f>
         <v>16000000</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="L144">
+        <v>1600</v>
+      </c>
+      <c r="M144">
+        <v>100</v>
+      </c>
+      <c r="N144">
+        <v>283.24</v>
+      </c>
+      <c r="O144">
+        <v>3.4520794210000001</v>
+      </c>
+      <c r="P144">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>1444</v>
       </c>
@@ -7734,8 +7926,23 @@
         <f t="shared" ref="E145:E153" si="12">A145*($A$143^$B$143)</f>
         <v>14440000</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="L145">
+        <v>1444</v>
+      </c>
+      <c r="M145">
+        <v>100</v>
+      </c>
+      <c r="N145">
+        <v>282.55</v>
+      </c>
+      <c r="O145">
+        <v>3.3598191540000002</v>
+      </c>
+      <c r="P145">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>1296</v>
       </c>
@@ -7752,8 +7959,23 @@
         <f t="shared" si="12"/>
         <v>12960000</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="L146">
+        <v>1296</v>
+      </c>
+      <c r="M146">
+        <v>100</v>
+      </c>
+      <c r="N146">
+        <v>362.49</v>
+      </c>
+      <c r="O146">
+        <v>4.2173249239999997</v>
+      </c>
+      <c r="P146">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>1156</v>
       </c>
@@ -7770,8 +7992,23 @@
         <f t="shared" si="12"/>
         <v>11560000</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="L147">
+        <v>1156</v>
+      </c>
+      <c r="M147">
+        <v>100</v>
+      </c>
+      <c r="N147">
+        <v>314.39</v>
+      </c>
+      <c r="O147">
+        <v>3.55907777</v>
+      </c>
+      <c r="P147">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>1024</v>
       </c>
@@ -7788,8 +8025,23 @@
         <f t="shared" si="12"/>
         <v>10240000</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="L148">
+        <v>1024</v>
+      </c>
+      <c r="M148">
+        <v>100</v>
+      </c>
+      <c r="N148">
+        <v>295.73</v>
+      </c>
+      <c r="O148">
+        <v>3.2697161029999999</v>
+      </c>
+      <c r="P148">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>900</v>
       </c>
@@ -7806,8 +8058,23 @@
         <f t="shared" si="12"/>
         <v>9000000</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="L149">
+        <v>900</v>
+      </c>
+      <c r="M149">
+        <v>100</v>
+      </c>
+      <c r="N149">
+        <v>321.83</v>
+      </c>
+      <c r="O149">
+        <v>3.4589097287552399</v>
+      </c>
+      <c r="P149">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>784</v>
       </c>
@@ -7824,8 +8091,23 @@
         <f t="shared" si="12"/>
         <v>7840000</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="L150">
+        <v>784</v>
+      </c>
+      <c r="M150">
+        <v>100</v>
+      </c>
+      <c r="N150">
+        <v>334.54</v>
+      </c>
+      <c r="O150">
+        <v>3.4915654509107101</v>
+      </c>
+      <c r="P150">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>676</v>
       </c>
@@ -7842,12 +8124,27 @@
         <f t="shared" si="12"/>
         <v>6760000</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="L151">
+        <v>676</v>
+      </c>
+      <c r="M151">
+        <v>99</v>
+      </c>
+      <c r="N151">
+        <v>347.73737373737299</v>
+      </c>
+      <c r="O151">
+        <v>3.5195420156174202</v>
+      </c>
+      <c r="P151">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>576</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="3">
         <v>89</v>
       </c>
       <c r="C152">
@@ -7860,8 +8157,23 @@
         <f t="shared" si="12"/>
         <v>5760000</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="L152">
+        <v>576</v>
+      </c>
+      <c r="M152">
+        <v>100</v>
+      </c>
+      <c r="N152">
+        <v>378.5</v>
+      </c>
+      <c r="O152">
+        <v>3.7460218527773299</v>
+      </c>
+      <c r="P152">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>484</v>
       </c>
@@ -7878,207 +8190,441 @@
         <f t="shared" si="12"/>
         <v>4840000</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A154" s="1" t="s">
+      <c r="L153">
+        <v>484</v>
+      </c>
+      <c r="M153">
+        <v>96</v>
+      </c>
+      <c r="N153">
+        <v>440.3125</v>
+      </c>
+      <c r="O153">
+        <v>4.2047550863111001</v>
+      </c>
+      <c r="P153">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154">
+        <v>400</v>
+      </c>
+      <c r="B154" t="s">
+        <v>17</v>
+      </c>
+      <c r="L154">
+        <v>400</v>
+      </c>
+      <c r="M154" s="3">
+        <v>85</v>
+      </c>
+      <c r="N154">
+        <v>490.05882352941097</v>
+      </c>
+      <c r="O154">
+        <v>4.6481752654071897</v>
+      </c>
+      <c r="P154">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155">
+        <v>324</v>
+      </c>
+      <c r="B155" t="s">
+        <v>17</v>
+      </c>
+      <c r="L155">
+        <v>324</v>
+      </c>
+      <c r="M155">
+        <v>53</v>
+      </c>
+      <c r="N155">
+        <v>578.96226415094304</v>
+      </c>
+      <c r="O155">
+        <v>5.3555011416209899</v>
+      </c>
+      <c r="P155">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156">
+        <v>256</v>
+      </c>
+      <c r="B156" t="s">
+        <v>17</v>
+      </c>
+      <c r="L156">
+        <v>256</v>
+      </c>
+      <c r="M156">
+        <v>21</v>
+      </c>
+      <c r="N156">
+        <v>658.66666666666595</v>
+      </c>
+      <c r="O156">
+        <v>6.0364755416244602</v>
+      </c>
+      <c r="P156">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="1">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="1">
         <v>10</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B158" s="1">
         <v>4</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C158" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A156">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159">
         <v>1600</v>
       </c>
-      <c r="B156">
-        <v>100</v>
-      </c>
-      <c r="C156">
+      <c r="B159">
+        <v>100</v>
+      </c>
+      <c r="C159">
         <v>142.03</v>
       </c>
-      <c r="D156">
+      <c r="D159">
         <v>2.0779226891993301</v>
       </c>
-      <c r="E156">
-        <f>A156*($A$155^$B$155)</f>
+      <c r="E159">
+        <f>A159*($A$158^$B$158)</f>
         <v>16000000</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A157">
+      <c r="L159">
+        <v>1600</v>
+      </c>
+      <c r="M159">
+        <v>100</v>
+      </c>
+      <c r="N159">
+        <v>301.19</v>
+      </c>
+      <c r="O159">
+        <v>3.9686535649999999</v>
+      </c>
+      <c r="P159">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160">
         <v>1444</v>
       </c>
-      <c r="B157">
-        <v>100</v>
-      </c>
-      <c r="C157">
+      <c r="B160">
+        <v>100</v>
+      </c>
+      <c r="C160">
         <v>148.24</v>
       </c>
-      <c r="D157">
+      <c r="D160">
         <v>2.1098519318626399</v>
       </c>
-      <c r="E157">
-        <f t="shared" ref="E157:E165" si="13">A157*($A$155^$B$155)</f>
+      <c r="E160">
+        <f>A160*($A$158^$B$158)</f>
         <v>14440000</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A158">
+      <c r="L160">
+        <v>1444</v>
+      </c>
+      <c r="M160">
+        <v>100</v>
+      </c>
+      <c r="N160">
+        <v>311.95999999999998</v>
+      </c>
+      <c r="O160">
+        <v>4.0229490229999998</v>
+      </c>
+      <c r="P160">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161">
         <v>1296</v>
       </c>
-      <c r="B158">
-        <v>100</v>
-      </c>
-      <c r="C158">
+      <c r="B161">
+        <v>100</v>
+      </c>
+      <c r="C161">
         <v>163.19</v>
       </c>
-      <c r="D158">
+      <c r="D161">
         <v>2.2440101369400498</v>
       </c>
-      <c r="E158">
-        <f t="shared" si="13"/>
+      <c r="E161">
+        <f>A161*($A$158^$B$158)</f>
         <v>12960000</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A159">
+      <c r="L161">
+        <v>1296</v>
+      </c>
+      <c r="M161">
+        <v>100</v>
+      </c>
+      <c r="N161">
+        <v>331.76</v>
+      </c>
+      <c r="O161">
+        <v>4.1775966650000003</v>
+      </c>
+      <c r="P161">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162">
         <v>1156</v>
       </c>
-      <c r="B159">
-        <v>100</v>
-      </c>
-      <c r="C159">
+      <c r="B162">
+        <v>100</v>
+      </c>
+      <c r="C162">
         <v>189.72</v>
       </c>
-      <c r="D159">
+      <c r="D162">
         <v>2.5244456683215599</v>
       </c>
-      <c r="E159">
-        <f t="shared" si="13"/>
+      <c r="E162">
+        <f>A162*($A$158^$B$158)</f>
         <v>11560000</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A160">
+      <c r="L162">
+        <v>1156</v>
+      </c>
+      <c r="M162">
+        <v>100</v>
+      </c>
+      <c r="N162">
+        <v>355.55</v>
+      </c>
+      <c r="O162">
+        <v>5.3623544618894803</v>
+      </c>
+      <c r="P162">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163">
         <v>1024</v>
       </c>
-      <c r="B160">
-        <v>100</v>
-      </c>
-      <c r="C160">
+      <c r="B163">
+        <v>100</v>
+      </c>
+      <c r="C163">
         <v>230.44</v>
       </c>
-      <c r="D160">
+      <c r="D163">
         <v>2.9752180731756299</v>
       </c>
-      <c r="E160">
-        <f t="shared" si="13"/>
+      <c r="E163">
+        <f>A163*($A$158^$B$158)</f>
         <v>10240000</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161">
+      <c r="L163">
+        <v>1024</v>
+      </c>
+      <c r="M163">
+        <v>100</v>
+      </c>
+      <c r="N163">
+        <v>396.13</v>
+      </c>
+      <c r="O163">
+        <v>5.2711037326825299</v>
+      </c>
+      <c r="P163">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164">
         <v>900</v>
       </c>
-      <c r="B161">
+      <c r="B164">
         <v>95</v>
       </c>
-      <c r="C161">
+      <c r="C164">
         <v>270.42105263157799</v>
       </c>
-      <c r="D161">
+      <c r="D164">
         <v>3.3549453846442399</v>
       </c>
-      <c r="E161">
-        <f t="shared" si="13"/>
+      <c r="E164">
+        <f>A164*($A$158^$B$158)</f>
         <v>9000000</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162">
+      <c r="L164">
+        <v>900</v>
+      </c>
+      <c r="M164">
+        <v>99</v>
+      </c>
+      <c r="N164">
+        <v>418.24242424242402</v>
+      </c>
+      <c r="O164">
+        <v>4.8883787524989897</v>
+      </c>
+      <c r="P164">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165">
         <v>784</v>
       </c>
-      <c r="B162">
+      <c r="B165">
         <v>93</v>
       </c>
-      <c r="C162">
+      <c r="C165">
         <v>356.02150537634401</v>
       </c>
-      <c r="D162">
+      <c r="D165">
         <v>4.2784269335047496</v>
       </c>
-      <c r="E162">
-        <f t="shared" si="13"/>
+      <c r="E165">
+        <f>A165*($A$158^$B$158)</f>
         <v>7840000</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A163">
+      <c r="L165">
+        <v>784</v>
+      </c>
+      <c r="M165">
+        <v>96</v>
+      </c>
+      <c r="N165">
+        <v>513.34375</v>
+      </c>
+      <c r="O165">
+        <v>5.8316731032464304</v>
+      </c>
+      <c r="P165">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166">
         <v>676</v>
       </c>
-      <c r="B163">
+      <c r="B166" s="3">
         <v>77</v>
       </c>
-      <c r="C163">
+      <c r="C166">
         <v>457.88311688311597</v>
       </c>
-      <c r="D163">
+      <c r="D166">
         <v>5.35689278875474</v>
       </c>
-      <c r="E163">
-        <f t="shared" si="13"/>
+      <c r="E166">
+        <f>A166*($A$158^$B$158)</f>
         <v>6760000</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A164">
+      <c r="L166">
+        <v>676</v>
+      </c>
+      <c r="M166" s="3">
+        <v>89</v>
+      </c>
+      <c r="N166">
+        <v>603.82022471910102</v>
+      </c>
+      <c r="O166">
+        <v>6.8090540450707202</v>
+      </c>
+      <c r="P166">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167">
         <v>576</v>
       </c>
-      <c r="B164">
+      <c r="B167">
         <v>46</v>
       </c>
-      <c r="C164">
+      <c r="C167">
         <v>538.67391299999997</v>
       </c>
-      <c r="D164">
+      <c r="D167">
         <v>6.6985558530000002</v>
       </c>
-      <c r="E164">
-        <f t="shared" si="13"/>
+      <c r="E167">
+        <f>A167*($A$158^$B$158)</f>
         <v>5760000</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A165">
+      <c r="L167">
+        <v>576</v>
+      </c>
+      <c r="M167">
+        <v>54</v>
+      </c>
+      <c r="N167">
+        <v>710.42592592592598</v>
+      </c>
+      <c r="O167">
+        <v>7.8065043815424504</v>
+      </c>
+      <c r="P167">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168">
         <v>484</v>
       </c>
-      <c r="B165">
+      <c r="B168">
         <v>10</v>
       </c>
-      <c r="C165">
+      <c r="C168">
         <v>604.4</v>
       </c>
-      <c r="D165">
+      <c r="D168">
         <v>7.3507392449999998</v>
       </c>
-      <c r="E165">
-        <f t="shared" si="13"/>
+      <c r="E168">
+        <f>A168*($A$158^$B$158)</f>
         <v>4840000</v>
+      </c>
+      <c r="L168">
+        <v>484</v>
+      </c>
+      <c r="M168">
+        <v>19</v>
+      </c>
+      <c r="N168">
+        <v>740</v>
+      </c>
+      <c r="O168">
+        <v>7.9039969404264703</v>
+      </c>
+      <c r="P168">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsHPCC.xlsx
+++ b/ResultsHPCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B028323C-8AC7-4242-9329-FD1E5540F4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A53BEE6-AC59-4490-BCF9-D65B114E125E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{6AF1A893-C99E-4402-8250-ECFA3279128F}"/>
+    <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{6AF1A893-C99E-4402-8250-ECFA3279128F}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -492,10 +492,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75700BE6-961B-4EED-9E57-E1BAE03CF329}">
-  <dimension ref="A1:N171"/>
+  <dimension ref="A1:N180"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="N159" sqref="N159"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4065,6 +4065,21 @@
         <f t="shared" si="12"/>
         <v>7840000</v>
       </c>
+      <c r="J156">
+        <v>784</v>
+      </c>
+      <c r="K156">
+        <v>100</v>
+      </c>
+      <c r="L156">
+        <v>210.63</v>
+      </c>
+      <c r="M156">
+        <v>9.7590689080755695</v>
+      </c>
+      <c r="N156">
+        <v>80</v>
+      </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
@@ -4083,6 +4098,21 @@
         <f t="shared" si="12"/>
         <v>6760000</v>
       </c>
+      <c r="J157">
+        <v>676</v>
+      </c>
+      <c r="K157">
+        <v>100</v>
+      </c>
+      <c r="L157">
+        <v>228.82</v>
+      </c>
+      <c r="M157">
+        <v>9.8044047903583795</v>
+      </c>
+      <c r="N157">
+        <v>80</v>
+      </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
@@ -4101,6 +4131,21 @@
         <f t="shared" si="12"/>
         <v>5760000</v>
       </c>
+      <c r="J158">
+        <v>576</v>
+      </c>
+      <c r="K158">
+        <v>100</v>
+      </c>
+      <c r="L158">
+        <v>272.37</v>
+      </c>
+      <c r="M158">
+        <v>10.585796369949801</v>
+      </c>
+      <c r="N158">
+        <v>80</v>
+      </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
@@ -4119,6 +4164,21 @@
         <f t="shared" si="12"/>
         <v>4840000</v>
       </c>
+      <c r="J159">
+        <v>484</v>
+      </c>
+      <c r="K159">
+        <v>97</v>
+      </c>
+      <c r="L159">
+        <v>332.11340206185503</v>
+      </c>
+      <c r="M159">
+        <v>11.5190847515915</v>
+      </c>
+      <c r="N159">
+        <v>80</v>
+      </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
@@ -4137,6 +4197,21 @@
         <f t="shared" si="12"/>
         <v>4000000</v>
       </c>
+      <c r="J160">
+        <v>400</v>
+      </c>
+      <c r="K160">
+        <v>83</v>
+      </c>
+      <c r="L160">
+        <v>387.69879518072202</v>
+      </c>
+      <c r="M160">
+        <v>12.134655260931099</v>
+      </c>
+      <c r="N160">
+        <v>80</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1" t="s">
@@ -4248,6 +4323,132 @@
       <c r="E171">
         <f>A171*($A$166^$B$166)</f>
         <v>17640000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172">
+        <v>1600</v>
+      </c>
+      <c r="B172">
+        <v>100</v>
+      </c>
+      <c r="C172">
+        <v>187.41</v>
+      </c>
+      <c r="D172">
+        <v>4.9115708866668797</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173">
+        <v>1444</v>
+      </c>
+      <c r="B173">
+        <v>100</v>
+      </c>
+      <c r="C173">
+        <v>200.98</v>
+      </c>
+      <c r="D173">
+        <v>5.0704588736896401</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174">
+        <v>1296</v>
+      </c>
+      <c r="B174">
+        <v>100</v>
+      </c>
+      <c r="C174">
+        <v>245.09</v>
+      </c>
+      <c r="D174">
+        <v>5.9534731704345898</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175">
+        <v>1156</v>
+      </c>
+      <c r="B175">
+        <v>99</v>
+      </c>
+      <c r="C175">
+        <v>298.24242424242402</v>
+      </c>
+      <c r="D175">
+        <v>7.0047793450936897</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176">
+        <v>1024</v>
+      </c>
+      <c r="B176">
+        <v>92</v>
+      </c>
+      <c r="C176">
+        <v>374.66304347826002</v>
+      </c>
+      <c r="D176">
+        <v>8.5100261326499602</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177">
+        <v>900</v>
+      </c>
+      <c r="B177">
+        <v>79</v>
+      </c>
+      <c r="C177">
+        <v>487.430379746835</v>
+      </c>
+      <c r="D177">
+        <v>10.6215598936343</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178">
+        <v>784</v>
+      </c>
+      <c r="B178">
+        <v>59</v>
+      </c>
+      <c r="C178">
+        <v>571.42372881355902</v>
+      </c>
+      <c r="D178">
+        <v>11.990047257405401</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179">
+        <v>676</v>
+      </c>
+      <c r="B179">
+        <v>25</v>
+      </c>
+      <c r="C179">
+        <v>661</v>
+      </c>
+      <c r="D179">
+        <v>13.371194358151399</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180">
+        <v>576</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="C180">
+        <v>782.66666666666595</v>
+      </c>
+      <c r="D180">
+        <v>15.3565568436946</v>
       </c>
     </row>
   </sheetData>
@@ -4259,8 +4460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B52C55F-5FA9-44C4-BD8D-FE095EDBEDBC}">
   <dimension ref="A1:P168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="L144" sqref="L144:P168"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="M150" sqref="M150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8311,7 +8512,7 @@
         <v>2.0779226891993301</v>
       </c>
       <c r="E159">
-        <f>A159*($A$158^$B$158)</f>
+        <f t="shared" ref="E159:E168" si="13">A159*($A$158^$B$158)</f>
         <v>16000000</v>
       </c>
       <c r="L159">
@@ -8344,7 +8545,7 @@
         <v>2.1098519318626399</v>
       </c>
       <c r="E160">
-        <f>A160*($A$158^$B$158)</f>
+        <f t="shared" si="13"/>
         <v>14440000</v>
       </c>
       <c r="L160">
@@ -8377,7 +8578,7 @@
         <v>2.2440101369400498</v>
       </c>
       <c r="E161">
-        <f>A161*($A$158^$B$158)</f>
+        <f t="shared" si="13"/>
         <v>12960000</v>
       </c>
       <c r="L161">
@@ -8410,7 +8611,7 @@
         <v>2.5244456683215599</v>
       </c>
       <c r="E162">
-        <f>A162*($A$158^$B$158)</f>
+        <f t="shared" si="13"/>
         <v>11560000</v>
       </c>
       <c r="L162">
@@ -8443,7 +8644,7 @@
         <v>2.9752180731756299</v>
       </c>
       <c r="E163">
-        <f>A163*($A$158^$B$158)</f>
+        <f t="shared" si="13"/>
         <v>10240000</v>
       </c>
       <c r="L163">
@@ -8476,7 +8677,7 @@
         <v>3.3549453846442399</v>
       </c>
       <c r="E164">
-        <f>A164*($A$158^$B$158)</f>
+        <f t="shared" si="13"/>
         <v>9000000</v>
       </c>
       <c r="L164">
@@ -8509,7 +8710,7 @@
         <v>4.2784269335047496</v>
       </c>
       <c r="E165">
-        <f>A165*($A$158^$B$158)</f>
+        <f t="shared" si="13"/>
         <v>7840000</v>
       </c>
       <c r="L165">
@@ -8542,7 +8743,7 @@
         <v>5.35689278875474</v>
       </c>
       <c r="E166">
-        <f>A166*($A$158^$B$158)</f>
+        <f t="shared" si="13"/>
         <v>6760000</v>
       </c>
       <c r="L166">
@@ -8575,7 +8776,7 @@
         <v>6.6985558530000002</v>
       </c>
       <c r="E167">
-        <f>A167*($A$158^$B$158)</f>
+        <f t="shared" si="13"/>
         <v>5760000</v>
       </c>
       <c r="L167">
@@ -8608,7 +8809,7 @@
         <v>7.3507392449999998</v>
       </c>
       <c r="E168">
-        <f>A168*($A$158^$B$158)</f>
+        <f t="shared" si="13"/>
         <v>4840000</v>
       </c>
       <c r="L168">

--- a/ResultsHPCC.xlsx
+++ b/ResultsHPCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A53BEE6-AC59-4490-BCF9-D65B114E125E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE0B992-645B-409A-9F41-1717231D6CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{6AF1A893-C99E-4402-8250-ECFA3279128F}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:N180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="A182" sqref="A182"/>
+      <selection activeCell="J167" sqref="J167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4395,7 +4395,7 @@
         <v>8.5100261326499602</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>900</v>
       </c>
@@ -4408,8 +4408,23 @@
       <c r="D177">
         <v>10.6215598936343</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="J177">
+        <v>900</v>
+      </c>
+      <c r="K177">
+        <v>100</v>
+      </c>
+      <c r="L177">
+        <v>243.28</v>
+      </c>
+      <c r="M177">
+        <v>12.826801117526999</v>
+      </c>
+      <c r="N177">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>784</v>
       </c>
@@ -4423,7 +4438,7 @@
         <v>11.990047257405401</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>676</v>
       </c>
@@ -4437,7 +4452,7 @@
         <v>13.371194358151399</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>576</v>
       </c>

--- a/ResultsHPCC.xlsx
+++ b/ResultsHPCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE0B992-645B-409A-9F41-1717231D6CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDF47F1-6E38-4F27-BD49-AC2050F5D165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{6AF1A893-C99E-4402-8250-ECFA3279128F}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="17">
   <si>
     <t>ALL EXPERIMENTS DONE on MSU HPCC WITH THE FOLLOWING SETTINGS</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>RUN THIS</t>
-  </si>
-  <si>
-    <t>NEED TO RUN</t>
   </si>
 </sst>
 </file>
@@ -492,10 +489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75700BE6-961B-4EED-9E57-E1BAE03CF329}">
-  <dimension ref="A1:N180"/>
+  <dimension ref="A1:Z181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="J167" sqref="J167"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="N163" sqref="N163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3745,7 +3742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>2500</v>
       </c>
@@ -3762,8 +3759,35 @@
         <f>A145*($A$144^$B$144)</f>
         <v>25000000</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="J145">
+        <v>2500</v>
+      </c>
+      <c r="K145">
+        <v>100</v>
+      </c>
+      <c r="L145">
+        <v>237.03</v>
+      </c>
+      <c r="M145">
+        <v>24.048885510000002</v>
+      </c>
+      <c r="N145">
+        <v>80</v>
+      </c>
+      <c r="P145">
+        <v>2500</v>
+      </c>
+      <c r="Q145">
+        <v>100</v>
+      </c>
+      <c r="R145">
+        <v>101.07</v>
+      </c>
+      <c r="S145">
+        <v>12.421567263391299</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>2304</v>
       </c>
@@ -3780,8 +3804,35 @@
         <f t="shared" ref="E146:E160" si="12">A146*($A$144^$B$144)</f>
         <v>23040000</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="J146">
+        <v>2304</v>
+      </c>
+      <c r="K146">
+        <v>99</v>
+      </c>
+      <c r="L146">
+        <v>202.3232323</v>
+      </c>
+      <c r="M146">
+        <v>19.10573338</v>
+      </c>
+      <c r="N146">
+        <v>80</v>
+      </c>
+      <c r="P146">
+        <v>2304</v>
+      </c>
+      <c r="Q146">
+        <v>100</v>
+      </c>
+      <c r="R146">
+        <v>103.79</v>
+      </c>
+      <c r="S146">
+        <v>11.856759616103901</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>2116</v>
       </c>
@@ -3798,8 +3849,35 @@
         <f t="shared" si="12"/>
         <v>21160000</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="J147">
+        <v>2116</v>
+      </c>
+      <c r="K147">
+        <v>100</v>
+      </c>
+      <c r="L147">
+        <v>212.2</v>
+      </c>
+      <c r="M147">
+        <v>18.53485951</v>
+      </c>
+      <c r="N147">
+        <v>80</v>
+      </c>
+      <c r="P147">
+        <v>2116</v>
+      </c>
+      <c r="Q147">
+        <v>100</v>
+      </c>
+      <c r="R147">
+        <v>106.32</v>
+      </c>
+      <c r="S147">
+        <v>11.199078651664299</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>1936</v>
       </c>
@@ -3816,8 +3894,35 @@
         <f t="shared" si="12"/>
         <v>19360000</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="J148">
+        <v>1936</v>
+      </c>
+      <c r="K148">
+        <v>99</v>
+      </c>
+      <c r="L148">
+        <v>265.3535354</v>
+      </c>
+      <c r="M148">
+        <v>21.56608971</v>
+      </c>
+      <c r="N148">
+        <v>80</v>
+      </c>
+      <c r="P148">
+        <v>1936</v>
+      </c>
+      <c r="Q148">
+        <v>100</v>
+      </c>
+      <c r="R148">
+        <v>108.33</v>
+      </c>
+      <c r="S148">
+        <v>10.548273554438399</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>1764</v>
       </c>
@@ -3849,8 +3954,20 @@
       <c r="N149">
         <v>80</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="P149">
+        <v>1764</v>
+      </c>
+      <c r="Q149">
+        <v>100</v>
+      </c>
+      <c r="R149">
+        <v>111.27</v>
+      </c>
+      <c r="S149">
+        <v>10.0258501265628</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>1600</v>
       </c>
@@ -3882,8 +3999,35 @@
       <c r="N150">
         <v>80</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="P150">
+        <v>1600</v>
+      </c>
+      <c r="Q150">
+        <v>100</v>
+      </c>
+      <c r="R150">
+        <v>113.13</v>
+      </c>
+      <c r="S150">
+        <v>9.3704795241448995</v>
+      </c>
+      <c r="U150">
+        <v>1600</v>
+      </c>
+      <c r="V150">
+        <v>99</v>
+      </c>
+      <c r="W150">
+        <v>412.51515151515099</v>
+      </c>
+      <c r="X150">
+        <v>23.144718703601001</v>
+      </c>
+      <c r="Y150">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>1444</v>
       </c>
@@ -3915,8 +4059,35 @@
       <c r="N151">
         <v>80</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="P151">
+        <v>1444</v>
+      </c>
+      <c r="Q151">
+        <v>100</v>
+      </c>
+      <c r="R151">
+        <v>116.85</v>
+      </c>
+      <c r="S151">
+        <v>16.907410461539399</v>
+      </c>
+      <c r="U151">
+        <v>1444</v>
+      </c>
+      <c r="V151">
+        <v>98</v>
+      </c>
+      <c r="W151">
+        <v>368.61224490000001</v>
+      </c>
+      <c r="X151">
+        <v>18.933468609999998</v>
+      </c>
+      <c r="Y151">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>1296</v>
       </c>
@@ -3948,8 +4119,35 @@
       <c r="N152">
         <v>80</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="P152">
+        <v>1296</v>
+      </c>
+      <c r="Q152">
+        <v>100</v>
+      </c>
+      <c r="R152">
+        <v>124.64</v>
+      </c>
+      <c r="S152">
+        <v>11.7961628742818</v>
+      </c>
+      <c r="U152">
+        <v>1296</v>
+      </c>
+      <c r="V152">
+        <v>100</v>
+      </c>
+      <c r="W152">
+        <v>384.34</v>
+      </c>
+      <c r="X152">
+        <v>18.221753718705099</v>
+      </c>
+      <c r="Y152">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>1156</v>
       </c>
@@ -3981,8 +4179,35 @@
       <c r="N153">
         <v>80</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="P153">
+        <v>1156</v>
+      </c>
+      <c r="Q153">
+        <v>100</v>
+      </c>
+      <c r="R153">
+        <v>130.08000000000001</v>
+      </c>
+      <c r="S153">
+        <v>11.2216260776831</v>
+      </c>
+      <c r="U153">
+        <v>1156</v>
+      </c>
+      <c r="V153">
+        <v>100</v>
+      </c>
+      <c r="W153">
+        <v>322.16000000000003</v>
+      </c>
+      <c r="X153">
+        <v>14.2039154468488</v>
+      </c>
+      <c r="Y153">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>1024</v>
       </c>
@@ -4014,8 +4239,35 @@
       <c r="N154">
         <v>80</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="P154">
+        <v>1024</v>
+      </c>
+      <c r="Q154">
+        <v>100</v>
+      </c>
+      <c r="R154">
+        <v>140.61000000000001</v>
+      </c>
+      <c r="S154">
+        <v>14.7350544435379</v>
+      </c>
+      <c r="U154">
+        <v>1024</v>
+      </c>
+      <c r="V154">
+        <v>99</v>
+      </c>
+      <c r="W154">
+        <v>294.28282828282801</v>
+      </c>
+      <c r="X154">
+        <v>11.978447548700499</v>
+      </c>
+      <c r="Y154">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>900</v>
       </c>
@@ -4047,8 +4299,35 @@
       <c r="N155">
         <v>80</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="P155">
+        <v>900</v>
+      </c>
+      <c r="Q155">
+        <v>100</v>
+      </c>
+      <c r="R155">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="S155">
+        <v>13.7357975855784</v>
+      </c>
+      <c r="U155">
+        <v>900</v>
+      </c>
+      <c r="V155">
+        <v>95</v>
+      </c>
+      <c r="W155">
+        <v>423.14736842105202</v>
+      </c>
+      <c r="X155">
+        <v>16.046678291112901</v>
+      </c>
+      <c r="Y155">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>784</v>
       </c>
@@ -4080,8 +4359,35 @@
       <c r="N156">
         <v>80</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="P156">
+        <v>784</v>
+      </c>
+      <c r="Q156">
+        <v>100</v>
+      </c>
+      <c r="R156">
+        <v>166.85</v>
+      </c>
+      <c r="S156">
+        <v>13.788296239999999</v>
+      </c>
+      <c r="U156">
+        <v>784</v>
+      </c>
+      <c r="V156">
+        <v>100</v>
+      </c>
+      <c r="W156">
+        <v>307.93</v>
+      </c>
+      <c r="X156">
+        <v>10.4290385778318</v>
+      </c>
+      <c r="Y156">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>676</v>
       </c>
@@ -4113,8 +4419,35 @@
       <c r="N157">
         <v>80</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="P157">
+        <v>676</v>
+      </c>
+      <c r="Q157">
+        <v>100</v>
+      </c>
+      <c r="R157">
+        <v>204.13</v>
+      </c>
+      <c r="S157">
+        <v>14.842247609999999</v>
+      </c>
+      <c r="U157">
+        <v>676</v>
+      </c>
+      <c r="V157">
+        <v>100</v>
+      </c>
+      <c r="W157">
+        <v>272.7</v>
+      </c>
+      <c r="X157">
+        <v>8.42792584619019</v>
+      </c>
+      <c r="Y157">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>576</v>
       </c>
@@ -4146,8 +4479,35 @@
       <c r="N158">
         <v>80</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="P158">
+        <v>576</v>
+      </c>
+      <c r="Q158">
+        <v>100</v>
+      </c>
+      <c r="R158">
+        <v>258.7</v>
+      </c>
+      <c r="S158">
+        <v>16.587729589999999</v>
+      </c>
+      <c r="U158">
+        <v>576</v>
+      </c>
+      <c r="V158">
+        <v>99</v>
+      </c>
+      <c r="W158">
+        <v>299.54545450000001</v>
+      </c>
+      <c r="X158">
+        <v>8.7133503739999991</v>
+      </c>
+      <c r="Y158">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>484</v>
       </c>
@@ -4179,8 +4539,35 @@
       <c r="N159">
         <v>80</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="P159">
+        <v>484</v>
+      </c>
+      <c r="Q159">
+        <v>94</v>
+      </c>
+      <c r="R159">
+        <v>284.73404260000001</v>
+      </c>
+      <c r="S159">
+        <v>9.5369377830000008</v>
+      </c>
+      <c r="U159">
+        <v>484</v>
+      </c>
+      <c r="V159">
+        <v>99</v>
+      </c>
+      <c r="W159">
+        <v>350.66666670000001</v>
+      </c>
+      <c r="X159">
+        <v>9.3208937709999997</v>
+      </c>
+      <c r="Y159">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>400</v>
       </c>
@@ -4212,8 +4599,35 @@
       <c r="N160">
         <v>80</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="P160">
+        <v>400</v>
+      </c>
+      <c r="Q160">
+        <v>80</v>
+      </c>
+      <c r="R160">
+        <v>382.5625</v>
+      </c>
+      <c r="S160">
+        <v>11.362718940000001</v>
+      </c>
+      <c r="U160">
+        <v>400</v>
+      </c>
+      <c r="V160">
+        <v>90</v>
+      </c>
+      <c r="W160">
+        <v>427.97777780000001</v>
+      </c>
+      <c r="X160">
+        <v>7.5885457660000002</v>
+      </c>
+      <c r="Y160">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1" t="s">
         <v>4</v>
       </c>
@@ -4224,7 +4638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>10</v>
       </c>
@@ -4235,7 +4649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>2500</v>
       </c>
@@ -4252,8 +4666,38 @@
         <f>A167*($A$166^$B$166)</f>
         <v>25000000</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="J167">
+        <v>2500</v>
+      </c>
+      <c r="K167">
+        <v>100</v>
+      </c>
+      <c r="L167">
+        <v>144.37</v>
+      </c>
+      <c r="M167">
+        <v>14.81806469</v>
+      </c>
+      <c r="N167">
+        <v>80</v>
+      </c>
+      <c r="P167">
+        <v>2500</v>
+      </c>
+      <c r="Q167">
+        <v>100</v>
+      </c>
+      <c r="R167">
+        <v>115.17</v>
+      </c>
+      <c r="S167">
+        <v>16.396713961755101</v>
+      </c>
+      <c r="T167">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>2304</v>
       </c>
@@ -4270,8 +4714,38 @@
         <f>A168*($A$166^$B$166)</f>
         <v>23040000</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="J168">
+        <v>2304</v>
+      </c>
+      <c r="K168">
+        <v>100</v>
+      </c>
+      <c r="L168">
+        <v>150.22</v>
+      </c>
+      <c r="M168">
+        <v>14.534165700000001</v>
+      </c>
+      <c r="N168">
+        <v>80</v>
+      </c>
+      <c r="P168">
+        <v>2304</v>
+      </c>
+      <c r="Q168">
+        <v>100</v>
+      </c>
+      <c r="R168">
+        <v>116.5</v>
+      </c>
+      <c r="S168">
+        <v>15.252588075312</v>
+      </c>
+      <c r="T168">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>2116</v>
       </c>
@@ -4288,8 +4762,38 @@
         <f>A169*($A$166^$B$166)</f>
         <v>21160000</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="J169">
+        <v>2116</v>
+      </c>
+      <c r="K169">
+        <v>100</v>
+      </c>
+      <c r="L169">
+        <v>153.58000000000001</v>
+      </c>
+      <c r="M169">
+        <v>14.02186493</v>
+      </c>
+      <c r="N169">
+        <v>80</v>
+      </c>
+      <c r="P169">
+        <v>2116</v>
+      </c>
+      <c r="Q169">
+        <v>100</v>
+      </c>
+      <c r="R169">
+        <v>121.02</v>
+      </c>
+      <c r="S169">
+        <v>14.799137056223101</v>
+      </c>
+      <c r="T169">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>1936</v>
       </c>
@@ -4306,8 +4810,38 @@
         <f>A170*($A$166^$B$166)</f>
         <v>19360000</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="J170">
+        <v>1936</v>
+      </c>
+      <c r="K170">
+        <v>100</v>
+      </c>
+      <c r="L170">
+        <v>157.75</v>
+      </c>
+      <c r="M170">
+        <v>13.65056143</v>
+      </c>
+      <c r="N170">
+        <v>80</v>
+      </c>
+      <c r="P170">
+        <v>1936</v>
+      </c>
+      <c r="Q170">
+        <v>100</v>
+      </c>
+      <c r="R170">
+        <v>128.22</v>
+      </c>
+      <c r="S170">
+        <v>13.370844999999999</v>
+      </c>
+      <c r="T170">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="171" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>1764</v>
       </c>
@@ -4324,8 +4858,38 @@
         <f>A171*($A$166^$B$166)</f>
         <v>17640000</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="J171">
+        <v>1764</v>
+      </c>
+      <c r="K171">
+        <v>100</v>
+      </c>
+      <c r="L171">
+        <v>161.63999999999999</v>
+      </c>
+      <c r="M171">
+        <v>12.837611040000001</v>
+      </c>
+      <c r="N171">
+        <v>80</v>
+      </c>
+      <c r="P171">
+        <v>1764</v>
+      </c>
+      <c r="Q171">
+        <v>100</v>
+      </c>
+      <c r="R171">
+        <v>131.41</v>
+      </c>
+      <c r="S171">
+        <v>12.1292520747159</v>
+      </c>
+      <c r="T171">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>1600</v>
       </c>
@@ -4338,8 +4902,53 @@
       <c r="D172">
         <v>4.9115708866668797</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="J172">
+        <v>1600</v>
+      </c>
+      <c r="K172">
+        <v>100</v>
+      </c>
+      <c r="L172">
+        <v>165.95</v>
+      </c>
+      <c r="M172">
+        <v>12.084898129999999</v>
+      </c>
+      <c r="N172">
+        <v>80</v>
+      </c>
+      <c r="P172">
+        <v>1600</v>
+      </c>
+      <c r="Q172">
+        <v>100</v>
+      </c>
+      <c r="R172">
+        <v>136.27000000000001</v>
+      </c>
+      <c r="S172">
+        <v>11.5188618920871</v>
+      </c>
+      <c r="T172">
+        <v>90</v>
+      </c>
+      <c r="V172">
+        <v>1600</v>
+      </c>
+      <c r="W172">
+        <v>99</v>
+      </c>
+      <c r="X172">
+        <v>412.51515151515099</v>
+      </c>
+      <c r="Y172">
+        <v>23.144718703601001</v>
+      </c>
+      <c r="Z172">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="173" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>1444</v>
       </c>
@@ -4352,8 +4961,38 @@
       <c r="D173">
         <v>5.0704588736896401</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="J173">
+        <v>1444</v>
+      </c>
+      <c r="K173">
+        <v>100</v>
+      </c>
+      <c r="L173">
+        <v>172.42</v>
+      </c>
+      <c r="M173">
+        <v>11.88180575</v>
+      </c>
+      <c r="N173">
+        <v>80</v>
+      </c>
+      <c r="P173">
+        <v>1444</v>
+      </c>
+      <c r="Q173">
+        <v>100</v>
+      </c>
+      <c r="R173">
+        <v>147.99</v>
+      </c>
+      <c r="S173">
+        <v>11.5243825209559</v>
+      </c>
+      <c r="T173">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>1296</v>
       </c>
@@ -4366,8 +5005,38 @@
       <c r="D174">
         <v>5.9534731704345898</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="J174">
+        <v>1296</v>
+      </c>
+      <c r="K174">
+        <v>100</v>
+      </c>
+      <c r="L174">
+        <v>180.95</v>
+      </c>
+      <c r="M174">
+        <v>11.395316169999999</v>
+      </c>
+      <c r="N174">
+        <v>80</v>
+      </c>
+      <c r="P174">
+        <v>1296</v>
+      </c>
+      <c r="Q174">
+        <v>100</v>
+      </c>
+      <c r="R174">
+        <v>152.24</v>
+      </c>
+      <c r="S174">
+        <v>10.851126780098999</v>
+      </c>
+      <c r="T174">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>1156</v>
       </c>
@@ -4380,8 +5049,38 @@
       <c r="D175">
         <v>7.0047793450936897</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="J175">
+        <v>1156</v>
+      </c>
+      <c r="K175">
+        <v>100</v>
+      </c>
+      <c r="L175">
+        <v>193.53</v>
+      </c>
+      <c r="M175">
+        <v>11.43927322</v>
+      </c>
+      <c r="N175">
+        <v>80</v>
+      </c>
+      <c r="P175">
+        <v>1156</v>
+      </c>
+      <c r="Q175">
+        <v>100</v>
+      </c>
+      <c r="R175">
+        <v>165.04</v>
+      </c>
+      <c r="S175">
+        <v>11.102441247138101</v>
+      </c>
+      <c r="T175">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <v>1024</v>
       </c>
@@ -4394,8 +5093,38 @@
       <c r="D176">
         <v>8.5100261326499602</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="J176">
+        <v>1024</v>
+      </c>
+      <c r="K176">
+        <v>100</v>
+      </c>
+      <c r="L176">
+        <v>218.61</v>
+      </c>
+      <c r="M176">
+        <v>11.337449489999999</v>
+      </c>
+      <c r="N176">
+        <v>80</v>
+      </c>
+      <c r="P176">
+        <v>1024</v>
+      </c>
+      <c r="Q176">
+        <v>100</v>
+      </c>
+      <c r="R176">
+        <v>186</v>
+      </c>
+      <c r="S176">
+        <v>11.3306855560035</v>
+      </c>
+      <c r="T176">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>900</v>
       </c>
@@ -4423,8 +5152,23 @@
       <c r="N177">
         <v>80</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="P177">
+        <v>900</v>
+      </c>
+      <c r="Q177">
+        <v>100</v>
+      </c>
+      <c r="R177">
+        <v>217.69</v>
+      </c>
+      <c r="S177">
+        <v>11.8977039077435</v>
+      </c>
+      <c r="T177">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>784</v>
       </c>
@@ -4437,8 +5181,38 @@
       <c r="D178">
         <v>11.990047257405401</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="J178">
+        <v>784</v>
+      </c>
+      <c r="K178">
+        <v>100</v>
+      </c>
+      <c r="L178">
+        <v>297.81</v>
+      </c>
+      <c r="M178">
+        <v>14.46245059</v>
+      </c>
+      <c r="N178">
+        <v>80</v>
+      </c>
+      <c r="P178">
+        <v>784</v>
+      </c>
+      <c r="Q178">
+        <v>100</v>
+      </c>
+      <c r="R178">
+        <v>289.43</v>
+      </c>
+      <c r="S178">
+        <v>14.51328086</v>
+      </c>
+      <c r="T178">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>676</v>
       </c>
@@ -4451,8 +5225,38 @@
       <c r="D179">
         <v>13.371194358151399</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="J179">
+        <v>676</v>
+      </c>
+      <c r="K179">
+        <v>96</v>
+      </c>
+      <c r="L179">
+        <v>396.33333329999999</v>
+      </c>
+      <c r="M179">
+        <v>17.423223780000001</v>
+      </c>
+      <c r="N179">
+        <v>80</v>
+      </c>
+      <c r="P179">
+        <v>676</v>
+      </c>
+      <c r="Q179">
+        <v>98</v>
+      </c>
+      <c r="R179">
+        <v>395.26530609999998</v>
+      </c>
+      <c r="S179">
+        <v>17.68826962</v>
+      </c>
+      <c r="T179">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>576</v>
       </c>
@@ -4465,18 +5269,81 @@
       <c r="D180">
         <v>15.3565568436946</v>
       </c>
+      <c r="J180">
+        <v>576</v>
+      </c>
+      <c r="K180">
+        <v>80</v>
+      </c>
+      <c r="L180">
+        <v>582.70000000000005</v>
+      </c>
+      <c r="M180">
+        <v>23.443699160000001</v>
+      </c>
+      <c r="N180">
+        <v>80</v>
+      </c>
+      <c r="P180">
+        <v>576</v>
+      </c>
+      <c r="Q180">
+        <v>77</v>
+      </c>
+      <c r="R180">
+        <v>522.87012990000005</v>
+      </c>
+      <c r="S180">
+        <v>20.69212418</v>
+      </c>
+      <c r="T180">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="J181">
+        <v>484</v>
+      </c>
+      <c r="K181">
+        <v>25</v>
+      </c>
+      <c r="L181">
+        <v>707.88</v>
+      </c>
+      <c r="M181">
+        <v>26.186354829999999</v>
+      </c>
+      <c r="N181">
+        <v>80</v>
+      </c>
+      <c r="P181">
+        <v>484</v>
+      </c>
+      <c r="Q181">
+        <v>18</v>
+      </c>
+      <c r="R181">
+        <v>749.33333330000005</v>
+      </c>
+      <c r="S181">
+        <v>26.463721580000001</v>
+      </c>
+      <c r="T181">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B52C55F-5FA9-44C4-BD8D-FE095EDBEDBC}">
-  <dimension ref="A1:P168"/>
+  <dimension ref="A1:AC183"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="M150" sqref="M150"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7802,7 +8669,7 @@
         <v>8.2045628750000006</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>576</v>
       </c>
@@ -7832,7 +8699,7 @@
         <v>7.8266478629999998</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>484</v>
       </c>
@@ -7862,7 +8729,7 @@
         <v>9.0234523450000008</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>400</v>
       </c>
@@ -7880,7 +8747,7 @@
         <v>1638400</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>324</v>
       </c>
@@ -7898,7 +8765,7 @@
         <v>1327104</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>256</v>
       </c>
@@ -7916,7 +8783,7 @@
         <v>1048576</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>196</v>
       </c>
@@ -7934,7 +8801,7 @@
         <v>802816</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1" t="s">
         <v>4</v>
       </c>
@@ -7945,7 +8812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>8</v>
       </c>
@@ -7956,7 +8823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>784</v>
       </c>
@@ -7986,7 +8853,7 @@
         <v>8.6321268895775702</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>676</v>
       </c>
@@ -8016,7 +8883,7 @@
         <v>9.7276839250116591</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>576</v>
       </c>
@@ -8034,7 +8901,7 @@
         <v>2359296</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>484</v>
       </c>
@@ -8052,7 +8919,7 @@
         <v>1982464</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>400</v>
       </c>
@@ -8070,7 +8937,7 @@
         <v>1638400</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1" t="s">
         <v>4</v>
       </c>
@@ -8081,7 +8948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>10</v>
       </c>
@@ -8089,409 +8956,171 @@
         <v>4</v>
       </c>
       <c r="C143" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="R144">
         <v>1600</v>
       </c>
-      <c r="B144">
-        <v>100</v>
-      </c>
-      <c r="C144">
-        <v>108.59</v>
-      </c>
-      <c r="D144">
-        <v>1.5157746847294</v>
-      </c>
-      <c r="E144">
-        <f>A144*($A$143^$B$143)</f>
-        <v>16000000</v>
-      </c>
-      <c r="L144">
-        <v>1600</v>
-      </c>
-      <c r="M144">
-        <v>100</v>
-      </c>
-      <c r="N144">
-        <v>283.24</v>
-      </c>
-      <c r="O144">
-        <v>3.4520794210000001</v>
-      </c>
-      <c r="P144">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145">
+      <c r="S144">
+        <v>99</v>
+      </c>
+      <c r="T144">
+        <v>333.62626262626202</v>
+      </c>
+      <c r="U144">
+        <v>3.1283095057541002</v>
+      </c>
+      <c r="V144">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="R145">
         <v>1444</v>
       </c>
-      <c r="B145">
-        <v>100</v>
-      </c>
-      <c r="C145">
-        <v>119.19</v>
-      </c>
-      <c r="D145">
-        <v>1.6010025886533501</v>
-      </c>
-      <c r="E145">
-        <f t="shared" ref="E145:E153" si="12">A145*($A$143^$B$143)</f>
-        <v>14440000</v>
-      </c>
-      <c r="L145">
-        <v>1444</v>
-      </c>
-      <c r="M145">
-        <v>100</v>
-      </c>
-      <c r="N145">
-        <v>282.55</v>
-      </c>
-      <c r="O145">
-        <v>3.3598191540000002</v>
-      </c>
-      <c r="P145">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146">
+      <c r="S145">
+        <v>99</v>
+      </c>
+      <c r="T145">
+        <v>337.33333333333297</v>
+      </c>
+      <c r="U145">
+        <v>3.0844755331171898</v>
+      </c>
+      <c r="V145">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="R146">
         <v>1296</v>
       </c>
-      <c r="B146">
+      <c r="S146">
+        <v>100</v>
+      </c>
+      <c r="T146">
+        <v>286.94</v>
+      </c>
+      <c r="U146">
+        <v>2.5624484566843599</v>
+      </c>
+      <c r="V146">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="R147">
+        <v>1156</v>
+      </c>
+      <c r="S147">
+        <v>100</v>
+      </c>
+      <c r="T147">
+        <v>336.94</v>
+      </c>
+      <c r="U147">
+        <v>2.9297529233084001</v>
+      </c>
+      <c r="V147">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="R148">
+        <v>1024</v>
+      </c>
+      <c r="S148">
+        <v>100</v>
+      </c>
+      <c r="T148">
+        <v>286.37</v>
+      </c>
+      <c r="U148">
+        <v>2.4555110352754101</v>
+      </c>
+      <c r="V148">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="R149">
+        <v>900</v>
+      </c>
+      <c r="S149">
+        <v>100</v>
+      </c>
+      <c r="T149">
+        <v>309.95</v>
+      </c>
+      <c r="U149">
+        <v>2.5592564641335001</v>
+      </c>
+      <c r="V149">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="R150">
+        <v>784</v>
+      </c>
+      <c r="S150">
         <v>99</v>
       </c>
-      <c r="C146">
-        <v>134.575757575757</v>
-      </c>
-      <c r="D146">
-        <v>1.73832126704045</v>
-      </c>
-      <c r="E146">
-        <f t="shared" si="12"/>
-        <v>12960000</v>
-      </c>
-      <c r="L146">
-        <v>1296</v>
-      </c>
-      <c r="M146">
-        <v>100</v>
-      </c>
-      <c r="N146">
-        <v>362.49</v>
-      </c>
-      <c r="O146">
-        <v>4.2173249239999997</v>
-      </c>
-      <c r="P146">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147">
-        <v>1156</v>
-      </c>
-      <c r="B147">
+      <c r="T150">
+        <v>323.86868686868598</v>
+      </c>
+      <c r="U150">
+        <v>2.5964971733905098</v>
+      </c>
+      <c r="V150">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="R151">
+        <v>676</v>
+      </c>
+      <c r="S151">
         <v>98</v>
       </c>
-      <c r="C147">
-        <v>138.775510204081</v>
-      </c>
-      <c r="D147">
-        <v>1.73207219407094</v>
-      </c>
-      <c r="E147">
-        <f t="shared" si="12"/>
-        <v>11560000</v>
-      </c>
-      <c r="L147">
-        <v>1156</v>
-      </c>
-      <c r="M147">
-        <v>100</v>
-      </c>
-      <c r="N147">
-        <v>314.39</v>
-      </c>
-      <c r="O147">
-        <v>3.55907777</v>
-      </c>
-      <c r="P147">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A148">
-        <v>1024</v>
-      </c>
-      <c r="B148">
-        <v>99</v>
-      </c>
-      <c r="C148">
-        <v>148.98989898989899</v>
-      </c>
-      <c r="D148">
-        <v>1.82153113477838</v>
-      </c>
-      <c r="E148">
-        <f t="shared" si="12"/>
-        <v>10240000</v>
-      </c>
-      <c r="L148">
-        <v>1024</v>
-      </c>
-      <c r="M148">
-        <v>100</v>
-      </c>
-      <c r="N148">
-        <v>295.73</v>
-      </c>
-      <c r="O148">
-        <v>3.2697161029999999</v>
-      </c>
-      <c r="P148">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149">
-        <v>900</v>
-      </c>
-      <c r="B149">
-        <v>96</v>
-      </c>
-      <c r="C149">
-        <v>175.229166666666</v>
-      </c>
-      <c r="D149">
-        <v>2.03622531720672</v>
-      </c>
-      <c r="E149">
-        <f t="shared" si="12"/>
-        <v>9000000</v>
-      </c>
-      <c r="L149">
-        <v>900</v>
-      </c>
-      <c r="M149">
-        <v>100</v>
-      </c>
-      <c r="N149">
-        <v>321.83</v>
-      </c>
-      <c r="O149">
-        <v>3.4589097287552399</v>
-      </c>
-      <c r="P149">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150">
-        <v>784</v>
-      </c>
-      <c r="B150">
-        <v>97</v>
-      </c>
-      <c r="C150">
-        <v>193.72164948453599</v>
-      </c>
-      <c r="D150">
-        <v>2.18649773295793</v>
-      </c>
-      <c r="E150">
-        <f t="shared" si="12"/>
-        <v>7840000</v>
-      </c>
-      <c r="L150">
-        <v>784</v>
-      </c>
-      <c r="M150">
-        <v>100</v>
-      </c>
-      <c r="N150">
-        <v>334.54</v>
-      </c>
-      <c r="O150">
-        <v>3.4915654509107101</v>
-      </c>
-      <c r="P150">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151">
-        <v>676</v>
-      </c>
-      <c r="B151">
-        <v>92</v>
-      </c>
-      <c r="C151">
-        <v>247.32608695652101</v>
-      </c>
-      <c r="D151">
-        <v>2.6988551285650502</v>
-      </c>
-      <c r="E151">
-        <f t="shared" si="12"/>
-        <v>6760000</v>
-      </c>
-      <c r="L151">
-        <v>676</v>
-      </c>
-      <c r="M151">
-        <v>99</v>
-      </c>
-      <c r="N151">
-        <v>347.73737373737299</v>
-      </c>
-      <c r="O151">
-        <v>3.5195420156174202</v>
-      </c>
-      <c r="P151">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152">
+      <c r="T151">
+        <v>325.591836734693</v>
+      </c>
+      <c r="U151">
+        <v>2.5394979604883399</v>
+      </c>
+      <c r="V151">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="R152">
         <v>576</v>
       </c>
-      <c r="B152" s="3">
-        <v>89</v>
-      </c>
-      <c r="C152">
-        <v>270.59550561797698</v>
-      </c>
-      <c r="D152">
-        <v>2.87884537477616</v>
-      </c>
-      <c r="E152">
-        <f t="shared" si="12"/>
-        <v>5760000</v>
-      </c>
-      <c r="L152">
-        <v>576</v>
-      </c>
-      <c r="M152">
-        <v>100</v>
-      </c>
-      <c r="N152">
-        <v>378.5</v>
-      </c>
-      <c r="O152">
-        <v>3.7460218527773299</v>
-      </c>
-      <c r="P152">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153">
+    </row>
+    <row r="153" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="R153">
         <v>484</v>
       </c>
-      <c r="B153">
-        <v>78</v>
-      </c>
-      <c r="C153">
-        <v>375.692307692307</v>
-      </c>
-      <c r="D153">
-        <v>3.8647681959473301</v>
-      </c>
-      <c r="E153">
-        <f t="shared" si="12"/>
-        <v>4840000</v>
-      </c>
-      <c r="L153">
-        <v>484</v>
-      </c>
-      <c r="M153">
-        <v>96</v>
-      </c>
-      <c r="N153">
-        <v>440.3125</v>
-      </c>
-      <c r="O153">
-        <v>4.2047550863111001</v>
-      </c>
-      <c r="P153">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A154">
+    </row>
+    <row r="154" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="R154">
         <v>400</v>
       </c>
-      <c r="B154" t="s">
-        <v>17</v>
-      </c>
-      <c r="L154">
-        <v>400</v>
-      </c>
-      <c r="M154" s="3">
-        <v>85</v>
-      </c>
-      <c r="N154">
-        <v>490.05882352941097</v>
-      </c>
-      <c r="O154">
-        <v>4.6481752654071897</v>
-      </c>
-      <c r="P154">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155">
+    </row>
+    <row r="155" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="R155">
         <v>324</v>
       </c>
-      <c r="B155" t="s">
-        <v>17</v>
-      </c>
-      <c r="L155">
-        <v>324</v>
-      </c>
-      <c r="M155">
-        <v>53</v>
-      </c>
-      <c r="N155">
-        <v>578.96226415094304</v>
-      </c>
-      <c r="O155">
-        <v>5.3555011416209899</v>
-      </c>
-      <c r="P155">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A156">
+    </row>
+    <row r="156" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="R156">
         <v>256</v>
       </c>
-      <c r="B156" t="s">
-        <v>17</v>
-      </c>
-      <c r="L156">
-        <v>256</v>
-      </c>
-      <c r="M156">
-        <v>21</v>
-      </c>
-      <c r="N156">
-        <v>658.66666666666595</v>
-      </c>
-      <c r="O156">
-        <v>6.0364755416244602</v>
-      </c>
-      <c r="P156">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="157" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1" t="s">
         <v>4</v>
       </c>
@@ -8502,7 +9131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>10</v>
       </c>
@@ -8510,10 +9139,10 @@
         <v>4</v>
       </c>
       <c r="C158" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>1600</v>
       </c>
@@ -8521,13 +9150,13 @@
         <v>100</v>
       </c>
       <c r="C159">
-        <v>142.03</v>
+        <v>108.59</v>
       </c>
       <c r="D159">
-        <v>2.0779226891993301</v>
+        <v>1.5157746847294</v>
       </c>
       <c r="E159">
-        <f t="shared" ref="E159:E168" si="13">A159*($A$158^$B$158)</f>
+        <f>A159*($A$158^$B$158)</f>
         <v>16000000</v>
       </c>
       <c r="L159">
@@ -8537,16 +9166,46 @@
         <v>100</v>
       </c>
       <c r="N159">
-        <v>301.19</v>
+        <v>283.24</v>
       </c>
       <c r="O159">
-        <v>3.9686535649999999</v>
+        <v>3.4520794210000001</v>
       </c>
       <c r="P159">
         <v>80</v>
       </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="R159">
+        <v>1600</v>
+      </c>
+      <c r="S159">
+        <v>100</v>
+      </c>
+      <c r="T159">
+        <v>252.74</v>
+      </c>
+      <c r="U159">
+        <v>3.8856290014122998</v>
+      </c>
+      <c r="V159">
+        <v>90</v>
+      </c>
+      <c r="Y159">
+        <v>1600</v>
+      </c>
+      <c r="Z159">
+        <v>99</v>
+      </c>
+      <c r="AA159">
+        <v>344.65656565656502</v>
+      </c>
+      <c r="AB159">
+        <v>3.9712546798576902</v>
+      </c>
+      <c r="AC159">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>1444</v>
       </c>
@@ -8554,13 +9213,13 @@
         <v>100</v>
       </c>
       <c r="C160">
-        <v>148.24</v>
+        <v>119.19</v>
       </c>
       <c r="D160">
-        <v>2.1098519318626399</v>
+        <v>1.6010025886533501</v>
       </c>
       <c r="E160">
-        <f t="shared" si="13"/>
+        <f>A160*($A$158^$B$158)</f>
         <v>14440000</v>
       </c>
       <c r="L160">
@@ -8570,30 +9229,60 @@
         <v>100</v>
       </c>
       <c r="N160">
-        <v>311.95999999999998</v>
+        <v>282.55</v>
       </c>
       <c r="O160">
-        <v>4.0229490229999998</v>
+        <v>3.3598191540000002</v>
       </c>
       <c r="P160">
         <v>80</v>
       </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="R160">
+        <v>1444</v>
+      </c>
+      <c r="S160">
+        <v>100</v>
+      </c>
+      <c r="T160">
+        <v>235.36</v>
+      </c>
+      <c r="U160">
+        <v>3.5184610925312101</v>
+      </c>
+      <c r="V160">
+        <v>90</v>
+      </c>
+      <c r="Y160">
+        <v>1444</v>
+      </c>
+      <c r="Z160">
+        <v>100</v>
+      </c>
+      <c r="AA160">
+        <v>315.02</v>
+      </c>
+      <c r="AB160">
+        <v>3.5566468726517599</v>
+      </c>
+      <c r="AC160">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>1296</v>
       </c>
       <c r="B161">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C161">
-        <v>163.19</v>
+        <v>134.575757575757</v>
       </c>
       <c r="D161">
-        <v>2.2440101369400498</v>
+        <v>1.73832126704045</v>
       </c>
       <c r="E161">
-        <f t="shared" si="13"/>
+        <f>A161*($A$158^$B$158)</f>
         <v>12960000</v>
       </c>
       <c r="L161">
@@ -8603,30 +9292,60 @@
         <v>100</v>
       </c>
       <c r="N161">
-        <v>331.76</v>
+        <v>362.49</v>
       </c>
       <c r="O161">
-        <v>4.1775966650000003</v>
+        <v>4.2173249239999997</v>
       </c>
       <c r="P161">
         <v>80</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="R161">
+        <v>1296</v>
+      </c>
+      <c r="S161">
+        <v>100</v>
+      </c>
+      <c r="T161">
+        <v>245.33</v>
+      </c>
+      <c r="U161">
+        <v>3.5788697512051999</v>
+      </c>
+      <c r="V161">
+        <v>90</v>
+      </c>
+      <c r="Y161">
+        <v>1296</v>
+      </c>
+      <c r="Z161">
+        <v>99</v>
+      </c>
+      <c r="AA161">
+        <v>331.414141414141</v>
+      </c>
+      <c r="AB161">
+        <v>3.6646156094937701</v>
+      </c>
+      <c r="AC161">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>1156</v>
       </c>
       <c r="B162">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C162">
-        <v>189.72</v>
+        <v>138.775510204081</v>
       </c>
       <c r="D162">
-        <v>2.5244456683215599</v>
+        <v>1.73207219407094</v>
       </c>
       <c r="E162">
-        <f t="shared" si="13"/>
+        <f>A162*($A$158^$B$158)</f>
         <v>11560000</v>
       </c>
       <c r="L162">
@@ -8636,30 +9355,60 @@
         <v>100</v>
       </c>
       <c r="N162">
-        <v>355.55</v>
+        <v>314.39</v>
       </c>
       <c r="O162">
-        <v>5.3623544618894803</v>
+        <v>3.55907777</v>
       </c>
       <c r="P162">
         <v>80</v>
       </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="R162">
+        <v>1156</v>
+      </c>
+      <c r="S162">
+        <v>100</v>
+      </c>
+      <c r="T162">
+        <v>250.62</v>
+      </c>
+      <c r="U162">
+        <v>3.0132396429999999</v>
+      </c>
+      <c r="V162">
+        <v>90</v>
+      </c>
+      <c r="Y162">
+        <v>1156</v>
+      </c>
+      <c r="Z162">
+        <v>99</v>
+      </c>
+      <c r="AA162">
+        <v>299.24242424242402</v>
+      </c>
+      <c r="AB162">
+        <v>3.2628005423060902</v>
+      </c>
+      <c r="AC162">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>1024</v>
       </c>
       <c r="B163">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C163">
-        <v>230.44</v>
+        <v>148.98989898989899</v>
       </c>
       <c r="D163">
-        <v>2.9752180731756299</v>
+        <v>1.82153113477838</v>
       </c>
       <c r="E163">
-        <f t="shared" si="13"/>
+        <f>A163*($A$158^$B$158)</f>
         <v>10240000</v>
       </c>
       <c r="L163">
@@ -8669,178 +9418,1199 @@
         <v>100</v>
       </c>
       <c r="N163">
-        <v>396.13</v>
+        <v>295.73</v>
       </c>
       <c r="O163">
-        <v>5.2711037326825299</v>
+        <v>3.2697161029999999</v>
       </c>
       <c r="P163">
         <v>80</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="R163">
+        <v>1024</v>
+      </c>
+      <c r="S163">
+        <v>100</v>
+      </c>
+      <c r="T163">
+        <v>256.06</v>
+      </c>
+      <c r="U163">
+        <v>2.9917357029999998</v>
+      </c>
+      <c r="V163">
+        <v>90</v>
+      </c>
+      <c r="Y163">
+        <v>1024</v>
+      </c>
+      <c r="Z163">
+        <v>99</v>
+      </c>
+      <c r="AA163">
+        <v>318.32323232323199</v>
+      </c>
+      <c r="AB163">
+        <v>3.3731066404954699</v>
+      </c>
+      <c r="AC163">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>900</v>
       </c>
       <c r="B164">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C164">
-        <v>270.42105263157799</v>
+        <v>175.229166666666</v>
       </c>
       <c r="D164">
-        <v>3.3549453846442399</v>
+        <v>2.03622531720672</v>
       </c>
       <c r="E164">
-        <f t="shared" si="13"/>
+        <f>A164*($A$158^$B$158)</f>
         <v>9000000</v>
       </c>
       <c r="L164">
         <v>900</v>
       </c>
       <c r="M164">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N164">
-        <v>418.24242424242402</v>
+        <v>321.83</v>
       </c>
       <c r="O164">
-        <v>4.8883787524989897</v>
+        <v>3.4589097287552399</v>
       </c>
       <c r="P164">
         <v>80</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="R164">
+        <v>900</v>
+      </c>
+      <c r="S164">
+        <v>100</v>
+      </c>
+      <c r="T164">
+        <v>308.27999999999997</v>
+      </c>
+      <c r="U164">
+        <v>3.5121681819999999</v>
+      </c>
+      <c r="V164">
+        <v>90</v>
+      </c>
+      <c r="Y164">
+        <v>900</v>
+      </c>
+      <c r="Z164">
+        <v>100</v>
+      </c>
+      <c r="AA164">
+        <v>405.97</v>
+      </c>
+      <c r="AB164">
+        <v>4.21501334554981</v>
+      </c>
+      <c r="AC164">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>784</v>
       </c>
       <c r="B165">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C165">
-        <v>356.02150537634401</v>
+        <v>193.72164948453599</v>
       </c>
       <c r="D165">
-        <v>4.2784269335047496</v>
+        <v>2.18649773295793</v>
       </c>
       <c r="E165">
-        <f t="shared" si="13"/>
+        <f>A165*($A$158^$B$158)</f>
         <v>7840000</v>
       </c>
       <c r="L165">
         <v>784</v>
       </c>
       <c r="M165">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N165">
-        <v>513.34375</v>
+        <v>334.54</v>
       </c>
       <c r="O165">
-        <v>5.8316731032464304</v>
+        <v>3.4915654509107101</v>
       </c>
       <c r="P165">
         <v>80</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="R165">
+        <v>784</v>
+      </c>
+      <c r="S165">
+        <v>100</v>
+      </c>
+      <c r="T165">
+        <v>319.37</v>
+      </c>
+      <c r="U165">
+        <v>3.5110829379999999</v>
+      </c>
+      <c r="V165">
+        <v>90</v>
+      </c>
+      <c r="Y165">
+        <v>784</v>
+      </c>
+      <c r="Z165">
+        <v>100</v>
+      </c>
+      <c r="AA165">
+        <v>352.11</v>
+      </c>
+      <c r="AB165">
+        <v>3.5762778365029901</v>
+      </c>
+      <c r="AC165">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>676</v>
       </c>
-      <c r="B166" s="3">
-        <v>77</v>
+      <c r="B166">
+        <v>92</v>
       </c>
       <c r="C166">
-        <v>457.88311688311597</v>
+        <v>247.32608695652101</v>
       </c>
       <c r="D166">
-        <v>5.35689278875474</v>
+        <v>2.6988551285650502</v>
       </c>
       <c r="E166">
-        <f t="shared" si="13"/>
+        <f>A166*($A$158^$B$158)</f>
         <v>6760000</v>
       </c>
       <c r="L166">
         <v>676</v>
       </c>
-      <c r="M166" s="3">
-        <v>89</v>
+      <c r="M166">
+        <v>99</v>
       </c>
       <c r="N166">
-        <v>603.82022471910102</v>
+        <v>347.73737373737299</v>
       </c>
       <c r="O166">
-        <v>6.8090540450707202</v>
+        <v>3.5195420156174202</v>
       </c>
       <c r="P166">
         <v>80</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="R166">
+        <v>676</v>
+      </c>
+      <c r="S166">
+        <v>99</v>
+      </c>
+      <c r="T166">
+        <v>313.97979797979798</v>
+      </c>
+      <c r="U166">
+        <v>3.3193709791727302</v>
+      </c>
+      <c r="V166">
+        <v>90</v>
+      </c>
+      <c r="Y166">
+        <v>676</v>
+      </c>
+      <c r="Z166">
+        <v>100</v>
+      </c>
+      <c r="AA166">
+        <v>378.13</v>
+      </c>
+      <c r="AB166">
+        <v>3.7600725772324899</v>
+      </c>
+      <c r="AC166">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>576</v>
       </c>
-      <c r="B167">
-        <v>46</v>
+      <c r="B167" s="3">
+        <v>89</v>
       </c>
       <c r="C167">
-        <v>538.67391299999997</v>
+        <v>270.59550561797698</v>
       </c>
       <c r="D167">
-        <v>6.6985558530000002</v>
+        <v>2.87884537477616</v>
       </c>
       <c r="E167">
-        <f t="shared" si="13"/>
+        <f>A167*($A$158^$B$158)</f>
         <v>5760000</v>
       </c>
       <c r="L167">
         <v>576</v>
       </c>
       <c r="M167">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="N167">
-        <v>710.42592592592598</v>
+        <v>378.5</v>
       </c>
       <c r="O167">
-        <v>7.8065043815424504</v>
+        <v>3.7460218527773299</v>
       </c>
       <c r="P167">
         <v>80</v>
       </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="R167">
+        <v>576</v>
+      </c>
+      <c r="S167">
+        <v>99</v>
+      </c>
+      <c r="T167">
+        <v>367.191919191919</v>
+      </c>
+      <c r="U167">
+        <v>3.7902538248883402</v>
+      </c>
+      <c r="V167">
+        <v>90</v>
+      </c>
+      <c r="Y167">
+        <v>576</v>
+      </c>
+      <c r="Z167">
+        <v>96</v>
+      </c>
+      <c r="AA167">
+        <v>426.83333333333297</v>
+      </c>
+      <c r="AB167">
+        <v>4.1561399458648003</v>
+      </c>
+      <c r="AC167">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>484</v>
       </c>
       <c r="B168">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="C168">
-        <v>604.4</v>
+        <v>375.692307692307</v>
       </c>
       <c r="D168">
-        <v>7.3507392449999998</v>
+        <v>3.8647681959473301</v>
       </c>
       <c r="E168">
-        <f t="shared" si="13"/>
+        <f>A168*($A$158^$B$158)</f>
         <v>4840000</v>
       </c>
       <c r="L168">
         <v>484</v>
       </c>
       <c r="M168">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="N168">
-        <v>740</v>
+        <v>440.3125</v>
       </c>
       <c r="O168">
-        <v>7.9039969404264703</v>
+        <v>4.2047550863111001</v>
       </c>
       <c r="P168">
         <v>80</v>
+      </c>
+      <c r="R168">
+        <v>484</v>
+      </c>
+      <c r="S168">
+        <v>91</v>
+      </c>
+      <c r="T168">
+        <v>435.90109890109801</v>
+      </c>
+      <c r="U168">
+        <v>4.3867864401660501</v>
+      </c>
+      <c r="V168">
+        <v>90</v>
+      </c>
+      <c r="Y168">
+        <v>484</v>
+      </c>
+      <c r="Z168">
+        <v>94</v>
+      </c>
+      <c r="AA168">
+        <v>450.51063829787199</v>
+      </c>
+      <c r="AB168">
+        <v>4.3253074141486696</v>
+      </c>
+      <c r="AC168">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169">
+        <v>400</v>
+      </c>
+      <c r="B169">
+        <v>57</v>
+      </c>
+      <c r="C169">
+        <v>351.61403510000002</v>
+      </c>
+      <c r="D169">
+        <v>3.499360491</v>
+      </c>
+      <c r="E169">
+        <f t="shared" ref="E169:E171" si="12">A169*($A$158^$B$158)</f>
+        <v>4000000</v>
+      </c>
+      <c r="L169">
+        <v>400</v>
+      </c>
+      <c r="M169" s="3">
+        <v>85</v>
+      </c>
+      <c r="N169">
+        <v>490.05882352941097</v>
+      </c>
+      <c r="O169">
+        <v>4.6481752654071897</v>
+      </c>
+      <c r="P169">
+        <v>80</v>
+      </c>
+      <c r="R169">
+        <v>400</v>
+      </c>
+      <c r="S169">
+        <v>79</v>
+      </c>
+      <c r="T169">
+        <v>449.84810126582198</v>
+      </c>
+      <c r="U169">
+        <v>4.4454127738909497</v>
+      </c>
+      <c r="V169">
+        <v>90</v>
+      </c>
+      <c r="Y169">
+        <v>400</v>
+      </c>
+      <c r="Z169">
+        <v>78</v>
+      </c>
+      <c r="AA169">
+        <v>548.15384615384596</v>
+      </c>
+      <c r="AB169">
+        <v>5.1143936019760901</v>
+      </c>
+      <c r="AC169">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170">
+        <v>324</v>
+      </c>
+      <c r="B170">
+        <v>39</v>
+      </c>
+      <c r="C170">
+        <v>454.30769229999999</v>
+      </c>
+      <c r="D170">
+        <v>4.3960832449999998</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="12"/>
+        <v>3240000</v>
+      </c>
+      <c r="L170">
+        <v>324</v>
+      </c>
+      <c r="M170">
+        <v>53</v>
+      </c>
+      <c r="N170">
+        <v>578.96226415094304</v>
+      </c>
+      <c r="O170">
+        <v>5.3555011416209899</v>
+      </c>
+      <c r="P170">
+        <v>80</v>
+      </c>
+      <c r="R170">
+        <v>324</v>
+      </c>
+      <c r="S170">
+        <v>48</v>
+      </c>
+      <c r="T170">
+        <v>578.6875</v>
+      </c>
+      <c r="U170">
+        <v>5.5520934424202997</v>
+      </c>
+      <c r="V170">
+        <v>90</v>
+      </c>
+      <c r="Y170">
+        <v>324</v>
+      </c>
+      <c r="Z170">
+        <v>48</v>
+      </c>
+      <c r="AA170">
+        <v>597.125</v>
+      </c>
+      <c r="AB170">
+        <v>5.5265855570687501</v>
+      </c>
+      <c r="AC170">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171">
+        <v>256</v>
+      </c>
+      <c r="B171">
+        <v>7</v>
+      </c>
+      <c r="C171">
+        <v>393.57142859999999</v>
+      </c>
+      <c r="D171">
+        <v>3.6890062260000001</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="12"/>
+        <v>2560000</v>
+      </c>
+      <c r="L171">
+        <v>256</v>
+      </c>
+      <c r="M171">
+        <v>21</v>
+      </c>
+      <c r="N171">
+        <v>658.66666666666595</v>
+      </c>
+      <c r="O171">
+        <v>6.0364755416244602</v>
+      </c>
+      <c r="P171">
+        <v>80</v>
+      </c>
+      <c r="R171">
+        <v>256</v>
+      </c>
+      <c r="S171">
+        <v>22</v>
+      </c>
+      <c r="T171">
+        <v>601.81818181818096</v>
+      </c>
+      <c r="U171">
+        <v>5.5737144454985597</v>
+      </c>
+      <c r="V171">
+        <v>90</v>
+      </c>
+      <c r="Y171">
+        <v>256</v>
+      </c>
+      <c r="Z171">
+        <v>27</v>
+      </c>
+      <c r="AA171">
+        <v>722.92592592592598</v>
+      </c>
+      <c r="AB171">
+        <v>6.6808438284831402</v>
+      </c>
+      <c r="AC171">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="1">
+        <v>10</v>
+      </c>
+      <c r="B173" s="1">
+        <v>4</v>
+      </c>
+      <c r="C173" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174">
+        <v>1600</v>
+      </c>
+      <c r="B174">
+        <v>100</v>
+      </c>
+      <c r="C174">
+        <v>142.03</v>
+      </c>
+      <c r="D174">
+        <v>2.0779226891993301</v>
+      </c>
+      <c r="E174">
+        <f>A174*($A$173^$B$173)</f>
+        <v>16000000</v>
+      </c>
+      <c r="L174">
+        <v>1600</v>
+      </c>
+      <c r="M174">
+        <v>100</v>
+      </c>
+      <c r="N174">
+        <v>301.19</v>
+      </c>
+      <c r="O174">
+        <v>3.9686535649999999</v>
+      </c>
+      <c r="P174">
+        <v>80</v>
+      </c>
+      <c r="R174">
+        <v>1600</v>
+      </c>
+      <c r="S174">
+        <v>100</v>
+      </c>
+      <c r="T174">
+        <v>278.64999999999998</v>
+      </c>
+      <c r="U174">
+        <v>3.8808218294929202</v>
+      </c>
+      <c r="V174">
+        <v>90</v>
+      </c>
+      <c r="Y174">
+        <v>1600</v>
+      </c>
+      <c r="Z174">
+        <v>100</v>
+      </c>
+      <c r="AA174">
+        <v>324.05</v>
+      </c>
+      <c r="AB174">
+        <v>4.0176590000000001</v>
+      </c>
+      <c r="AC174">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175">
+        <v>1444</v>
+      </c>
+      <c r="B175">
+        <v>100</v>
+      </c>
+      <c r="C175">
+        <v>148.24</v>
+      </c>
+      <c r="D175">
+        <v>2.1098519318626399</v>
+      </c>
+      <c r="E175">
+        <f>A175*($A$173^$B$173)</f>
+        <v>14440000</v>
+      </c>
+      <c r="L175">
+        <v>1444</v>
+      </c>
+      <c r="M175">
+        <v>100</v>
+      </c>
+      <c r="N175">
+        <v>311.95999999999998</v>
+      </c>
+      <c r="O175">
+        <v>4.0229490229999998</v>
+      </c>
+      <c r="P175">
+        <v>80</v>
+      </c>
+      <c r="R175">
+        <v>1444</v>
+      </c>
+      <c r="S175">
+        <v>100</v>
+      </c>
+      <c r="T175">
+        <v>288.58999999999997</v>
+      </c>
+      <c r="U175">
+        <v>3.91518043398507</v>
+      </c>
+      <c r="V175">
+        <v>90</v>
+      </c>
+      <c r="Y175">
+        <v>1444</v>
+      </c>
+      <c r="Z175">
+        <v>100</v>
+      </c>
+      <c r="AA175">
+        <v>354.24</v>
+      </c>
+      <c r="AB175">
+        <v>4.4863640980000001</v>
+      </c>
+      <c r="AC175">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176">
+        <v>1296</v>
+      </c>
+      <c r="B176">
+        <v>100</v>
+      </c>
+      <c r="C176">
+        <v>163.19</v>
+      </c>
+      <c r="D176">
+        <v>2.2440101369400498</v>
+      </c>
+      <c r="E176">
+        <f>A176*($A$173^$B$173)</f>
+        <v>12960000</v>
+      </c>
+      <c r="L176">
+        <v>1296</v>
+      </c>
+      <c r="M176">
+        <v>100</v>
+      </c>
+      <c r="N176">
+        <v>331.76</v>
+      </c>
+      <c r="O176">
+        <v>4.1775966650000003</v>
+      </c>
+      <c r="P176">
+        <v>80</v>
+      </c>
+      <c r="R176">
+        <v>1296</v>
+      </c>
+      <c r="S176">
+        <v>100</v>
+      </c>
+      <c r="T176">
+        <v>308.58999999999997</v>
+      </c>
+      <c r="U176">
+        <v>4.0835329446894999</v>
+      </c>
+      <c r="V176">
+        <v>90</v>
+      </c>
+      <c r="Y176">
+        <v>1296</v>
+      </c>
+      <c r="Z176">
+        <v>100</v>
+      </c>
+      <c r="AA176">
+        <v>366.95</v>
+      </c>
+      <c r="AB176">
+        <v>4.3576110239999997</v>
+      </c>
+      <c r="AC176">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177">
+        <v>1156</v>
+      </c>
+      <c r="B177">
+        <v>100</v>
+      </c>
+      <c r="C177">
+        <v>189.72</v>
+      </c>
+      <c r="D177">
+        <v>2.5244456683215599</v>
+      </c>
+      <c r="E177">
+        <f>A177*($A$173^$B$173)</f>
+        <v>11560000</v>
+      </c>
+      <c r="L177">
+        <v>1156</v>
+      </c>
+      <c r="M177">
+        <v>100</v>
+      </c>
+      <c r="N177">
+        <v>355.55</v>
+      </c>
+      <c r="O177">
+        <v>5.3623544618894803</v>
+      </c>
+      <c r="P177">
+        <v>80</v>
+      </c>
+      <c r="R177">
+        <v>1156</v>
+      </c>
+      <c r="S177">
+        <v>100</v>
+      </c>
+      <c r="T177">
+        <v>317.86</v>
+      </c>
+      <c r="U177">
+        <v>4.1048710889799898</v>
+      </c>
+      <c r="V177">
+        <v>90</v>
+      </c>
+      <c r="Y177">
+        <v>1156</v>
+      </c>
+      <c r="Z177">
+        <v>100</v>
+      </c>
+      <c r="AA177">
+        <v>403.35</v>
+      </c>
+      <c r="AB177">
+        <v>4.6812806809999996</v>
+      </c>
+      <c r="AC177">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178">
+        <v>1024</v>
+      </c>
+      <c r="B178">
+        <v>100</v>
+      </c>
+      <c r="C178">
+        <v>230.44</v>
+      </c>
+      <c r="D178">
+        <v>2.9752180731756299</v>
+      </c>
+      <c r="E178">
+        <f>A178*($A$173^$B$173)</f>
+        <v>10240000</v>
+      </c>
+      <c r="L178">
+        <v>1024</v>
+      </c>
+      <c r="M178">
+        <v>100</v>
+      </c>
+      <c r="N178">
+        <v>396.13</v>
+      </c>
+      <c r="O178">
+        <v>5.2711037326825299</v>
+      </c>
+      <c r="P178">
+        <v>80</v>
+      </c>
+      <c r="R178">
+        <v>1024</v>
+      </c>
+      <c r="S178">
+        <v>100</v>
+      </c>
+      <c r="T178">
+        <v>361.01</v>
+      </c>
+      <c r="U178">
+        <v>4.5279807812371198</v>
+      </c>
+      <c r="V178">
+        <v>90</v>
+      </c>
+      <c r="Y178">
+        <v>1024</v>
+      </c>
+      <c r="Z178">
+        <v>100</v>
+      </c>
+      <c r="AA178">
+        <v>408.21</v>
+      </c>
+      <c r="AB178">
+        <v>4.6454776600000001</v>
+      </c>
+      <c r="AC178">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179">
+        <v>900</v>
+      </c>
+      <c r="B179">
+        <v>95</v>
+      </c>
+      <c r="C179">
+        <v>270.42105263157799</v>
+      </c>
+      <c r="D179">
+        <v>3.3549453846442399</v>
+      </c>
+      <c r="E179">
+        <f>A179*($A$173^$B$173)</f>
+        <v>9000000</v>
+      </c>
+      <c r="L179">
+        <v>900</v>
+      </c>
+      <c r="M179">
+        <v>99</v>
+      </c>
+      <c r="N179">
+        <v>418.24242424242402</v>
+      </c>
+      <c r="O179">
+        <v>4.8883787524989897</v>
+      </c>
+      <c r="P179">
+        <v>80</v>
+      </c>
+      <c r="R179">
+        <v>900</v>
+      </c>
+      <c r="S179">
+        <v>100</v>
+      </c>
+      <c r="T179">
+        <v>405.77</v>
+      </c>
+      <c r="U179">
+        <v>4.8808679737290301</v>
+      </c>
+      <c r="V179">
+        <v>90</v>
+      </c>
+      <c r="Y179">
+        <v>900</v>
+      </c>
+      <c r="Z179">
+        <v>100</v>
+      </c>
+      <c r="AA179">
+        <v>458.72</v>
+      </c>
+      <c r="AB179">
+        <v>5.0548798898281504</v>
+      </c>
+      <c r="AC179">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180">
+        <v>784</v>
+      </c>
+      <c r="B180">
+        <v>93</v>
+      </c>
+      <c r="C180">
+        <v>356.02150537634401</v>
+      </c>
+      <c r="D180">
+        <v>4.2784269335047496</v>
+      </c>
+      <c r="E180">
+        <f>A180*($A$173^$B$173)</f>
+        <v>7840000</v>
+      </c>
+      <c r="L180">
+        <v>784</v>
+      </c>
+      <c r="M180">
+        <v>96</v>
+      </c>
+      <c r="N180">
+        <v>513.34375</v>
+      </c>
+      <c r="O180">
+        <v>5.8316731032464304</v>
+      </c>
+      <c r="P180">
+        <v>80</v>
+      </c>
+      <c r="R180">
+        <v>784</v>
+      </c>
+      <c r="S180">
+        <v>98</v>
+      </c>
+      <c r="T180">
+        <v>484.11224489795899</v>
+      </c>
+      <c r="U180">
+        <v>5.6484596246107399</v>
+      </c>
+      <c r="V180">
+        <v>90</v>
+      </c>
+      <c r="Y180">
+        <v>784</v>
+      </c>
+      <c r="Z180">
+        <v>97</v>
+      </c>
+      <c r="AA180">
+        <v>526.51546391752504</v>
+      </c>
+      <c r="AB180">
+        <v>5.6733821456022904</v>
+      </c>
+      <c r="AC180">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181">
+        <v>676</v>
+      </c>
+      <c r="B181" s="3">
+        <v>77</v>
+      </c>
+      <c r="C181">
+        <v>457.88311688311597</v>
+      </c>
+      <c r="D181">
+        <v>5.35689278875474</v>
+      </c>
+      <c r="E181">
+        <f>A181*($A$173^$B$173)</f>
+        <v>6760000</v>
+      </c>
+      <c r="L181">
+        <v>676</v>
+      </c>
+      <c r="M181" s="3">
+        <v>89</v>
+      </c>
+      <c r="N181">
+        <v>603.82022471910102</v>
+      </c>
+      <c r="O181">
+        <v>6.8090540450707202</v>
+      </c>
+      <c r="P181">
+        <v>80</v>
+      </c>
+      <c r="R181">
+        <v>676</v>
+      </c>
+      <c r="S181">
+        <v>89</v>
+      </c>
+      <c r="T181">
+        <v>565.68539325842698</v>
+      </c>
+      <c r="U181">
+        <v>6.4621586280056</v>
+      </c>
+      <c r="V181">
+        <v>90</v>
+      </c>
+      <c r="Y181">
+        <v>676</v>
+      </c>
+      <c r="Z181">
+        <v>83</v>
+      </c>
+      <c r="AA181">
+        <v>618.40963855421603</v>
+      </c>
+      <c r="AB181">
+        <v>6.4925012480304796</v>
+      </c>
+      <c r="AC181">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182">
+        <v>576</v>
+      </c>
+      <c r="B182">
+        <v>46</v>
+      </c>
+      <c r="C182">
+        <v>538.67391299999997</v>
+      </c>
+      <c r="D182">
+        <v>6.6985558530000002</v>
+      </c>
+      <c r="E182">
+        <f>A182*($A$173^$B$173)</f>
+        <v>5760000</v>
+      </c>
+      <c r="L182">
+        <v>576</v>
+      </c>
+      <c r="M182">
+        <v>54</v>
+      </c>
+      <c r="N182">
+        <v>710.42592592592598</v>
+      </c>
+      <c r="O182">
+        <v>7.8065043815424504</v>
+      </c>
+      <c r="P182">
+        <v>80</v>
+      </c>
+      <c r="R182">
+        <v>576</v>
+      </c>
+      <c r="S182">
+        <v>52</v>
+      </c>
+      <c r="T182">
+        <v>675.82692307692298</v>
+      </c>
+      <c r="U182">
+        <v>7.53493087683007</v>
+      </c>
+      <c r="V182">
+        <v>90</v>
+      </c>
+      <c r="Y182">
+        <v>576</v>
+      </c>
+      <c r="Z182">
+        <v>58</v>
+      </c>
+      <c r="AA182">
+        <v>747.06896551724105</v>
+      </c>
+      <c r="AB182">
+        <v>7.7483116221646204</v>
+      </c>
+      <c r="AC182">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183">
+        <v>484</v>
+      </c>
+      <c r="B183">
+        <v>10</v>
+      </c>
+      <c r="C183">
+        <v>604.4</v>
+      </c>
+      <c r="D183">
+        <v>7.3507392449999998</v>
+      </c>
+      <c r="E183">
+        <f>A183*($A$173^$B$173)</f>
+        <v>4840000</v>
+      </c>
+      <c r="L183">
+        <v>484</v>
+      </c>
+      <c r="M183">
+        <v>19</v>
+      </c>
+      <c r="N183">
+        <v>740</v>
+      </c>
+      <c r="O183">
+        <v>7.9039969404264703</v>
+      </c>
+      <c r="P183">
+        <v>80</v>
+      </c>
+      <c r="R183">
+        <v>484</v>
+      </c>
+      <c r="S183">
+        <v>19</v>
+      </c>
+      <c r="T183">
+        <v>770.47368421052602</v>
+      </c>
+      <c r="U183">
+        <v>8.3325679593743995</v>
+      </c>
+      <c r="V183">
+        <v>90</v>
+      </c>
+      <c r="Y183">
+        <v>484</v>
+      </c>
+      <c r="Z183">
+        <v>19</v>
+      </c>
+      <c r="AA183">
+        <v>779.84210526315701</v>
+      </c>
+      <c r="AB183">
+        <v>7.8989192312154399</v>
+      </c>
+      <c r="AC183">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsHPCC.xlsx
+++ b/ResultsHPCC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDF47F1-6E38-4F27-BD49-AC2050F5D165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674E1A96-A082-483C-80DD-3A5FC65CADAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{6AF1A893-C99E-4402-8250-ECFA3279128F}"/>
+    <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{6AF1A893-C99E-4402-8250-ECFA3279128F}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="CompareMethodsGaussian" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="17">
   <si>
     <t>ALL EXPERIMENTS DONE on MSU HPCC WITH THE FOLLOWING SETTINGS</t>
   </si>
@@ -84,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +115,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -132,16 +141,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -457,7 +469,7 @@
   <dimension ref="G1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G1" sqref="G1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -489,10 +501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75700BE6-961B-4EED-9E57-E1BAE03CF329}">
-  <dimension ref="A1:Z181"/>
+  <dimension ref="A1:AB204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="N163" sqref="N163"/>
+    <sheetView topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="P194" sqref="P194:S204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3739,1597 +3751,2588 @@
         <v>4</v>
       </c>
       <c r="C144" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>2500</v>
       </c>
-      <c r="B145">
-        <v>95</v>
-      </c>
-      <c r="C145">
-        <v>292.28421052631501</v>
-      </c>
-      <c r="D145">
-        <v>7.9811266950751296</v>
-      </c>
-      <c r="E145">
-        <f>A145*($A$144^$B$144)</f>
-        <v>25000000</v>
-      </c>
-      <c r="J145">
-        <v>2500</v>
-      </c>
-      <c r="K145">
-        <v>100</v>
-      </c>
-      <c r="L145">
-        <v>237.03</v>
-      </c>
-      <c r="M145">
-        <v>24.048885510000002</v>
-      </c>
-      <c r="N145">
-        <v>80</v>
-      </c>
-      <c r="P145">
-        <v>2500</v>
-      </c>
-      <c r="Q145">
-        <v>100</v>
-      </c>
-      <c r="R145">
-        <v>101.07</v>
-      </c>
-      <c r="S145">
-        <v>12.421567263391299</v>
-      </c>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>2304</v>
       </c>
-      <c r="B146">
-        <v>97</v>
-      </c>
-      <c r="C146">
-        <v>257.29896907216403</v>
-      </c>
-      <c r="D146">
-        <v>6.8973291726883703</v>
-      </c>
-      <c r="E146">
-        <f t="shared" ref="E146:E160" si="12">A146*($A$144^$B$144)</f>
-        <v>23040000</v>
-      </c>
-      <c r="J146">
-        <v>2304</v>
-      </c>
-      <c r="K146">
-        <v>99</v>
-      </c>
-      <c r="L146">
-        <v>202.3232323</v>
-      </c>
-      <c r="M146">
-        <v>19.10573338</v>
-      </c>
-      <c r="N146">
-        <v>80</v>
-      </c>
-      <c r="P146">
-        <v>2304</v>
-      </c>
-      <c r="Q146">
-        <v>100</v>
-      </c>
-      <c r="R146">
-        <v>103.79</v>
-      </c>
-      <c r="S146">
-        <v>11.856759616103901</v>
-      </c>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>2116</v>
       </c>
-      <c r="B147">
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150">
+        <v>1600</v>
+      </c>
+      <c r="B150">
+        <v>62</v>
+      </c>
+      <c r="C150">
+        <v>331.822580645161</v>
+      </c>
+      <c r="D150">
+        <v>5.6808097588983602</v>
+      </c>
+      <c r="J150">
+        <v>1600</v>
+      </c>
+      <c r="K150">
+        <v>93</v>
+      </c>
+      <c r="L150">
+        <v>213.48387096774101</v>
+      </c>
+      <c r="M150">
+        <v>13.600762347996101</v>
+      </c>
+      <c r="N150">
+        <v>80</v>
+      </c>
+      <c r="P150">
+        <v>1600</v>
+      </c>
+      <c r="Q150">
         <v>99</v>
       </c>
-      <c r="C147">
+      <c r="R150">
+        <v>189.80808080808001</v>
+      </c>
+      <c r="S150">
+        <v>15.106148752277999</v>
+      </c>
+      <c r="T150">
+        <v>90</v>
+      </c>
+      <c r="V150">
+        <v>1600</v>
+      </c>
+      <c r="W150">
+        <v>5</v>
+      </c>
+      <c r="X150">
+        <v>779.2</v>
+      </c>
+      <c r="Y150">
+        <v>40.51611686463</v>
+      </c>
+      <c r="Z150">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151">
+        <v>1444</v>
+      </c>
+      <c r="B151">
+        <v>13</v>
+      </c>
+      <c r="C151">
+        <v>584.53846153846098</v>
+      </c>
+      <c r="D151">
+        <v>9.5331012127526904</v>
+      </c>
+      <c r="J151">
+        <v>1444</v>
+      </c>
+      <c r="K151">
+        <v>100</v>
+      </c>
+      <c r="L151">
+        <v>191.07</v>
+      </c>
+      <c r="M151">
+        <v>11.187780832691301</v>
+      </c>
+      <c r="N151">
+        <v>80</v>
+      </c>
+      <c r="P151">
+        <v>1444</v>
+      </c>
+      <c r="Q151">
+        <v>100</v>
+      </c>
+      <c r="R151">
+        <v>177.22</v>
+      </c>
+      <c r="S151">
+        <v>13.279074519639799</v>
+      </c>
+      <c r="T151">
+        <v>90</v>
+      </c>
+      <c r="V151">
+        <v>1444</v>
+      </c>
+      <c r="W151">
+        <v>12</v>
+      </c>
+      <c r="X151">
+        <v>622.83333333333303</v>
+      </c>
+      <c r="Y151">
+        <v>29.560738735366598</v>
+      </c>
+      <c r="Z151">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152">
+        <v>1296</v>
+      </c>
+      <c r="B152">
+        <v>6</v>
+      </c>
+      <c r="C152">
+        <v>540</v>
+      </c>
+      <c r="D152">
+        <v>8.3952431900000004</v>
+      </c>
+      <c r="J152">
+        <v>1296</v>
+      </c>
+      <c r="K152">
+        <v>93</v>
+      </c>
+      <c r="L152">
+        <v>227.55913978494601</v>
+      </c>
+      <c r="M152">
+        <v>12.1141313000391</v>
+      </c>
+      <c r="N152">
+        <v>80</v>
+      </c>
+      <c r="P152">
+        <v>1296</v>
+      </c>
+      <c r="Q152">
+        <v>100</v>
+      </c>
+      <c r="R152">
+        <v>210.95</v>
+      </c>
+      <c r="S152">
+        <v>14.358762262540401</v>
+      </c>
+      <c r="T152">
+        <v>90</v>
+      </c>
+      <c r="V152">
+        <v>1296</v>
+      </c>
+      <c r="W152">
+        <v>4</v>
+      </c>
+      <c r="X152">
+        <v>805.75</v>
+      </c>
+      <c r="Y152">
+        <v>34.8338542762503</v>
+      </c>
+      <c r="Z152">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153">
+        <v>1156</v>
+      </c>
+      <c r="B153">
+        <v>4</v>
+      </c>
+      <c r="C153">
+        <v>518.75</v>
+      </c>
+      <c r="D153">
+        <v>7.4072937304736097</v>
+      </c>
+      <c r="J153">
+        <v>1156</v>
+      </c>
+      <c r="K153">
+        <v>62</v>
+      </c>
+      <c r="L153">
+        <v>467.40322580645102</v>
+      </c>
+      <c r="M153">
+        <v>23.076358478629</v>
+      </c>
+      <c r="N153">
+        <v>80</v>
+      </c>
+      <c r="P153">
+        <v>1156</v>
+      </c>
+      <c r="Q153">
+        <v>98</v>
+      </c>
+      <c r="R153">
+        <v>246.632653061224</v>
+      </c>
+      <c r="S153">
+        <v>14.9737527488222</v>
+      </c>
+      <c r="T153">
+        <v>90</v>
+      </c>
+      <c r="V153">
+        <v>1156</v>
+      </c>
+      <c r="W153">
+        <v>1</v>
+      </c>
+      <c r="X153">
+        <v>731</v>
+      </c>
+      <c r="Y153">
+        <v>30.652306645060801</v>
+      </c>
+      <c r="Z153">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154">
+        <v>1024</v>
+      </c>
+      <c r="B154">
+        <v>6</v>
+      </c>
+      <c r="C154">
+        <v>566</v>
+      </c>
+      <c r="D154">
+        <v>7.7418332498637001</v>
+      </c>
+      <c r="J154">
+        <v>1024</v>
+      </c>
+      <c r="K154">
+        <v>51</v>
+      </c>
+      <c r="L154">
+        <v>544.52941176470495</v>
+      </c>
+      <c r="M154">
+        <v>24.956383208627798</v>
+      </c>
+      <c r="N154">
+        <v>80</v>
+      </c>
+      <c r="P154">
+        <v>1024</v>
+      </c>
+      <c r="Q154">
+        <v>98</v>
+      </c>
+      <c r="R154">
+        <v>225.8163265</v>
+      </c>
+      <c r="S154">
+        <v>12.677168829999999</v>
+      </c>
+      <c r="T154">
+        <v>90</v>
+      </c>
+      <c r="V154">
+        <v>1024</v>
+      </c>
+      <c r="W154">
+        <v>5</v>
+      </c>
+      <c r="X154">
+        <v>701.6</v>
+      </c>
+      <c r="Y154">
+        <v>30.7989929514005</v>
+      </c>
+      <c r="Z154">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155">
+        <v>900</v>
+      </c>
+      <c r="B155">
+        <v>18</v>
+      </c>
+      <c r="C155">
+        <v>532.16666666666595</v>
+      </c>
+      <c r="D155">
+        <v>6.79214079515077</v>
+      </c>
+      <c r="J155">
+        <v>900</v>
+      </c>
+      <c r="K155">
+        <v>84</v>
+      </c>
+      <c r="L155">
+        <v>288.45238095238</v>
+      </c>
+      <c r="M155">
+        <v>11.735529101413499</v>
+      </c>
+      <c r="N155">
+        <v>80</v>
+      </c>
+      <c r="P155">
+        <v>900</v>
+      </c>
+      <c r="Q155">
+        <v>98</v>
+      </c>
+      <c r="R155">
+        <v>211.04081629999999</v>
+      </c>
+      <c r="S155">
+        <v>10.42492914</v>
+      </c>
+      <c r="T155">
+        <v>90</v>
+      </c>
+      <c r="V155">
+        <v>900</v>
+      </c>
+      <c r="W155">
+        <v>41</v>
+      </c>
+      <c r="X155">
+        <v>520.24390243902405</v>
+      </c>
+      <c r="Y155">
+        <v>20.612791546881599</v>
+      </c>
+      <c r="Z155">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156">
+        <v>784</v>
+      </c>
+      <c r="B156">
+        <v>60</v>
+      </c>
+      <c r="C156">
+        <v>309.58333333333297</v>
+      </c>
+      <c r="D156">
+        <v>3.6428933054480299</v>
+      </c>
+      <c r="J156">
+        <v>784</v>
+      </c>
+      <c r="K156">
+        <v>50</v>
+      </c>
+      <c r="L156">
+        <v>515.14</v>
+      </c>
+      <c r="M156">
+        <v>18.70396774</v>
+      </c>
+      <c r="N156">
+        <v>80</v>
+      </c>
+      <c r="P156">
+        <v>784</v>
+      </c>
+      <c r="Q156">
+        <v>96</v>
+      </c>
+      <c r="R156">
+        <v>254.85416670000001</v>
+      </c>
+      <c r="S156">
+        <v>11.03848595</v>
+      </c>
+      <c r="T156">
+        <v>90</v>
+      </c>
+      <c r="V156">
+        <v>784</v>
+      </c>
+      <c r="W156">
+        <v>33</v>
+      </c>
+      <c r="X156">
+        <v>593.30303030303003</v>
+      </c>
+      <c r="Y156">
+        <v>20.4098102182015</v>
+      </c>
+      <c r="Z156">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157">
+        <v>676</v>
+      </c>
+      <c r="B157">
+        <v>53</v>
+      </c>
+      <c r="C157">
+        <v>408.79245283018798</v>
+      </c>
+      <c r="D157">
+        <v>4.5859430801487999</v>
+      </c>
+      <c r="J157">
+        <v>676</v>
+      </c>
+      <c r="K157">
+        <v>81</v>
+      </c>
+      <c r="L157">
+        <v>240.16049380000001</v>
+      </c>
+      <c r="M157">
+        <v>7.854990012</v>
+      </c>
+      <c r="N157">
+        <v>80</v>
+      </c>
+      <c r="P157">
+        <v>676</v>
+      </c>
+      <c r="Q157">
+        <v>98</v>
+      </c>
+      <c r="R157">
+        <v>256.14285710000001</v>
+      </c>
+      <c r="S157">
+        <v>9.7348225040000003</v>
+      </c>
+      <c r="T157">
+        <v>90</v>
+      </c>
+      <c r="V157">
+        <v>676</v>
+      </c>
+      <c r="W157">
+        <v>83</v>
+      </c>
+      <c r="X157">
+        <v>374.95180722891502</v>
+      </c>
+      <c r="Y157">
+        <v>9.9146980470262402</v>
+      </c>
+      <c r="Z157">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158">
+        <v>576</v>
+      </c>
+      <c r="B158">
+        <v>35</v>
+      </c>
+      <c r="C158">
+        <v>399.48571428571398</v>
+      </c>
+      <c r="D158">
+        <v>4.2374789256236598</v>
+      </c>
+      <c r="J158">
+        <v>576</v>
+      </c>
+      <c r="K158">
+        <v>64</v>
+      </c>
+      <c r="L158">
+        <v>345.5</v>
+      </c>
+      <c r="M158">
+        <v>10.144695889999999</v>
+      </c>
+      <c r="N158">
+        <v>80</v>
+      </c>
+      <c r="P158">
+        <v>576</v>
+      </c>
+      <c r="Q158">
+        <v>98</v>
+      </c>
+      <c r="R158">
+        <v>232.82653060000001</v>
+      </c>
+      <c r="S158">
+        <v>7.864951338</v>
+      </c>
+      <c r="T158">
+        <v>90</v>
+      </c>
+      <c r="V158">
+        <v>576</v>
+      </c>
+      <c r="W158">
+        <v>40</v>
+      </c>
+      <c r="X158">
+        <v>518.72500000000002</v>
+      </c>
+      <c r="Y158">
+        <v>12.142249942984099</v>
+      </c>
+      <c r="Z158">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159">
+        <v>484</v>
+      </c>
+      <c r="B159">
+        <v>34</v>
+      </c>
+      <c r="C159">
+        <v>413.529411764705</v>
+      </c>
+      <c r="D159">
+        <v>4.1259372729383497</v>
+      </c>
+      <c r="J159">
+        <v>484</v>
+      </c>
+      <c r="K159">
+        <v>67</v>
+      </c>
+      <c r="L159">
+        <v>375.80597010000002</v>
+      </c>
+      <c r="M159">
+        <v>9.7083351709999999</v>
+      </c>
+      <c r="N159">
+        <v>80</v>
+      </c>
+      <c r="P159">
+        <v>484</v>
+      </c>
+      <c r="Q159">
+        <v>86</v>
+      </c>
+      <c r="R159">
+        <v>219.33720930000001</v>
+      </c>
+      <c r="S159">
+        <v>6.4328774329999998</v>
+      </c>
+      <c r="T159">
+        <v>90</v>
+      </c>
+      <c r="V159">
+        <v>484</v>
+      </c>
+      <c r="W159">
+        <v>25</v>
+      </c>
+      <c r="X159">
+        <v>542.88</v>
+      </c>
+      <c r="Y159">
+        <v>12.269019598118</v>
+      </c>
+      <c r="Z159">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160">
+        <v>400</v>
+      </c>
+      <c r="B160">
+        <v>12</v>
+      </c>
+      <c r="C160">
+        <v>573</v>
+      </c>
+      <c r="D160">
+        <v>5.3824589674186401</v>
+      </c>
+      <c r="J160">
+        <v>400</v>
+      </c>
+      <c r="K160">
+        <v>52</v>
+      </c>
+      <c r="L160">
+        <v>414.36538460000003</v>
+      </c>
+      <c r="M160">
+        <v>9.486227843</v>
+      </c>
+      <c r="N160">
+        <v>80</v>
+      </c>
+      <c r="P160">
+        <v>400</v>
+      </c>
+      <c r="Q160">
+        <v>86</v>
+      </c>
+      <c r="R160">
+        <v>245.15116280000001</v>
+      </c>
+      <c r="S160">
+        <v>6.2576684949999999</v>
+      </c>
+      <c r="T160">
+        <v>90</v>
+      </c>
+      <c r="V160">
+        <v>400</v>
+      </c>
+      <c r="W160">
+        <v>47</v>
+      </c>
+      <c r="X160">
+        <v>542.55319150000003</v>
+      </c>
+      <c r="Y160">
+        <v>7.0346118540000004</v>
+      </c>
+      <c r="Z160">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="1">
+        <v>10</v>
+      </c>
+      <c r="B166" s="1">
+        <v>4</v>
+      </c>
+      <c r="C166" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167">
+        <v>2500</v>
+      </c>
+      <c r="B167">
+        <v>95</v>
+      </c>
+      <c r="C167">
+        <v>292.28421052631501</v>
+      </c>
+      <c r="D167">
+        <v>7.9811266950751296</v>
+      </c>
+      <c r="E167">
+        <f t="shared" ref="E167:E182" si="12">A167*($A$166^$B$166)</f>
+        <v>25000000</v>
+      </c>
+      <c r="J167">
+        <v>2500</v>
+      </c>
+      <c r="K167">
+        <v>100</v>
+      </c>
+      <c r="L167">
+        <v>237.03</v>
+      </c>
+      <c r="M167">
+        <v>24.048885510000002</v>
+      </c>
+      <c r="N167">
+        <v>80</v>
+      </c>
+      <c r="P167">
+        <v>2500</v>
+      </c>
+      <c r="Q167">
+        <v>100</v>
+      </c>
+      <c r="R167">
+        <v>101.07</v>
+      </c>
+      <c r="S167">
+        <v>12.421567263391299</v>
+      </c>
+      <c r="T167">
+        <v>90</v>
+      </c>
+      <c r="AB167" s="4"/>
+    </row>
+    <row r="168" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168">
+        <v>2304</v>
+      </c>
+      <c r="B168">
+        <v>97</v>
+      </c>
+      <c r="C168">
+        <v>257.29896907216403</v>
+      </c>
+      <c r="D168">
+        <v>6.8973291726883703</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="12"/>
+        <v>23040000</v>
+      </c>
+      <c r="J168">
+        <v>2304</v>
+      </c>
+      <c r="K168">
+        <v>99</v>
+      </c>
+      <c r="L168">
+        <v>202.3232323</v>
+      </c>
+      <c r="M168">
+        <v>19.10573338</v>
+      </c>
+      <c r="N168">
+        <v>80</v>
+      </c>
+      <c r="P168">
+        <v>2304</v>
+      </c>
+      <c r="Q168">
+        <v>100</v>
+      </c>
+      <c r="R168">
+        <v>103.79</v>
+      </c>
+      <c r="S168">
+        <v>11.856759616103901</v>
+      </c>
+      <c r="T168">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169">
+        <v>2116</v>
+      </c>
+      <c r="B169">
+        <v>99</v>
+      </c>
+      <c r="C169">
         <v>281.414141414141</v>
       </c>
-      <c r="D147">
+      <c r="D169">
         <v>7.0949081018484099</v>
       </c>
-      <c r="E147">
+      <c r="E169">
         <f t="shared" si="12"/>
         <v>21160000</v>
       </c>
-      <c r="J147">
+      <c r="J169">
         <v>2116</v>
       </c>
-      <c r="K147">
-        <v>100</v>
-      </c>
-      <c r="L147">
+      <c r="K169">
+        <v>100</v>
+      </c>
+      <c r="L169">
         <v>212.2</v>
       </c>
-      <c r="M147">
+      <c r="M169">
         <v>18.53485951</v>
       </c>
-      <c r="N147">
+      <c r="N169">
         <v>80</v>
       </c>
-      <c r="P147">
+      <c r="P169">
         <v>2116</v>
       </c>
-      <c r="Q147">
-        <v>100</v>
-      </c>
-      <c r="R147">
+      <c r="Q169">
+        <v>100</v>
+      </c>
+      <c r="R169">
         <v>106.32</v>
       </c>
-      <c r="S147">
+      <c r="S169">
         <v>11.199078651664299</v>
       </c>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A148">
+      <c r="T169">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170">
         <v>1936</v>
       </c>
-      <c r="B148">
+      <c r="B170">
         <v>97</v>
       </c>
-      <c r="C148">
+      <c r="C170">
         <v>329.23711340206103</v>
       </c>
-      <c r="D148">
+      <c r="D170">
         <v>7.96017002993828</v>
       </c>
-      <c r="E148">
+      <c r="E170">
         <f t="shared" si="12"/>
         <v>19360000</v>
       </c>
-      <c r="J148">
+      <c r="J170">
         <v>1936</v>
       </c>
-      <c r="K148">
+      <c r="K170">
         <v>99</v>
       </c>
-      <c r="L148">
+      <c r="L170">
         <v>265.3535354</v>
       </c>
-      <c r="M148">
+      <c r="M170">
         <v>21.56608971</v>
       </c>
-      <c r="N148">
+      <c r="N170">
         <v>80</v>
       </c>
-      <c r="P148">
+      <c r="P170">
         <v>1936</v>
       </c>
-      <c r="Q148">
-        <v>100</v>
-      </c>
-      <c r="R148">
+      <c r="Q170">
+        <v>100</v>
+      </c>
+      <c r="R170">
         <v>108.33</v>
       </c>
-      <c r="S148">
+      <c r="S170">
         <v>10.548273554438399</v>
       </c>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149">
+      <c r="T170">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171">
         <v>1764</v>
       </c>
-      <c r="B149">
+      <c r="B171">
         <v>97</v>
       </c>
-      <c r="C149">
+      <c r="C171">
         <v>241.08247422680401</v>
       </c>
-      <c r="D149">
+      <c r="D171">
         <v>5.6632984643511</v>
       </c>
-      <c r="E149">
+      <c r="E171">
         <f t="shared" si="12"/>
         <v>17640000</v>
       </c>
-      <c r="J149">
+      <c r="J171">
         <v>1764</v>
       </c>
-      <c r="K149">
-        <v>100</v>
-      </c>
-      <c r="L149">
+      <c r="K171">
+        <v>100</v>
+      </c>
+      <c r="L171">
         <v>231.23</v>
       </c>
-      <c r="M149">
+      <c r="M171">
         <v>17.799812491958701</v>
       </c>
-      <c r="N149">
+      <c r="N171">
         <v>80</v>
       </c>
-      <c r="P149">
+      <c r="P171">
         <v>1764</v>
       </c>
-      <c r="Q149">
-        <v>100</v>
-      </c>
-      <c r="R149">
+      <c r="Q171">
+        <v>100</v>
+      </c>
+      <c r="R171">
         <v>111.27</v>
       </c>
-      <c r="S149">
+      <c r="S171">
         <v>10.0258501265628</v>
       </c>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150">
+      <c r="T171">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172">
         <v>1600</v>
       </c>
-      <c r="B150">
+      <c r="B172">
         <v>93</v>
       </c>
-      <c r="C150">
+      <c r="C172">
         <v>358.43010752688099</v>
       </c>
-      <c r="D150">
+      <c r="D172">
         <v>7.3504646685686597</v>
       </c>
-      <c r="E150">
+      <c r="E172">
         <f t="shared" si="12"/>
         <v>16000000</v>
       </c>
-      <c r="J150">
+      <c r="J172">
         <v>1600</v>
       </c>
-      <c r="K150">
-        <v>100</v>
-      </c>
-      <c r="L150">
+      <c r="K172">
+        <v>100</v>
+      </c>
+      <c r="L172">
         <v>180.43</v>
       </c>
-      <c r="M150">
+      <c r="M172">
         <v>12.8192447564424</v>
       </c>
-      <c r="N150">
+      <c r="N172">
         <v>80</v>
       </c>
-      <c r="P150">
+      <c r="P172">
         <v>1600</v>
       </c>
-      <c r="Q150">
-        <v>100</v>
-      </c>
-      <c r="R150">
+      <c r="Q172">
+        <v>100</v>
+      </c>
+      <c r="R172">
         <v>113.13</v>
       </c>
-      <c r="S150">
+      <c r="S172">
         <v>9.3704795241448995</v>
       </c>
-      <c r="U150">
+      <c r="T172">
+        <v>90</v>
+      </c>
+      <c r="V172">
         <v>1600</v>
       </c>
-      <c r="V150">
+      <c r="W172">
         <v>99</v>
       </c>
-      <c r="W150">
+      <c r="X172">
         <v>412.51515151515099</v>
       </c>
-      <c r="X150">
+      <c r="Y172">
         <v>23.144718703601001</v>
       </c>
-      <c r="Y150">
+      <c r="Z172">
         <v>70</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173">
         <v>1444</v>
       </c>
-      <c r="B151">
+      <c r="B173">
         <v>86</v>
       </c>
-      <c r="C151">
+      <c r="C173">
         <v>456.83720930232499</v>
       </c>
-      <c r="D151">
+      <c r="D173">
         <v>8.9484442743719104</v>
       </c>
-      <c r="E151">
+      <c r="E173">
         <f t="shared" si="12"/>
         <v>14440000</v>
       </c>
-      <c r="J151">
+      <c r="J173">
         <v>1444</v>
       </c>
-      <c r="K151">
-        <v>100</v>
-      </c>
-      <c r="L151">
+      <c r="K173">
+        <v>100</v>
+      </c>
+      <c r="L173">
         <v>260.87</v>
       </c>
-      <c r="M151">
+      <c r="M173">
         <v>17.1117929873813</v>
       </c>
-      <c r="N151">
+      <c r="N173">
         <v>80</v>
       </c>
-      <c r="P151">
+      <c r="P173">
         <v>1444</v>
       </c>
-      <c r="Q151">
-        <v>100</v>
-      </c>
-      <c r="R151">
+      <c r="Q173">
+        <v>100</v>
+      </c>
+      <c r="R173">
         <v>116.85</v>
       </c>
-      <c r="S151">
+      <c r="S173">
         <v>16.907410461539399</v>
       </c>
-      <c r="U151">
+      <c r="T173">
+        <v>90</v>
+      </c>
+      <c r="V173">
         <v>1444</v>
       </c>
-      <c r="V151">
+      <c r="W173">
         <v>98</v>
       </c>
-      <c r="W151">
+      <c r="X173">
         <v>368.61224490000001</v>
       </c>
-      <c r="X151">
+      <c r="Y173">
         <v>18.933468609999998</v>
       </c>
-      <c r="Y151">
+      <c r="Z173">
         <v>70</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174">
         <v>1296</v>
       </c>
-      <c r="B152">
+      <c r="B174">
         <v>88</v>
       </c>
-      <c r="C152">
+      <c r="C174">
         <v>476.73863636363598</v>
       </c>
-      <c r="D152">
+      <c r="D174">
         <v>8.9439273722385799</v>
       </c>
-      <c r="E152">
+      <c r="E174">
         <f t="shared" si="12"/>
         <v>12960000</v>
       </c>
-      <c r="J152">
+      <c r="J174">
         <v>1296</v>
       </c>
-      <c r="K152">
-        <v>100</v>
-      </c>
-      <c r="L152">
+      <c r="K174">
+        <v>100</v>
+      </c>
+      <c r="L174">
         <v>169.46</v>
       </c>
-      <c r="M152">
+      <c r="M174">
         <v>10.179820107907201</v>
       </c>
-      <c r="N152">
+      <c r="N174">
         <v>80</v>
       </c>
-      <c r="P152">
+      <c r="P174">
         <v>1296</v>
       </c>
-      <c r="Q152">
-        <v>100</v>
-      </c>
-      <c r="R152">
+      <c r="Q174">
+        <v>100</v>
+      </c>
+      <c r="R174">
         <v>124.64</v>
       </c>
-      <c r="S152">
+      <c r="S174">
         <v>11.7961628742818</v>
       </c>
-      <c r="U152">
+      <c r="T174">
+        <v>90</v>
+      </c>
+      <c r="V174">
         <v>1296</v>
       </c>
-      <c r="V152">
-        <v>100</v>
-      </c>
-      <c r="W152">
+      <c r="W174">
+        <v>100</v>
+      </c>
+      <c r="X174">
         <v>384.34</v>
       </c>
-      <c r="X152">
+      <c r="Y174">
         <v>18.221753718705099</v>
       </c>
-      <c r="Y152">
+      <c r="Z174">
         <v>70</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175">
         <v>1156</v>
       </c>
-      <c r="B153">
+      <c r="B175">
         <v>93</v>
       </c>
-      <c r="C153">
+      <c r="C175">
         <v>368.23655913978399</v>
       </c>
-      <c r="D153">
+      <c r="D175">
         <v>6.6511232826892499</v>
       </c>
-      <c r="E153">
+      <c r="E175">
         <f t="shared" si="12"/>
         <v>11560000</v>
       </c>
-      <c r="J153">
+      <c r="J175">
         <v>1156</v>
       </c>
-      <c r="K153">
-        <v>100</v>
-      </c>
-      <c r="L153">
+      <c r="K175">
+        <v>100</v>
+      </c>
+      <c r="L175">
         <v>153.69999999999999</v>
       </c>
-      <c r="M153">
+      <c r="M175">
         <v>8.4657328579563096</v>
       </c>
-      <c r="N153">
+      <c r="N175">
         <v>80</v>
       </c>
-      <c r="P153">
+      <c r="P175">
         <v>1156</v>
       </c>
-      <c r="Q153">
-        <v>100</v>
-      </c>
-      <c r="R153">
+      <c r="Q175">
+        <v>100</v>
+      </c>
+      <c r="R175">
         <v>130.08000000000001</v>
       </c>
-      <c r="S153">
+      <c r="S175">
         <v>11.2216260776831</v>
       </c>
-      <c r="U153">
+      <c r="T175">
+        <v>90</v>
+      </c>
+      <c r="V175">
         <v>1156</v>
       </c>
-      <c r="V153">
-        <v>100</v>
-      </c>
-      <c r="W153">
+      <c r="W175">
+        <v>100</v>
+      </c>
+      <c r="X175">
         <v>322.16000000000003</v>
       </c>
-      <c r="X153">
+      <c r="Y175">
         <v>14.2039154468488</v>
       </c>
-      <c r="Y153">
+      <c r="Z175">
         <v>70</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A154">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176">
         <v>1024</v>
       </c>
-      <c r="B154">
+      <c r="B176">
         <v>93</v>
       </c>
-      <c r="C154">
+      <c r="C176">
         <v>284.58064516129002</v>
       </c>
-      <c r="D154">
+      <c r="D176">
         <v>4.9058786080302097</v>
       </c>
-      <c r="E154">
+      <c r="E176">
         <f t="shared" si="12"/>
         <v>10240000</v>
       </c>
-      <c r="J154">
+      <c r="J176">
         <v>1024</v>
       </c>
-      <c r="K154">
-        <v>100</v>
-      </c>
-      <c r="L154">
+      <c r="K176">
+        <v>100</v>
+      </c>
+      <c r="L176">
         <v>170.66</v>
       </c>
-      <c r="M154">
+      <c r="M176">
         <v>8.5238273511477693</v>
       </c>
-      <c r="N154">
+      <c r="N176">
         <v>80</v>
       </c>
-      <c r="P154">
+      <c r="P176">
         <v>1024</v>
       </c>
-      <c r="Q154">
-        <v>100</v>
-      </c>
-      <c r="R154">
+      <c r="Q176">
+        <v>100</v>
+      </c>
+      <c r="R176">
         <v>140.61000000000001</v>
       </c>
-      <c r="S154">
+      <c r="S176">
         <v>14.7350544435379</v>
       </c>
-      <c r="U154">
+      <c r="T176">
+        <v>90</v>
+      </c>
+      <c r="V176">
         <v>1024</v>
       </c>
-      <c r="V154">
+      <c r="W176">
         <v>99</v>
       </c>
-      <c r="W154">
+      <c r="X176">
         <v>294.28282828282801</v>
       </c>
-      <c r="X154">
+      <c r="Y176">
         <v>11.978447548700499</v>
       </c>
-      <c r="Y154">
+      <c r="Z176">
         <v>70</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177">
         <v>900</v>
       </c>
-      <c r="B155">
+      <c r="B177">
         <v>90</v>
       </c>
-      <c r="C155">
+      <c r="C177">
         <v>268.61111111111097</v>
       </c>
-      <c r="D155">
+      <c r="D177">
         <v>4.4304024329224596</v>
       </c>
-      <c r="E155">
+      <c r="E177">
         <f t="shared" si="12"/>
         <v>9000000</v>
       </c>
-      <c r="J155">
+      <c r="J177">
         <v>900</v>
       </c>
-      <c r="K155">
-        <v>100</v>
-      </c>
-      <c r="L155">
+      <c r="K177">
+        <v>100</v>
+      </c>
+      <c r="L177">
         <v>208.58</v>
       </c>
-      <c r="M155">
+      <c r="M177">
         <v>9.4261198371113206</v>
       </c>
-      <c r="N155">
+      <c r="N177">
         <v>80</v>
       </c>
-      <c r="P155">
+      <c r="P177">
         <v>900</v>
       </c>
-      <c r="Q155">
-        <v>100</v>
-      </c>
-      <c r="R155">
+      <c r="Q177">
+        <v>100</v>
+      </c>
+      <c r="R177">
         <v>146.80000000000001</v>
       </c>
-      <c r="S155">
+      <c r="S177">
         <v>13.7357975855784</v>
       </c>
-      <c r="U155">
+      <c r="T177">
+        <v>90</v>
+      </c>
+      <c r="V177">
         <v>900</v>
       </c>
-      <c r="V155">
+      <c r="W177">
         <v>95</v>
       </c>
-      <c r="W155">
+      <c r="X177">
         <v>423.14736842105202</v>
       </c>
-      <c r="X155">
+      <c r="Y177">
         <v>16.046678291112901</v>
       </c>
-      <c r="Y155">
+      <c r="Z177">
         <v>70</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A156">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178">
         <v>784</v>
       </c>
-      <c r="B156">
+      <c r="B178">
         <v>84</v>
       </c>
-      <c r="C156">
+      <c r="C178">
         <v>317.20238095238</v>
       </c>
-      <c r="D156">
+      <c r="D178">
         <v>5.0148931326070203</v>
       </c>
-      <c r="E156">
+      <c r="E178">
         <f t="shared" si="12"/>
         <v>7840000</v>
       </c>
-      <c r="J156">
+      <c r="J178">
         <v>784</v>
       </c>
-      <c r="K156">
-        <v>100</v>
-      </c>
-      <c r="L156">
+      <c r="K178">
+        <v>100</v>
+      </c>
+      <c r="L178">
         <v>210.63</v>
       </c>
-      <c r="M156">
+      <c r="M178">
         <v>9.7590689080755695</v>
       </c>
-      <c r="N156">
+      <c r="N178">
         <v>80</v>
       </c>
-      <c r="P156">
+      <c r="P178">
         <v>784</v>
       </c>
-      <c r="Q156">
-        <v>100</v>
-      </c>
-      <c r="R156">
+      <c r="Q178">
+        <v>100</v>
+      </c>
+      <c r="R178">
         <v>166.85</v>
       </c>
-      <c r="S156">
+      <c r="S178">
         <v>13.788296239999999</v>
       </c>
-      <c r="U156">
+      <c r="T178">
+        <v>90</v>
+      </c>
+      <c r="V178">
         <v>784</v>
       </c>
-      <c r="V156">
-        <v>100</v>
-      </c>
-      <c r="W156">
+      <c r="W178">
+        <v>100</v>
+      </c>
+      <c r="X178">
         <v>307.93</v>
       </c>
-      <c r="X156">
+      <c r="Y178">
         <v>10.4290385778318</v>
       </c>
-      <c r="Y156">
+      <c r="Z178">
         <v>70</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A157">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179">
         <v>676</v>
       </c>
-      <c r="B157">
+      <c r="B179">
         <v>65</v>
       </c>
-      <c r="C157">
+      <c r="C179">
         <v>434.815384615384</v>
       </c>
-      <c r="D157">
+      <c r="D179">
         <v>6.5849364794929501</v>
       </c>
-      <c r="E157">
+      <c r="E179">
         <f t="shared" si="12"/>
         <v>6760000</v>
       </c>
-      <c r="J157">
+      <c r="J179">
         <v>676</v>
       </c>
-      <c r="K157">
-        <v>100</v>
-      </c>
-      <c r="L157">
+      <c r="K179">
+        <v>100</v>
+      </c>
+      <c r="L179">
         <v>228.82</v>
       </c>
-      <c r="M157">
+      <c r="M179">
         <v>9.8044047903583795</v>
       </c>
-      <c r="N157">
+      <c r="N179">
         <v>80</v>
       </c>
-      <c r="P157">
+      <c r="P179">
         <v>676</v>
       </c>
-      <c r="Q157">
-        <v>100</v>
-      </c>
-      <c r="R157">
+      <c r="Q179">
+        <v>100</v>
+      </c>
+      <c r="R179">
         <v>204.13</v>
       </c>
-      <c r="S157">
+      <c r="S179">
         <v>14.842247609999999</v>
       </c>
-      <c r="U157">
+      <c r="T179">
+        <v>90</v>
+      </c>
+      <c r="V179">
         <v>676</v>
       </c>
-      <c r="V157">
-        <v>100</v>
-      </c>
-      <c r="W157">
+      <c r="W179">
+        <v>100</v>
+      </c>
+      <c r="X179">
         <v>272.7</v>
       </c>
-      <c r="X157">
+      <c r="Y179">
         <v>8.42792584619019</v>
       </c>
-      <c r="Y157">
+      <c r="Z179">
         <v>70</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A158">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180">
         <v>576</v>
       </c>
-      <c r="B158">
+      <c r="B180">
         <v>59</v>
       </c>
-      <c r="C158">
+      <c r="C180">
         <v>430.13559322033899</v>
       </c>
-      <c r="D158">
+      <c r="D180">
         <v>6.2526356521357496</v>
       </c>
-      <c r="E158">
+      <c r="E180">
         <f t="shared" si="12"/>
         <v>5760000</v>
       </c>
-      <c r="J158">
+      <c r="J180">
         <v>576</v>
       </c>
-      <c r="K158">
-        <v>100</v>
-      </c>
-      <c r="L158">
+      <c r="K180">
+        <v>100</v>
+      </c>
+      <c r="L180">
         <v>272.37</v>
       </c>
-      <c r="M158">
+      <c r="M180">
         <v>10.585796369949801</v>
       </c>
-      <c r="N158">
+      <c r="N180">
         <v>80</v>
       </c>
-      <c r="P158">
+      <c r="P180">
         <v>576</v>
       </c>
-      <c r="Q158">
-        <v>100</v>
-      </c>
-      <c r="R158">
+      <c r="Q180">
+        <v>100</v>
+      </c>
+      <c r="R180">
         <v>258.7</v>
       </c>
-      <c r="S158">
+      <c r="S180">
         <v>16.587729589999999</v>
       </c>
-      <c r="U158">
+      <c r="T180">
+        <v>90</v>
+      </c>
+      <c r="V180">
         <v>576</v>
       </c>
-      <c r="V158">
+      <c r="W180">
         <v>99</v>
       </c>
-      <c r="W158">
+      <c r="X180">
         <v>299.54545450000001</v>
       </c>
-      <c r="X158">
+      <c r="Y180">
         <v>8.7133503739999991</v>
       </c>
-      <c r="Y158">
+      <c r="Z180">
         <v>70</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A159">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181">
         <v>484</v>
       </c>
-      <c r="B159">
+      <c r="B181">
         <v>41</v>
       </c>
-      <c r="C159">
+      <c r="C181">
         <v>537.43902439024396</v>
       </c>
-      <c r="D159">
+      <c r="D181">
         <v>7.4650224383420696</v>
       </c>
-      <c r="E159">
+      <c r="E181">
         <f t="shared" si="12"/>
         <v>4840000</v>
       </c>
-      <c r="J159">
+      <c r="J181">
         <v>484</v>
       </c>
-      <c r="K159">
+      <c r="K181">
         <v>97</v>
       </c>
-      <c r="L159">
+      <c r="L181">
         <v>332.11340206185503</v>
       </c>
-      <c r="M159">
+      <c r="M181">
         <v>11.5190847515915</v>
       </c>
-      <c r="N159">
+      <c r="N181">
         <v>80</v>
       </c>
-      <c r="P159">
+      <c r="P181">
         <v>484</v>
       </c>
-      <c r="Q159">
+      <c r="Q181">
         <v>94</v>
       </c>
-      <c r="R159">
+      <c r="R181">
         <v>284.73404260000001</v>
       </c>
-      <c r="S159">
+      <c r="S181">
         <v>9.5369377830000008</v>
       </c>
-      <c r="U159">
+      <c r="T181">
+        <v>90</v>
+      </c>
+      <c r="V181">
         <v>484</v>
       </c>
-      <c r="V159">
+      <c r="W181">
         <v>99</v>
       </c>
-      <c r="W159">
+      <c r="X181">
         <v>350.66666670000001</v>
       </c>
-      <c r="X159">
+      <c r="Y181">
         <v>9.3208937709999997</v>
       </c>
-      <c r="Y159">
+      <c r="Z181">
         <v>70</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A160">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182">
         <v>400</v>
       </c>
-      <c r="B160">
+      <c r="B182">
         <v>9</v>
       </c>
-      <c r="C160">
+      <c r="C182">
         <v>607.11111111111097</v>
       </c>
-      <c r="D160">
+      <c r="D182">
         <v>8.1158545802269693</v>
       </c>
-      <c r="E160">
+      <c r="E182">
         <f t="shared" si="12"/>
         <v>4000000</v>
       </c>
-      <c r="J160">
+      <c r="J182">
         <v>400</v>
       </c>
-      <c r="K160">
+      <c r="K182">
         <v>83</v>
       </c>
-      <c r="L160">
+      <c r="L182">
         <v>387.69879518072202</v>
       </c>
-      <c r="M160">
+      <c r="M182">
         <v>12.134655260931099</v>
       </c>
-      <c r="N160">
+      <c r="N182">
         <v>80</v>
       </c>
-      <c r="P160">
+      <c r="P182">
         <v>400</v>
       </c>
-      <c r="Q160">
+      <c r="Q182">
         <v>80</v>
       </c>
-      <c r="R160">
+      <c r="R182">
         <v>382.5625</v>
       </c>
-      <c r="S160">
+      <c r="S182">
         <v>11.362718940000001</v>
       </c>
-      <c r="U160">
+      <c r="T182">
+        <v>90</v>
+      </c>
+      <c r="V182">
         <v>400</v>
       </c>
-      <c r="V160">
+      <c r="W182">
         <v>90</v>
       </c>
-      <c r="W160">
+      <c r="X182">
         <v>427.97777780000001</v>
       </c>
-      <c r="X160">
+      <c r="Y182">
         <v>7.5885457660000002</v>
       </c>
-      <c r="Y160">
+      <c r="Z182">
         <v>70</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A165" s="1" t="s">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A166" s="1">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="1">
         <v>10</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B188" s="1">
         <v>4</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C188" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A167">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189">
         <v>2500</v>
       </c>
-      <c r="B167">
-        <v>100</v>
-      </c>
-      <c r="C167">
+      <c r="B189">
+        <v>100</v>
+      </c>
+      <c r="C189">
         <v>130.12</v>
       </c>
-      <c r="D167">
+      <c r="D189">
         <v>3.5453392092193798</v>
       </c>
-      <c r="E167">
-        <f>A167*($A$166^$B$166)</f>
+      <c r="E189">
+        <f t="shared" ref="E189:E203" si="13">A189*($A$188^$B$188)</f>
         <v>25000000</v>
       </c>
-      <c r="J167">
+      <c r="J189">
         <v>2500</v>
       </c>
-      <c r="K167">
-        <v>100</v>
-      </c>
-      <c r="L167">
+      <c r="K189">
+        <v>100</v>
+      </c>
+      <c r="L189">
         <v>144.37</v>
       </c>
-      <c r="M167">
+      <c r="M189">
         <v>14.81806469</v>
       </c>
-      <c r="N167">
+      <c r="N189">
         <v>80</v>
       </c>
-      <c r="P167">
+      <c r="P189">
         <v>2500</v>
       </c>
-      <c r="Q167">
-        <v>100</v>
-      </c>
-      <c r="R167">
+      <c r="Q189">
+        <v>100</v>
+      </c>
+      <c r="R189">
         <v>115.17</v>
       </c>
-      <c r="S167">
+      <c r="S189">
         <v>16.396713961755101</v>
       </c>
-      <c r="T167">
+      <c r="T189">
         <v>90</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A168">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190">
         <v>2304</v>
       </c>
-      <c r="B168">
-        <v>100</v>
-      </c>
-      <c r="C168">
+      <c r="B190">
+        <v>100</v>
+      </c>
+      <c r="C190">
         <v>138.72999999999999</v>
       </c>
-      <c r="D168">
+      <c r="D190">
         <v>3.6323938088185899</v>
       </c>
-      <c r="E168">
-        <f>A168*($A$166^$B$166)</f>
+      <c r="E190">
+        <f t="shared" si="13"/>
         <v>23040000</v>
       </c>
-      <c r="J168">
+      <c r="J190">
         <v>2304</v>
       </c>
-      <c r="K168">
-        <v>100</v>
-      </c>
-      <c r="L168">
+      <c r="K190">
+        <v>100</v>
+      </c>
+      <c r="L190">
         <v>150.22</v>
       </c>
-      <c r="M168">
+      <c r="M190">
         <v>14.534165700000001</v>
       </c>
-      <c r="N168">
+      <c r="N190">
         <v>80</v>
       </c>
-      <c r="P168">
+      <c r="P190">
         <v>2304</v>
       </c>
-      <c r="Q168">
-        <v>100</v>
-      </c>
-      <c r="R168">
+      <c r="Q190">
+        <v>100</v>
+      </c>
+      <c r="R190">
         <v>116.5</v>
       </c>
-      <c r="S168">
+      <c r="S190">
         <v>15.252588075312</v>
       </c>
-      <c r="T168">
+      <c r="T190">
         <v>90</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A169">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191">
         <v>2116</v>
       </c>
-      <c r="B169">
-        <v>100</v>
-      </c>
-      <c r="C169">
+      <c r="B191">
+        <v>100</v>
+      </c>
+      <c r="C191">
         <v>141.72999999999999</v>
       </c>
-      <c r="D169">
+      <c r="D191">
         <v>3.5438134080797301</v>
       </c>
-      <c r="E169">
-        <f>A169*($A$166^$B$166)</f>
+      <c r="E191">
+        <f t="shared" si="13"/>
         <v>21160000</v>
       </c>
-      <c r="J169">
+      <c r="J191">
         <v>2116</v>
       </c>
-      <c r="K169">
-        <v>100</v>
-      </c>
-      <c r="L169">
+      <c r="K191">
+        <v>100</v>
+      </c>
+      <c r="L191">
         <v>153.58000000000001</v>
       </c>
-      <c r="M169">
+      <c r="M191">
         <v>14.02186493</v>
       </c>
-      <c r="N169">
+      <c r="N191">
         <v>80</v>
       </c>
-      <c r="P169">
+      <c r="P191">
         <v>2116</v>
       </c>
-      <c r="Q169">
-        <v>100</v>
-      </c>
-      <c r="R169">
+      <c r="Q191">
+        <v>100</v>
+      </c>
+      <c r="R191">
         <v>121.02</v>
       </c>
-      <c r="S169">
+      <c r="S191">
         <v>14.799137056223101</v>
       </c>
-      <c r="T169">
+      <c r="T191">
         <v>90</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A170">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192">
         <v>1936</v>
       </c>
-      <c r="B170">
-        <v>100</v>
-      </c>
-      <c r="C170">
+      <c r="B192">
+        <v>100</v>
+      </c>
+      <c r="C192">
         <v>147.21</v>
       </c>
-      <c r="D170">
+      <c r="D192">
         <v>3.5180230547688498</v>
       </c>
-      <c r="E170">
-        <f>A170*($A$166^$B$166)</f>
+      <c r="E192">
+        <f t="shared" si="13"/>
         <v>19360000</v>
       </c>
-      <c r="J170">
+      <c r="J192">
         <v>1936</v>
       </c>
-      <c r="K170">
-        <v>100</v>
-      </c>
-      <c r="L170">
+      <c r="K192">
+        <v>100</v>
+      </c>
+      <c r="L192">
         <v>157.75</v>
       </c>
-      <c r="M170">
+      <c r="M192">
         <v>13.65056143</v>
       </c>
-      <c r="N170">
+      <c r="N192">
         <v>80</v>
       </c>
-      <c r="P170">
+      <c r="P192">
         <v>1936</v>
       </c>
-      <c r="Q170">
-        <v>100</v>
-      </c>
-      <c r="R170">
+      <c r="Q192">
+        <v>100</v>
+      </c>
+      <c r="R192">
         <v>128.22</v>
       </c>
-      <c r="S170">
+      <c r="S192">
         <v>13.370844999999999</v>
       </c>
-      <c r="T170">
+      <c r="T192">
         <v>90</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A171">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193">
         <v>1764</v>
       </c>
-      <c r="B171">
-        <v>100</v>
-      </c>
-      <c r="C171">
+      <c r="B193">
+        <v>100</v>
+      </c>
+      <c r="C193">
         <v>165.08</v>
       </c>
-      <c r="D171">
+      <c r="D193">
         <v>3.7877152578276498</v>
       </c>
-      <c r="E171">
-        <f>A171*($A$166^$B$166)</f>
+      <c r="E193">
+        <f t="shared" si="13"/>
         <v>17640000</v>
       </c>
-      <c r="J171">
+      <c r="J193">
         <v>1764</v>
       </c>
-      <c r="K171">
-        <v>100</v>
-      </c>
-      <c r="L171">
+      <c r="K193">
+        <v>100</v>
+      </c>
+      <c r="L193">
         <v>161.63999999999999</v>
       </c>
-      <c r="M171">
+      <c r="M193">
         <v>12.837611040000001</v>
       </c>
-      <c r="N171">
+      <c r="N193">
         <v>80</v>
       </c>
-      <c r="P171">
+      <c r="P193">
         <v>1764</v>
       </c>
-      <c r="Q171">
-        <v>100</v>
-      </c>
-      <c r="R171">
+      <c r="Q193">
+        <v>100</v>
+      </c>
+      <c r="R193">
         <v>131.41</v>
       </c>
-      <c r="S171">
+      <c r="S193">
         <v>12.1292520747159</v>
       </c>
-      <c r="T171">
+      <c r="T193">
         <v>90</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A172">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194">
         <v>1600</v>
       </c>
-      <c r="B172">
-        <v>100</v>
-      </c>
-      <c r="C172">
+      <c r="B194">
+        <v>100</v>
+      </c>
+      <c r="C194">
         <v>187.41</v>
       </c>
-      <c r="D172">
+      <c r="D194">
         <v>4.9115708866668797</v>
       </c>
-      <c r="J172">
+      <c r="E194">
+        <f t="shared" si="13"/>
+        <v>16000000</v>
+      </c>
+      <c r="J194">
         <v>1600</v>
       </c>
-      <c r="K172">
-        <v>100</v>
-      </c>
-      <c r="L172">
+      <c r="K194">
+        <v>100</v>
+      </c>
+      <c r="L194">
         <v>165.95</v>
       </c>
-      <c r="M172">
+      <c r="M194">
         <v>12.084898129999999</v>
       </c>
-      <c r="N172">
+      <c r="N194">
         <v>80</v>
       </c>
-      <c r="P172">
+      <c r="P194">
         <v>1600</v>
       </c>
-      <c r="Q172">
-        <v>100</v>
-      </c>
-      <c r="R172">
+      <c r="Q194">
+        <v>100</v>
+      </c>
+      <c r="R194">
         <v>136.27000000000001</v>
       </c>
-      <c r="S172">
+      <c r="S194">
         <v>11.5188618920871</v>
       </c>
-      <c r="T172">
+      <c r="T194">
         <v>90</v>
       </c>
-      <c r="V172">
+      <c r="V194">
         <v>1600</v>
       </c>
-      <c r="W172">
+      <c r="W194">
         <v>99</v>
       </c>
-      <c r="X172">
+      <c r="X194">
         <v>412.51515151515099</v>
       </c>
-      <c r="Y172">
+      <c r="Y194">
         <v>23.144718703601001</v>
       </c>
-      <c r="Z172">
+      <c r="Z194">
         <v>70</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A173">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195">
         <v>1444</v>
       </c>
-      <c r="B173">
-        <v>100</v>
-      </c>
-      <c r="C173">
+      <c r="B195">
+        <v>100</v>
+      </c>
+      <c r="C195">
         <v>200.98</v>
       </c>
-      <c r="D173">
+      <c r="D195">
         <v>5.0704588736896401</v>
       </c>
-      <c r="J173">
+      <c r="E195">
+        <f t="shared" si="13"/>
+        <v>14440000</v>
+      </c>
+      <c r="J195">
         <v>1444</v>
       </c>
-      <c r="K173">
-        <v>100</v>
-      </c>
-      <c r="L173">
+      <c r="K195">
+        <v>100</v>
+      </c>
+      <c r="L195">
         <v>172.42</v>
       </c>
-      <c r="M173">
+      <c r="M195">
         <v>11.88180575</v>
       </c>
-      <c r="N173">
+      <c r="N195">
         <v>80</v>
       </c>
-      <c r="P173">
+      <c r="P195">
         <v>1444</v>
       </c>
-      <c r="Q173">
-        <v>100</v>
-      </c>
-      <c r="R173">
+      <c r="Q195">
+        <v>100</v>
+      </c>
+      <c r="R195">
         <v>147.99</v>
       </c>
-      <c r="S173">
+      <c r="S195">
         <v>11.5243825209559</v>
       </c>
-      <c r="T173">
+      <c r="T195">
         <v>90</v>
       </c>
-    </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A174">
+      <c r="V195">
+        <v>1444</v>
+      </c>
+      <c r="W195">
+        <v>100</v>
+      </c>
+      <c r="X195">
+        <v>231.21</v>
+      </c>
+      <c r="Y195">
+        <v>12.422677240000001</v>
+      </c>
+      <c r="Z195">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196">
         <v>1296</v>
       </c>
-      <c r="B174">
-        <v>100</v>
-      </c>
-      <c r="C174">
+      <c r="B196">
+        <v>100</v>
+      </c>
+      <c r="C196">
         <v>245.09</v>
       </c>
-      <c r="D174">
+      <c r="D196">
         <v>5.9534731704345898</v>
       </c>
-      <c r="J174">
+      <c r="E196">
+        <f t="shared" si="13"/>
+        <v>12960000</v>
+      </c>
+      <c r="J196">
         <v>1296</v>
       </c>
-      <c r="K174">
-        <v>100</v>
-      </c>
-      <c r="L174">
+      <c r="K196">
+        <v>100</v>
+      </c>
+      <c r="L196">
         <v>180.95</v>
       </c>
-      <c r="M174">
+      <c r="M196">
         <v>11.395316169999999</v>
       </c>
-      <c r="N174">
+      <c r="N196">
         <v>80</v>
       </c>
-      <c r="P174">
+      <c r="P196">
         <v>1296</v>
       </c>
-      <c r="Q174">
-        <v>100</v>
-      </c>
-      <c r="R174">
+      <c r="Q196">
+        <v>100</v>
+      </c>
+      <c r="R196">
         <v>152.24</v>
       </c>
-      <c r="S174">
+      <c r="S196">
         <v>10.851126780098999</v>
       </c>
-      <c r="T174">
+      <c r="T196">
         <v>90</v>
       </c>
-    </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A175">
+      <c r="V196">
+        <v>1296</v>
+      </c>
+      <c r="W196">
+        <v>100</v>
+      </c>
+      <c r="X196">
+        <v>234.04</v>
+      </c>
+      <c r="Y196">
+        <v>11.486722</v>
+      </c>
+      <c r="Z196">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197">
         <v>1156</v>
       </c>
-      <c r="B175">
+      <c r="B197">
         <v>99</v>
       </c>
-      <c r="C175">
+      <c r="C197">
         <v>298.24242424242402</v>
       </c>
-      <c r="D175">
+      <c r="D197">
         <v>7.0047793450936897</v>
       </c>
-      <c r="J175">
+      <c r="E197">
+        <f t="shared" si="13"/>
+        <v>11560000</v>
+      </c>
+      <c r="J197">
         <v>1156</v>
       </c>
-      <c r="K175">
-        <v>100</v>
-      </c>
-      <c r="L175">
+      <c r="K197">
+        <v>100</v>
+      </c>
+      <c r="L197">
         <v>193.53</v>
       </c>
-      <c r="M175">
+      <c r="M197">
         <v>11.43927322</v>
       </c>
-      <c r="N175">
+      <c r="N197">
         <v>80</v>
       </c>
-      <c r="P175">
+      <c r="P197">
         <v>1156</v>
       </c>
-      <c r="Q175">
-        <v>100</v>
-      </c>
-      <c r="R175">
+      <c r="Q197">
+        <v>100</v>
+      </c>
+      <c r="R197">
         <v>165.04</v>
       </c>
-      <c r="S175">
+      <c r="S197">
         <v>11.102441247138101</v>
       </c>
-      <c r="T175">
+      <c r="T197">
         <v>90</v>
       </c>
-    </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A176">
+      <c r="V197">
+        <v>1156</v>
+      </c>
+      <c r="W197">
+        <v>100</v>
+      </c>
+      <c r="X197">
+        <v>238.42</v>
+      </c>
+      <c r="Y197">
+        <v>15.325856999999999</v>
+      </c>
+      <c r="Z197">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198">
         <v>1024</v>
       </c>
-      <c r="B176">
+      <c r="B198">
         <v>92</v>
       </c>
-      <c r="C176">
+      <c r="C198">
         <v>374.66304347826002</v>
       </c>
-      <c r="D176">
+      <c r="D198">
         <v>8.5100261326499602</v>
       </c>
-      <c r="J176">
+      <c r="E198">
+        <f t="shared" si="13"/>
+        <v>10240000</v>
+      </c>
+      <c r="J198">
         <v>1024</v>
       </c>
-      <c r="K176">
-        <v>100</v>
-      </c>
-      <c r="L176">
+      <c r="K198">
+        <v>100</v>
+      </c>
+      <c r="L198">
         <v>218.61</v>
       </c>
-      <c r="M176">
+      <c r="M198">
         <v>11.337449489999999</v>
       </c>
-      <c r="N176">
+      <c r="N198">
         <v>80</v>
       </c>
-      <c r="P176">
+      <c r="P198">
         <v>1024</v>
       </c>
-      <c r="Q176">
-        <v>100</v>
-      </c>
-      <c r="R176">
+      <c r="Q198">
+        <v>100</v>
+      </c>
+      <c r="R198">
         <v>186</v>
       </c>
-      <c r="S176">
+      <c r="S198">
         <v>11.3306855560035</v>
       </c>
-      <c r="T176">
+      <c r="T198">
         <v>90</v>
       </c>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A177">
+      <c r="V198">
+        <v>1024</v>
+      </c>
+      <c r="W198">
+        <v>100</v>
+      </c>
+      <c r="X198">
+        <v>260.14</v>
+      </c>
+      <c r="Y198">
+        <v>16.19540194</v>
+      </c>
+      <c r="Z198">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199">
         <v>900</v>
       </c>
-      <c r="B177">
+      <c r="B199">
         <v>79</v>
       </c>
-      <c r="C177">
+      <c r="C199">
         <v>487.430379746835</v>
       </c>
-      <c r="D177">
+      <c r="D199">
         <v>10.6215598936343</v>
       </c>
-      <c r="J177">
+      <c r="E199">
+        <f t="shared" si="13"/>
+        <v>9000000</v>
+      </c>
+      <c r="J199">
         <v>900</v>
       </c>
-      <c r="K177">
-        <v>100</v>
-      </c>
-      <c r="L177">
+      <c r="K199">
+        <v>100</v>
+      </c>
+      <c r="L199">
         <v>243.28</v>
       </c>
-      <c r="M177">
+      <c r="M199">
         <v>12.826801117526999</v>
       </c>
-      <c r="N177">
+      <c r="N199">
         <v>80</v>
       </c>
-      <c r="P177">
+      <c r="P199">
         <v>900</v>
       </c>
-      <c r="Q177">
-        <v>100</v>
-      </c>
-      <c r="R177">
+      <c r="Q199">
+        <v>100</v>
+      </c>
+      <c r="R199">
         <v>217.69</v>
       </c>
-      <c r="S177">
+      <c r="S199">
         <v>11.8977039077435</v>
       </c>
-      <c r="T177">
+      <c r="T199">
         <v>90</v>
       </c>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A178">
+      <c r="V199">
+        <v>900</v>
+      </c>
+      <c r="W199">
+        <v>100</v>
+      </c>
+      <c r="X199">
+        <v>287.57</v>
+      </c>
+      <c r="Y199">
+        <v>13.299158820000001</v>
+      </c>
+      <c r="Z199">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200">
         <v>784</v>
       </c>
-      <c r="B178">
+      <c r="B200">
         <v>59</v>
       </c>
-      <c r="C178">
+      <c r="C200">
         <v>571.42372881355902</v>
       </c>
-      <c r="D178">
+      <c r="D200">
         <v>11.990047257405401</v>
       </c>
-      <c r="J178">
+      <c r="E200">
+        <f t="shared" si="13"/>
+        <v>7840000</v>
+      </c>
+      <c r="J200">
         <v>784</v>
       </c>
-      <c r="K178">
-        <v>100</v>
-      </c>
-      <c r="L178">
+      <c r="K200">
+        <v>100</v>
+      </c>
+      <c r="L200">
         <v>297.81</v>
       </c>
-      <c r="M178">
+      <c r="M200">
         <v>14.46245059</v>
       </c>
-      <c r="N178">
+      <c r="N200">
         <v>80</v>
       </c>
-      <c r="P178">
+      <c r="P200">
         <v>784</v>
       </c>
-      <c r="Q178">
-        <v>100</v>
-      </c>
-      <c r="R178">
+      <c r="Q200">
+        <v>100</v>
+      </c>
+      <c r="R200">
         <v>289.43</v>
       </c>
-      <c r="S178">
+      <c r="S200">
         <v>14.51328086</v>
       </c>
-      <c r="T178">
+      <c r="T200">
         <v>90</v>
       </c>
-    </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A179">
+      <c r="V200">
+        <v>784</v>
+      </c>
+      <c r="W200">
+        <v>100</v>
+      </c>
+      <c r="X200">
+        <v>351.81</v>
+      </c>
+      <c r="Y200">
+        <v>14.969593769999999</v>
+      </c>
+      <c r="Z200">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201">
         <v>676</v>
       </c>
-      <c r="B179">
+      <c r="B201">
         <v>25</v>
       </c>
-      <c r="C179">
+      <c r="C201">
         <v>661</v>
       </c>
-      <c r="D179">
+      <c r="D201">
         <v>13.371194358151399</v>
       </c>
-      <c r="J179">
+      <c r="E201">
+        <f t="shared" si="13"/>
+        <v>6760000</v>
+      </c>
+      <c r="J201">
         <v>676</v>
       </c>
-      <c r="K179">
+      <c r="K201">
         <v>96</v>
       </c>
-      <c r="L179">
+      <c r="L201">
         <v>396.33333329999999</v>
       </c>
-      <c r="M179">
+      <c r="M201">
         <v>17.423223780000001</v>
       </c>
-      <c r="N179">
+      <c r="N201">
         <v>80</v>
       </c>
-      <c r="P179">
+      <c r="P201">
         <v>676</v>
       </c>
-      <c r="Q179">
+      <c r="Q201">
         <v>98</v>
       </c>
-      <c r="R179">
+      <c r="R201">
         <v>395.26530609999998</v>
       </c>
-      <c r="S179">
+      <c r="S201">
         <v>17.68826962</v>
       </c>
-      <c r="T179">
+      <c r="T201">
         <v>90</v>
       </c>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A180">
+      <c r="V201">
+        <v>676</v>
+      </c>
+      <c r="W201">
+        <v>100</v>
+      </c>
+      <c r="X201">
+        <v>425.23</v>
+      </c>
+      <c r="Y201">
+        <v>16.63037564</v>
+      </c>
+      <c r="Z201">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="202" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202">
         <v>576</v>
       </c>
-      <c r="B180">
+      <c r="B202">
         <v>3</v>
       </c>
-      <c r="C180">
+      <c r="C202">
         <v>782.66666666666595</v>
       </c>
-      <c r="D180">
+      <c r="D202">
         <v>15.3565568436946</v>
       </c>
-      <c r="J180">
+      <c r="E202">
+        <f t="shared" si="13"/>
+        <v>5760000</v>
+      </c>
+      <c r="J202">
         <v>576</v>
       </c>
-      <c r="K180">
+      <c r="K202">
         <v>80</v>
       </c>
-      <c r="L180">
+      <c r="L202">
         <v>582.70000000000005</v>
       </c>
-      <c r="M180">
+      <c r="M202">
         <v>23.443699160000001</v>
       </c>
-      <c r="N180">
+      <c r="N202">
         <v>80</v>
       </c>
-      <c r="P180">
+      <c r="P202">
         <v>576</v>
       </c>
-      <c r="Q180">
+      <c r="Q202">
         <v>77</v>
       </c>
-      <c r="R180">
+      <c r="R202">
         <v>522.87012990000005</v>
       </c>
-      <c r="S180">
+      <c r="S202">
         <v>20.69212418</v>
       </c>
-      <c r="T180">
+      <c r="T202">
         <v>90</v>
       </c>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="J181">
+      <c r="V202">
+        <v>576</v>
+      </c>
+      <c r="W202">
+        <v>82</v>
+      </c>
+      <c r="X202">
+        <v>592.47560975609701</v>
+      </c>
+      <c r="Y202">
+        <v>17.087759745887901</v>
+      </c>
+      <c r="Z202">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="203" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203">
         <v>484</v>
       </c>
-      <c r="K181">
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>1000</v>
+      </c>
+      <c r="D203" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="13"/>
+        <v>4840000</v>
+      </c>
+      <c r="J203">
+        <v>484</v>
+      </c>
+      <c r="K203">
         <v>25</v>
       </c>
-      <c r="L181">
+      <c r="L203">
         <v>707.88</v>
       </c>
-      <c r="M181">
+      <c r="M203">
         <v>26.186354829999999</v>
       </c>
-      <c r="N181">
+      <c r="N203">
         <v>80</v>
       </c>
-      <c r="P181">
+      <c r="P203">
         <v>484</v>
       </c>
-      <c r="Q181">
+      <c r="Q203">
         <v>18</v>
       </c>
-      <c r="R181">
+      <c r="R203">
         <v>749.33333330000005</v>
       </c>
-      <c r="S181">
+      <c r="S203">
         <v>26.463721580000001</v>
       </c>
-      <c r="T181">
+      <c r="T203">
         <v>90</v>
+      </c>
+      <c r="V203">
+        <v>484</v>
+      </c>
+      <c r="W203">
+        <v>40</v>
+      </c>
+      <c r="X203">
+        <v>724.2</v>
+      </c>
+      <c r="Y203">
+        <v>19.047387030677001</v>
+      </c>
+      <c r="Z203">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="204" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204">
+        <v>400</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>1000</v>
+      </c>
+      <c r="D204" t="s">
+        <v>12</v>
+      </c>
+      <c r="J204">
+        <v>400</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>711</v>
+      </c>
+      <c r="M204">
+        <v>21.337306993082102</v>
+      </c>
+      <c r="N204">
+        <v>80</v>
+      </c>
+      <c r="P204">
+        <v>400</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>1000</v>
+      </c>
+      <c r="S204" t="s">
+        <v>12</v>
+      </c>
+      <c r="T204">
+        <v>90</v>
+      </c>
+      <c r="V204">
+        <v>400</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>1000</v>
+      </c>
+      <c r="Y204" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z204">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -5340,10 +6343,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B52C55F-5FA9-44C4-BD8D-FE095EDBEDBC}">
-  <dimension ref="A1:AC183"/>
+  <dimension ref="A1:AD186"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView tabSelected="1" topLeftCell="C149" workbookViewId="0">
+      <selection activeCell="Q164" sqref="Q164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8669,7 +9672,7 @@
         <v>8.2045628750000006</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>576</v>
       </c>
@@ -8699,7 +9702,7 @@
         <v>7.8266478629999998</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>484</v>
       </c>
@@ -8729,7 +9732,7 @@
         <v>9.0234523450000008</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>400</v>
       </c>
@@ -8747,7 +9750,7 @@
         <v>1638400</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>324</v>
       </c>
@@ -8765,7 +9768,7 @@
         <v>1327104</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>256</v>
       </c>
@@ -8783,7 +9786,7 @@
         <v>1048576</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>196</v>
       </c>
@@ -8801,7 +9804,7 @@
         <v>802816</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1" t="s">
         <v>4</v>
       </c>
@@ -8812,7 +9815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>8</v>
       </c>
@@ -8823,7 +9826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>784</v>
       </c>
@@ -8853,7 +9856,7 @@
         <v>8.6321268895775702</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>676</v>
       </c>
@@ -8883,7 +9886,7 @@
         <v>9.7276839250116591</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>576</v>
       </c>
@@ -8901,7 +9904,7 @@
         <v>2359296</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>484</v>
       </c>
@@ -8919,7 +9922,7 @@
         <v>1982464</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>400</v>
       </c>
@@ -8937,7 +9940,7 @@
         <v>1638400</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1" t="s">
         <v>4</v>
       </c>
@@ -8948,7 +9951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>10</v>
       </c>
@@ -8959,41 +9962,152 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144">
+        <v>1600</v>
+      </c>
+      <c r="B144">
+        <v>88</v>
+      </c>
+      <c r="C144">
+        <v>112.079545454545</v>
+      </c>
+      <c r="D144">
+        <v>1.1161690355246801</v>
+      </c>
+      <c r="L144">
+        <v>1600</v>
+      </c>
+      <c r="M144">
+        <v>100</v>
+      </c>
+      <c r="N144">
+        <v>345.51</v>
+      </c>
+      <c r="O144">
+        <v>3.0613954721391199</v>
+      </c>
+      <c r="P144">
+        <v>80</v>
+      </c>
       <c r="R144">
         <v>1600</v>
       </c>
       <c r="S144">
+        <v>100</v>
+      </c>
+      <c r="T144">
+        <v>236.83</v>
+      </c>
+      <c r="U144">
+        <v>2.3150832019999998</v>
+      </c>
+      <c r="V144">
+        <v>90</v>
+      </c>
+      <c r="Y144">
+        <v>1600</v>
+      </c>
+      <c r="Z144">
         <v>99</v>
       </c>
-      <c r="T144">
+      <c r="AA144">
         <v>333.62626262626202</v>
       </c>
-      <c r="U144">
+      <c r="AB144">
         <v>3.1283095057541002</v>
       </c>
-      <c r="V144">
+      <c r="AC144">
         <v>70</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145">
+        <v>1444</v>
+      </c>
+      <c r="B145">
+        <v>88</v>
+      </c>
+      <c r="C145">
+        <v>140.80681818181799</v>
+      </c>
+      <c r="D145">
+        <v>1.35531870517297</v>
+      </c>
+      <c r="L145">
+        <v>1444</v>
+      </c>
+      <c r="M145">
+        <v>100</v>
+      </c>
+      <c r="N145">
+        <v>331.14</v>
+      </c>
+      <c r="O145">
+        <v>2.8595550627214799</v>
+      </c>
+      <c r="P145">
+        <v>80</v>
+      </c>
       <c r="R145">
         <v>1444</v>
       </c>
       <c r="S145">
+        <v>100</v>
+      </c>
+      <c r="T145">
+        <v>225.78</v>
+      </c>
+      <c r="U145">
+        <v>2.1282872620000002</v>
+      </c>
+      <c r="V145">
+        <v>90</v>
+      </c>
+      <c r="Y145">
+        <v>1444</v>
+      </c>
+      <c r="Z145">
         <v>99</v>
       </c>
-      <c r="T145">
+      <c r="AA145">
         <v>337.33333333333297</v>
       </c>
-      <c r="U145">
+      <c r="AB145">
         <v>3.0844755331171898</v>
       </c>
-      <c r="V145">
+      <c r="AC145">
         <v>70</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146">
+        <v>1296</v>
+      </c>
+      <c r="B146">
+        <v>85</v>
+      </c>
+      <c r="C146">
+        <v>128.81176470588201</v>
+      </c>
+      <c r="D146">
+        <v>1.1918287132099701</v>
+      </c>
+      <c r="L146">
+        <v>1296</v>
+      </c>
+      <c r="M146">
+        <v>99</v>
+      </c>
+      <c r="N146">
+        <v>340.92929292929199</v>
+      </c>
+      <c r="O146">
+        <v>2.8655494353639801</v>
+      </c>
+      <c r="P146">
+        <v>80</v>
+      </c>
       <c r="R146">
         <v>1296</v>
       </c>
@@ -9001,16 +10115,58 @@
         <v>100</v>
       </c>
       <c r="T146">
+        <v>246.34</v>
+      </c>
+      <c r="U146">
+        <v>2.2447914039999999</v>
+      </c>
+      <c r="V146">
+        <v>90</v>
+      </c>
+      <c r="Y146">
+        <v>1296</v>
+      </c>
+      <c r="Z146">
+        <v>100</v>
+      </c>
+      <c r="AA146">
         <v>286.94</v>
       </c>
-      <c r="U146">
+      <c r="AB146">
         <v>2.5624484566843599</v>
       </c>
-      <c r="V146">
+      <c r="AC146">
         <v>70</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147">
+        <v>1156</v>
+      </c>
+      <c r="B147">
+        <v>90</v>
+      </c>
+      <c r="C147">
+        <v>128.75555555555499</v>
+      </c>
+      <c r="D147">
+        <v>1.11791363680838</v>
+      </c>
+      <c r="L147">
+        <v>1156</v>
+      </c>
+      <c r="M147">
+        <v>100</v>
+      </c>
+      <c r="N147">
+        <v>343.3</v>
+      </c>
+      <c r="O147">
+        <v>2.8079374094121099</v>
+      </c>
+      <c r="P147">
+        <v>80</v>
+      </c>
       <c r="R147">
         <v>1156</v>
       </c>
@@ -9018,16 +10174,58 @@
         <v>100</v>
       </c>
       <c r="T147">
+        <v>238.94</v>
+      </c>
+      <c r="U147">
+        <v>2.1024375750000002</v>
+      </c>
+      <c r="V147">
+        <v>90</v>
+      </c>
+      <c r="Y147">
+        <v>1156</v>
+      </c>
+      <c r="Z147">
+        <v>100</v>
+      </c>
+      <c r="AA147">
         <v>336.94</v>
       </c>
-      <c r="U147">
+      <c r="AB147">
         <v>2.9297529233084001</v>
       </c>
-      <c r="V147">
+      <c r="AC147">
         <v>70</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148">
+        <v>1024</v>
+      </c>
+      <c r="B148">
+        <v>88</v>
+      </c>
+      <c r="C148">
+        <v>126.329545454545</v>
+      </c>
+      <c r="D148">
+        <v>1.0985346002668199</v>
+      </c>
+      <c r="L148">
+        <v>1024</v>
+      </c>
+      <c r="M148">
+        <v>100</v>
+      </c>
+      <c r="N148">
+        <v>340.06</v>
+      </c>
+      <c r="O148">
+        <v>2.6871216911170599</v>
+      </c>
+      <c r="P148">
+        <v>80</v>
+      </c>
       <c r="R148">
         <v>1024</v>
       </c>
@@ -9035,16 +10233,58 @@
         <v>100</v>
       </c>
       <c r="T148">
+        <v>240.26</v>
+      </c>
+      <c r="U148">
+        <v>2.0222136480000001</v>
+      </c>
+      <c r="V148">
+        <v>90</v>
+      </c>
+      <c r="Y148">
+        <v>1024</v>
+      </c>
+      <c r="Z148">
+        <v>100</v>
+      </c>
+      <c r="AA148">
         <v>286.37</v>
       </c>
-      <c r="U148">
+      <c r="AB148">
         <v>2.4555110352754101</v>
       </c>
-      <c r="V148">
+      <c r="AC148">
         <v>70</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149">
+        <v>900</v>
+      </c>
+      <c r="B149">
+        <v>88</v>
+      </c>
+      <c r="C149">
+        <v>146.40909090909</v>
+      </c>
+      <c r="D149">
+        <v>1.2202451556090199</v>
+      </c>
+      <c r="L149">
+        <v>900</v>
+      </c>
+      <c r="M149">
+        <v>98</v>
+      </c>
+      <c r="N149">
+        <v>374.89795918367298</v>
+      </c>
+      <c r="O149">
+        <v>2.8711115312881299</v>
+      </c>
+      <c r="P149">
+        <v>80</v>
+      </c>
       <c r="R149">
         <v>900</v>
       </c>
@@ -9052,75 +10292,453 @@
         <v>100</v>
       </c>
       <c r="T149">
+        <v>247.32</v>
+      </c>
+      <c r="U149">
+        <v>2.018237321</v>
+      </c>
+      <c r="V149">
+        <v>90</v>
+      </c>
+      <c r="Y149">
+        <v>900</v>
+      </c>
+      <c r="Z149">
+        <v>100</v>
+      </c>
+      <c r="AA149">
         <v>309.95</v>
       </c>
-      <c r="U149">
+      <c r="AB149">
         <v>2.5592564641335001</v>
       </c>
-      <c r="V149">
+      <c r="AC149">
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150">
+        <v>784</v>
+      </c>
+      <c r="B150">
+        <v>82</v>
+      </c>
+      <c r="C150">
+        <v>149.19512195121899</v>
+      </c>
+      <c r="D150">
+        <v>1.1712091583105499</v>
+      </c>
+      <c r="L150">
+        <v>784</v>
+      </c>
+      <c r="M150">
+        <v>99</v>
+      </c>
+      <c r="N150">
+        <v>266.48484848484799</v>
+      </c>
+      <c r="O150">
+        <v>1.9681825880125801</v>
+      </c>
+      <c r="P150">
+        <v>80</v>
+      </c>
       <c r="R150">
         <v>784</v>
       </c>
       <c r="S150">
+        <v>100</v>
+      </c>
+      <c r="T150">
+        <v>257.62</v>
+      </c>
+      <c r="U150">
+        <v>2.0193150690000001</v>
+      </c>
+      <c r="V150">
+        <v>90</v>
+      </c>
+      <c r="Y150">
+        <v>784</v>
+      </c>
+      <c r="Z150">
         <v>99</v>
       </c>
-      <c r="T150">
+      <c r="AA150">
         <v>323.86868686868598</v>
       </c>
-      <c r="U150">
+      <c r="AB150">
         <v>2.5964971733905098</v>
       </c>
-      <c r="V150">
+      <c r="AC150">
         <v>70</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151">
+        <v>676</v>
+      </c>
+      <c r="B151">
+        <v>82</v>
+      </c>
+      <c r="C151">
+        <v>160.87804878048701</v>
+      </c>
+      <c r="D151">
+        <v>1.17266144555221</v>
+      </c>
+      <c r="L151">
+        <v>676</v>
+      </c>
+      <c r="M151">
+        <v>98</v>
+      </c>
+      <c r="N151">
+        <v>346.68367346938697</v>
+      </c>
+      <c r="O151">
+        <v>2.4839372674183799</v>
+      </c>
+      <c r="P151">
+        <v>80</v>
+      </c>
       <c r="R151">
         <v>676</v>
       </c>
       <c r="S151">
+        <v>99</v>
+      </c>
+      <c r="T151">
+        <v>272.05050510000001</v>
+      </c>
+      <c r="U151">
+        <v>2.0565615070000001</v>
+      </c>
+      <c r="V151">
+        <v>90</v>
+      </c>
+      <c r="Y151">
+        <v>676</v>
+      </c>
+      <c r="Z151">
         <v>98</v>
       </c>
-      <c r="T151">
+      <c r="AA151">
         <v>325.591836734693</v>
       </c>
-      <c r="U151">
+      <c r="AB151">
         <v>2.5394979604883399</v>
       </c>
-      <c r="V151">
+      <c r="AC151">
         <v>70</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152">
+        <v>576</v>
+      </c>
+      <c r="B152">
+        <v>77</v>
+      </c>
+      <c r="C152">
+        <v>199.71428571428501</v>
+      </c>
+      <c r="D152">
+        <v>1.3707510751260801</v>
+      </c>
+      <c r="L152">
+        <v>576</v>
+      </c>
+      <c r="M152">
+        <v>99</v>
+      </c>
+      <c r="N152">
+        <v>361.15151515151501</v>
+      </c>
+      <c r="O152">
+        <v>2.4915304617518799</v>
+      </c>
+      <c r="P152">
+        <v>80</v>
+      </c>
       <c r="R152">
         <v>576</v>
       </c>
-    </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="S152">
+        <v>95</v>
+      </c>
+      <c r="T152">
+        <v>303.23157889999999</v>
+      </c>
+      <c r="U152">
+        <v>2.207293344</v>
+      </c>
+      <c r="V152">
+        <v>90</v>
+      </c>
+      <c r="Y152">
+        <v>576</v>
+      </c>
+      <c r="Z152">
+        <v>576</v>
+      </c>
+      <c r="AA152">
+        <v>99</v>
+      </c>
+      <c r="AB152">
+        <v>362.89898989898899</v>
+      </c>
+      <c r="AC152">
+        <v>2.1794750425644702</v>
+      </c>
+      <c r="AD152">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="153" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153">
+        <v>484</v>
+      </c>
+      <c r="B153">
+        <v>68</v>
+      </c>
+      <c r="C153">
+        <v>189.29411764705799</v>
+      </c>
+      <c r="D153">
+        <v>1.23694639608113</v>
+      </c>
+      <c r="L153">
+        <v>484</v>
+      </c>
+      <c r="M153">
+        <v>97</v>
+      </c>
+      <c r="N153">
+        <v>368.35051546391702</v>
+      </c>
+      <c r="O153">
+        <v>2.4778717112386599</v>
+      </c>
+      <c r="P153">
+        <v>80</v>
+      </c>
       <c r="R153">
         <v>484</v>
       </c>
-    </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="S153">
+        <v>96</v>
+      </c>
+      <c r="T153">
+        <v>339.08333329999999</v>
+      </c>
+      <c r="U153">
+        <v>2.3874214509999998</v>
+      </c>
+      <c r="V153">
+        <v>90</v>
+      </c>
+      <c r="Y153">
+        <v>484</v>
+      </c>
+      <c r="Z153">
+        <v>484</v>
+      </c>
+      <c r="AA153">
+        <v>92</v>
+      </c>
+      <c r="AB153">
+        <v>413.89130434782601</v>
+      </c>
+      <c r="AC153">
+        <v>2.41285015264546</v>
+      </c>
+      <c r="AD153">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="154" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154">
+        <v>400</v>
+      </c>
+      <c r="B154">
+        <v>70</v>
+      </c>
+      <c r="C154">
+        <v>195.85714285714201</v>
+      </c>
+      <c r="D154">
+        <v>1.24340594434844</v>
+      </c>
+      <c r="L154">
+        <v>400</v>
+      </c>
+      <c r="M154">
+        <v>95</v>
+      </c>
+      <c r="N154">
+        <v>415.90526315789401</v>
+      </c>
+      <c r="O154">
+        <v>2.7151592929332802</v>
+      </c>
+      <c r="P154">
+        <v>80</v>
+      </c>
       <c r="R154">
         <v>400</v>
       </c>
-    </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="S154">
+        <v>91</v>
+      </c>
+      <c r="T154">
+        <v>278.87912089999998</v>
+      </c>
+      <c r="U154">
+        <v>1.8848657959999999</v>
+      </c>
+      <c r="V154">
+        <v>90</v>
+      </c>
+      <c r="Y154">
+        <v>400</v>
+      </c>
+      <c r="Z154">
+        <v>400</v>
+      </c>
+      <c r="AA154">
+        <v>92</v>
+      </c>
+      <c r="AB154">
+        <v>342.78260869565202</v>
+      </c>
+      <c r="AC154">
+        <v>1.9383401599530401</v>
+      </c>
+      <c r="AD154">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="155" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155">
+        <v>324</v>
+      </c>
+      <c r="B155">
+        <v>59</v>
+      </c>
+      <c r="C155">
+        <v>186.83050847457599</v>
+      </c>
+      <c r="D155">
+        <v>1.13869456613783</v>
+      </c>
+      <c r="L155">
+        <v>324</v>
+      </c>
+      <c r="M155">
+        <v>85</v>
+      </c>
+      <c r="N155">
+        <v>363.164705882352</v>
+      </c>
+      <c r="O155">
+        <v>2.08428338414934</v>
+      </c>
+      <c r="P155">
+        <v>80</v>
+      </c>
       <c r="R155">
         <v>324</v>
       </c>
-    </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="S155">
+        <v>84</v>
+      </c>
+      <c r="T155">
+        <v>418.08333333333297</v>
+      </c>
+      <c r="U155">
+        <v>2.4422429338391298</v>
+      </c>
+      <c r="V155">
+        <v>90</v>
+      </c>
+      <c r="Y155">
+        <v>324</v>
+      </c>
+      <c r="Z155">
+        <v>89</v>
+      </c>
+      <c r="AA155">
+        <v>345.62921348314597</v>
+      </c>
+      <c r="AB155">
+        <v>2.0666381830213498</v>
+      </c>
+      <c r="AC155">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="156" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156">
+        <v>256</v>
+      </c>
+      <c r="B156">
+        <v>44</v>
+      </c>
+      <c r="C156">
+        <v>201.54545454545399</v>
+      </c>
+      <c r="D156">
+        <v>1.1521790609747899</v>
+      </c>
+      <c r="L156">
+        <v>256</v>
+      </c>
+      <c r="M156">
+        <v>71</v>
+      </c>
+      <c r="N156">
+        <v>402.74647887323903</v>
+      </c>
+      <c r="O156">
+        <v>2.22319682145779</v>
+      </c>
+      <c r="P156">
+        <v>80</v>
+      </c>
       <c r="R156">
         <v>256</v>
       </c>
-    </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="S156">
+        <v>63</v>
+      </c>
+      <c r="T156">
+        <v>410.52380952380901</v>
+      </c>
+      <c r="U156">
+        <v>2.3215298536750999</v>
+      </c>
+      <c r="V156">
+        <v>90</v>
+      </c>
+      <c r="Y156">
+        <v>256</v>
+      </c>
+      <c r="Z156">
+        <v>72</v>
+      </c>
+      <c r="AA156">
+        <v>497.86111111111097</v>
+      </c>
+      <c r="AB156">
+        <v>2.9377189476088201</v>
+      </c>
+      <c r="AC156">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="157" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1" t="s">
         <v>4</v>
       </c>
@@ -9131,7 +10749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>10</v>
       </c>
@@ -9142,7 +10760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>1600</v>
       </c>
@@ -9156,7 +10774,7 @@
         <v>1.5157746847294</v>
       </c>
       <c r="E159">
-        <f>A159*($A$158^$B$158)</f>
+        <f t="shared" ref="E159:E168" si="12">A159*($A$158^$B$158)</f>
         <v>16000000</v>
       </c>
       <c r="L159">
@@ -9205,7 +10823,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>1444</v>
       </c>
@@ -9219,7 +10837,7 @@
         <v>1.6010025886533501</v>
       </c>
       <c r="E160">
-        <f>A160*($A$158^$B$158)</f>
+        <f t="shared" si="12"/>
         <v>14440000</v>
       </c>
       <c r="L160">
@@ -9282,7 +10900,7 @@
         <v>1.73832126704045</v>
       </c>
       <c r="E161">
-        <f>A161*($A$158^$B$158)</f>
+        <f t="shared" si="12"/>
         <v>12960000</v>
       </c>
       <c r="L161">
@@ -9345,7 +10963,7 @@
         <v>1.73207219407094</v>
       </c>
       <c r="E162">
-        <f>A162*($A$158^$B$158)</f>
+        <f t="shared" si="12"/>
         <v>11560000</v>
       </c>
       <c r="L162">
@@ -9408,7 +11026,7 @@
         <v>1.82153113477838</v>
       </c>
       <c r="E163">
-        <f>A163*($A$158^$B$158)</f>
+        <f t="shared" si="12"/>
         <v>10240000</v>
       </c>
       <c r="L163">
@@ -9471,7 +11089,7 @@
         <v>2.03622531720672</v>
       </c>
       <c r="E164">
-        <f>A164*($A$158^$B$158)</f>
+        <f t="shared" si="12"/>
         <v>9000000</v>
       </c>
       <c r="L164">
@@ -9534,7 +11152,7 @@
         <v>2.18649773295793</v>
       </c>
       <c r="E165">
-        <f>A165*($A$158^$B$158)</f>
+        <f t="shared" si="12"/>
         <v>7840000</v>
       </c>
       <c r="L165">
@@ -9597,7 +11215,7 @@
         <v>2.6988551285650502</v>
       </c>
       <c r="E166">
-        <f>A166*($A$158^$B$158)</f>
+        <f t="shared" si="12"/>
         <v>6760000</v>
       </c>
       <c r="L166">
@@ -9660,7 +11278,7 @@
         <v>2.87884537477616</v>
       </c>
       <c r="E167">
-        <f>A167*($A$158^$B$158)</f>
+        <f t="shared" si="12"/>
         <v>5760000</v>
       </c>
       <c r="L167">
@@ -9723,7 +11341,7 @@
         <v>3.8647681959473301</v>
       </c>
       <c r="E168">
-        <f>A168*($A$158^$B$158)</f>
+        <f t="shared" si="12"/>
         <v>4840000</v>
       </c>
       <c r="L168">
@@ -9786,7 +11404,7 @@
         <v>3.499360491</v>
       </c>
       <c r="E169">
-        <f t="shared" ref="E169:E171" si="12">A169*($A$158^$B$158)</f>
+        <f t="shared" ref="E169:E171" si="13">A169*($A$158^$B$158)</f>
         <v>4000000</v>
       </c>
       <c r="L169">
@@ -9849,7 +11467,7 @@
         <v>4.3960832449999998</v>
       </c>
       <c r="E170">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3240000</v>
       </c>
       <c r="L170">
@@ -9912,7 +11530,7 @@
         <v>3.6890062260000001</v>
       </c>
       <c r="E171">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2560000</v>
       </c>
       <c r="L171">
@@ -9997,7 +11615,7 @@
         <v>2.0779226891993301</v>
       </c>
       <c r="E174">
-        <f>A174*($A$173^$B$173)</f>
+        <f t="shared" ref="E174:E184" si="14">A174*($A$173^$B$173)</f>
         <v>16000000</v>
       </c>
       <c r="L174">
@@ -10060,7 +11678,7 @@
         <v>2.1098519318626399</v>
       </c>
       <c r="E175">
-        <f>A175*($A$173^$B$173)</f>
+        <f t="shared" si="14"/>
         <v>14440000</v>
       </c>
       <c r="L175">
@@ -10123,7 +11741,7 @@
         <v>2.2440101369400498</v>
       </c>
       <c r="E176">
-        <f>A176*($A$173^$B$173)</f>
+        <f t="shared" si="14"/>
         <v>12960000</v>
       </c>
       <c r="L176">
@@ -10186,7 +11804,7 @@
         <v>2.5244456683215599</v>
       </c>
       <c r="E177">
-        <f>A177*($A$173^$B$173)</f>
+        <f t="shared" si="14"/>
         <v>11560000</v>
       </c>
       <c r="L177">
@@ -10249,7 +11867,7 @@
         <v>2.9752180731756299</v>
       </c>
       <c r="E178">
-        <f>A178*($A$173^$B$173)</f>
+        <f t="shared" si="14"/>
         <v>10240000</v>
       </c>
       <c r="L178">
@@ -10312,7 +11930,7 @@
         <v>3.3549453846442399</v>
       </c>
       <c r="E179">
-        <f>A179*($A$173^$B$173)</f>
+        <f t="shared" si="14"/>
         <v>9000000</v>
       </c>
       <c r="L179">
@@ -10375,7 +11993,7 @@
         <v>4.2784269335047496</v>
       </c>
       <c r="E180">
-        <f>A180*($A$173^$B$173)</f>
+        <f t="shared" si="14"/>
         <v>7840000</v>
       </c>
       <c r="L180">
@@ -10438,7 +12056,7 @@
         <v>5.35689278875474</v>
       </c>
       <c r="E181">
-        <f>A181*($A$173^$B$173)</f>
+        <f t="shared" si="14"/>
         <v>6760000</v>
       </c>
       <c r="L181">
@@ -10501,7 +12119,7 @@
         <v>6.6985558530000002</v>
       </c>
       <c r="E182">
-        <f>A182*($A$173^$B$173)</f>
+        <f t="shared" si="14"/>
         <v>5760000</v>
       </c>
       <c r="L182">
@@ -10564,7 +12182,7 @@
         <v>7.3507392449999998</v>
       </c>
       <c r="E183">
-        <f>A183*($A$173^$B$173)</f>
+        <f t="shared" si="14"/>
         <v>4840000</v>
       </c>
       <c r="L183">
@@ -10610,6 +12228,181 @@
         <v>7.8989192312154399</v>
       </c>
       <c r="AC183">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184">
+        <v>400</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>872</v>
+      </c>
+      <c r="D184">
+        <v>9.6442321660000001</v>
+      </c>
+      <c r="E184">
+        <f>A184*($A$173^$B$173)</f>
+        <v>4000000</v>
+      </c>
+      <c r="L184">
+        <v>400</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>995</v>
+      </c>
+      <c r="O184">
+        <v>11.4362141538877</v>
+      </c>
+      <c r="P184">
+        <v>80</v>
+      </c>
+      <c r="R184">
+        <v>400</v>
+      </c>
+      <c r="S184">
+        <v>0</v>
+      </c>
+      <c r="T184">
+        <v>1000</v>
+      </c>
+      <c r="U184" t="s">
+        <v>12</v>
+      </c>
+      <c r="V184">
+        <v>90</v>
+      </c>
+      <c r="Y184">
+        <v>400</v>
+      </c>
+      <c r="Z184">
+        <v>2</v>
+      </c>
+      <c r="AA184">
+        <v>745.5</v>
+      </c>
+      <c r="AB184">
+        <v>7.6064706795150396</v>
+      </c>
+      <c r="AC184">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185">
+        <v>324</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>1000</v>
+      </c>
+      <c r="D185" t="s">
+        <v>12</v>
+      </c>
+      <c r="L185">
+        <v>324</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>1000</v>
+      </c>
+      <c r="O185" t="s">
+        <v>12</v>
+      </c>
+      <c r="P185">
+        <v>80</v>
+      </c>
+      <c r="R185">
+        <v>324</v>
+      </c>
+      <c r="S185">
+        <v>0</v>
+      </c>
+      <c r="T185">
+        <v>1000</v>
+      </c>
+      <c r="U185" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y185">
+        <v>324</v>
+      </c>
+      <c r="Z185">
+        <v>0</v>
+      </c>
+      <c r="AA185">
+        <v>1000</v>
+      </c>
+      <c r="AB185" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC185">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186">
+        <v>256</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>1000</v>
+      </c>
+      <c r="D186" t="s">
+        <v>12</v>
+      </c>
+      <c r="L186">
+        <v>256</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>1000</v>
+      </c>
+      <c r="O186" t="s">
+        <v>12</v>
+      </c>
+      <c r="P186">
+        <v>80</v>
+      </c>
+      <c r="R186">
+        <v>256</v>
+      </c>
+      <c r="S186">
+        <v>0</v>
+      </c>
+      <c r="T186">
+        <v>1000</v>
+      </c>
+      <c r="U186" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y186">
+        <v>256</v>
+      </c>
+      <c r="Z186">
+        <v>0</v>
+      </c>
+      <c r="AA186">
+        <v>1000</v>
+      </c>
+      <c r="AB186" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC186">
         <v>70</v>
       </c>
     </row>

--- a/ResultsHPCC.xlsx
+++ b/ResultsHPCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674E1A96-A082-483C-80DD-3A5FC65CADAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B3A21C-44B5-4315-B59C-1E72601429C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{6AF1A893-C99E-4402-8250-ECFA3279128F}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="CompareMethodsGaussian" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="17">
   <si>
     <t>ALL EXPERIMENTS DONE on MSU HPCC WITH THE FOLLOWING SETTINGS</t>
   </si>
@@ -501,10 +500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75700BE6-961B-4EED-9E57-E1BAE03CF329}">
-  <dimension ref="A1:AB204"/>
+  <dimension ref="A1:AB206"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="P194" sqref="P194:S204"/>
+    <sheetView topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="A209" sqref="A209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4428,6 +4427,124 @@
         <v>70</v>
       </c>
     </row>
+    <row r="161" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161">
+        <v>324</v>
+      </c>
+      <c r="B161">
+        <v>27</v>
+      </c>
+      <c r="C161">
+        <v>384.77777777777698</v>
+      </c>
+      <c r="D161">
+        <v>3.2150996232198299</v>
+      </c>
+      <c r="J161">
+        <v>324</v>
+      </c>
+      <c r="K161">
+        <v>50</v>
+      </c>
+      <c r="L161">
+        <v>405.04</v>
+      </c>
+      <c r="M161">
+        <v>5.5699676636792699</v>
+      </c>
+      <c r="N161">
+        <v>80</v>
+      </c>
+      <c r="P161">
+        <v>324</v>
+      </c>
+      <c r="Q161">
+        <v>74</v>
+      </c>
+      <c r="R161">
+        <v>252.459459459459</v>
+      </c>
+      <c r="S161">
+        <v>5.9783517964832402</v>
+      </c>
+      <c r="T161">
+        <v>90</v>
+      </c>
+      <c r="V161">
+        <v>324</v>
+      </c>
+      <c r="W161">
+        <v>8</v>
+      </c>
+      <c r="X161">
+        <v>621.625</v>
+      </c>
+      <c r="Y161">
+        <v>7.3138555281620903</v>
+      </c>
+      <c r="Z161">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="162" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162">
+        <v>256</v>
+      </c>
+      <c r="B162">
+        <v>9</v>
+      </c>
+      <c r="C162">
+        <v>551.55555555555497</v>
+      </c>
+      <c r="D162">
+        <v>4.3393987340645603</v>
+      </c>
+      <c r="J162">
+        <v>256</v>
+      </c>
+      <c r="K162">
+        <v>17</v>
+      </c>
+      <c r="L162">
+        <v>607</v>
+      </c>
+      <c r="M162">
+        <v>7.6130601690726003</v>
+      </c>
+      <c r="N162">
+        <v>80</v>
+      </c>
+      <c r="P162">
+        <v>256</v>
+      </c>
+      <c r="Q162">
+        <v>58</v>
+      </c>
+      <c r="R162">
+        <v>419.258620689655</v>
+      </c>
+      <c r="S162">
+        <v>5.7754235726797196</v>
+      </c>
+      <c r="T162">
+        <v>90</v>
+      </c>
+      <c r="V162">
+        <v>256</v>
+      </c>
+      <c r="W162">
+        <v>40</v>
+      </c>
+      <c r="X162">
+        <v>492.47500000000002</v>
+      </c>
+      <c r="Y162">
+        <v>5.1972870200115704</v>
+      </c>
+      <c r="Z162">
+        <v>70</v>
+      </c>
+    </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1" t="s">
         <v>4</v>
@@ -5384,6 +5501,124 @@
         <v>70</v>
       </c>
     </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183">
+        <v>324</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>671</v>
+      </c>
+      <c r="D183">
+        <v>9.7702582560013909</v>
+      </c>
+      <c r="J183">
+        <v>324</v>
+      </c>
+      <c r="K183">
+        <v>57</v>
+      </c>
+      <c r="L183">
+        <v>558.91228070175396</v>
+      </c>
+      <c r="M183">
+        <v>10.6322219547113</v>
+      </c>
+      <c r="N183">
+        <v>80</v>
+      </c>
+      <c r="P183">
+        <v>324</v>
+      </c>
+      <c r="Q183">
+        <v>60</v>
+      </c>
+      <c r="R183">
+        <v>486</v>
+      </c>
+      <c r="S183">
+        <v>13.8278199739909</v>
+      </c>
+      <c r="T183">
+        <v>90</v>
+      </c>
+      <c r="V183">
+        <v>324</v>
+      </c>
+      <c r="W183">
+        <v>59</v>
+      </c>
+      <c r="X183">
+        <v>591.10169491525403</v>
+      </c>
+      <c r="Y183">
+        <v>9.4632484594446797</v>
+      </c>
+      <c r="Z183">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184">
+        <v>256</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>1000</v>
+      </c>
+      <c r="D184" t="s">
+        <v>12</v>
+      </c>
+      <c r="J184">
+        <v>256</v>
+      </c>
+      <c r="K184">
+        <v>24</v>
+      </c>
+      <c r="L184">
+        <v>691.45833333333303</v>
+      </c>
+      <c r="M184">
+        <v>12.273786324881501</v>
+      </c>
+      <c r="N184">
+        <v>80</v>
+      </c>
+      <c r="P184">
+        <v>256</v>
+      </c>
+      <c r="Q184">
+        <v>19</v>
+      </c>
+      <c r="R184">
+        <v>564.57894736842104</v>
+      </c>
+      <c r="S184">
+        <v>9.8205898467966009</v>
+      </c>
+      <c r="T184">
+        <v>90</v>
+      </c>
+      <c r="V184">
+        <v>256</v>
+      </c>
+      <c r="W184">
+        <v>29</v>
+      </c>
+      <c r="X184">
+        <v>703.65517241379303</v>
+      </c>
+      <c r="Y184">
+        <v>11.7000347881915</v>
+      </c>
+      <c r="Z184">
+        <v>70</v>
+      </c>
+    </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1" t="s">
         <v>4</v>
@@ -6332,6 +6567,124 @@
         <v>12</v>
       </c>
       <c r="Z204">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205">
+        <v>324</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>1000</v>
+      </c>
+      <c r="D205" t="s">
+        <v>12</v>
+      </c>
+      <c r="J205">
+        <v>324</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>1000</v>
+      </c>
+      <c r="M205" t="s">
+        <v>12</v>
+      </c>
+      <c r="N205">
+        <v>80</v>
+      </c>
+      <c r="P205">
+        <v>324</v>
+      </c>
+      <c r="Q205">
+        <v>0</v>
+      </c>
+      <c r="R205">
+        <v>1000</v>
+      </c>
+      <c r="S205" t="s">
+        <v>12</v>
+      </c>
+      <c r="T205">
+        <v>90</v>
+      </c>
+      <c r="V205">
+        <v>324</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>1000</v>
+      </c>
+      <c r="Y205" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z205">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="206" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206">
+        <v>256</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>1000</v>
+      </c>
+      <c r="D206" t="s">
+        <v>12</v>
+      </c>
+      <c r="J206">
+        <v>256</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>1000</v>
+      </c>
+      <c r="M206" t="s">
+        <v>12</v>
+      </c>
+      <c r="N206">
+        <v>80</v>
+      </c>
+      <c r="P206">
+        <v>256</v>
+      </c>
+      <c r="Q206">
+        <v>0</v>
+      </c>
+      <c r="R206">
+        <v>1000</v>
+      </c>
+      <c r="S206" t="s">
+        <v>12</v>
+      </c>
+      <c r="T206">
+        <v>90</v>
+      </c>
+      <c r="V206">
+        <v>256</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>1000</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z206">
         <v>70</v>
       </c>
     </row>
@@ -6345,8 +6698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B52C55F-5FA9-44C4-BD8D-FE095EDBEDBC}">
   <dimension ref="A1:AD186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C149" workbookViewId="0">
-      <selection activeCell="Q164" sqref="Q164"/>
+    <sheetView tabSelected="1" topLeftCell="G181" workbookViewId="0">
+      <selection activeCell="A185" sqref="A185:AG186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11615,7 +11968,7 @@
         <v>2.0779226891993301</v>
       </c>
       <c r="E174">
-        <f t="shared" ref="E174:E184" si="14">A174*($A$173^$B$173)</f>
+        <f t="shared" ref="E174:E183" si="14">A174*($A$173^$B$173)</f>
         <v>16000000</v>
       </c>
       <c r="L174">

--- a/ResultsHPCC.xlsx
+++ b/ResultsHPCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B3A21C-44B5-4315-B59C-1E72601429C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FE1E44-170D-4F04-8967-88AFF6FF0AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{6AF1A893-C99E-4402-8250-ECFA3279128F}"/>
   </bookViews>
@@ -6696,10 +6696,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B52C55F-5FA9-44C4-BD8D-FE095EDBEDBC}">
-  <dimension ref="A1:AD186"/>
+  <dimension ref="A1:AC186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G181" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185:AG186"/>
+    <sheetView tabSelected="1" topLeftCell="G141" workbookViewId="0">
+      <selection activeCell="Y144" sqref="Y144:AB156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10374,7 +10374,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>1444</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>1296</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>1156</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>1024</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>900</v>
       </c>
@@ -10669,7 +10669,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>784</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>676</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>576</v>
       </c>
@@ -10834,22 +10834,19 @@
         <v>576</v>
       </c>
       <c r="Z152">
-        <v>576</v>
+        <v>99</v>
       </c>
       <c r="AA152">
-        <v>99</v>
+        <v>362.89898989898899</v>
       </c>
       <c r="AB152">
-        <v>362.89898989898899</v>
+        <v>2.1794750425644702</v>
       </c>
       <c r="AC152">
-        <v>2.1794750425644702</v>
-      </c>
-      <c r="AD152">
         <v>70</v>
       </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>484</v>
       </c>
@@ -10896,22 +10893,19 @@
         <v>484</v>
       </c>
       <c r="Z153">
-        <v>484</v>
+        <v>92</v>
       </c>
       <c r="AA153">
-        <v>92</v>
+        <v>413.89130434782601</v>
       </c>
       <c r="AB153">
-        <v>413.89130434782601</v>
+        <v>2.41285015264546</v>
       </c>
       <c r="AC153">
-        <v>2.41285015264546</v>
-      </c>
-      <c r="AD153">
         <v>70</v>
       </c>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>400</v>
       </c>
@@ -10958,22 +10952,19 @@
         <v>400</v>
       </c>
       <c r="Z154">
-        <v>400</v>
+        <v>92</v>
       </c>
       <c r="AA154">
-        <v>92</v>
+        <v>342.78260869565202</v>
       </c>
       <c r="AB154">
-        <v>342.78260869565202</v>
+        <v>1.9383401599530401</v>
       </c>
       <c r="AC154">
-        <v>1.9383401599530401</v>
-      </c>
-      <c r="AD154">
         <v>70</v>
       </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>324</v>
       </c>
@@ -11032,7 +11023,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>256</v>
       </c>
@@ -11091,7 +11082,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1" t="s">
         <v>4</v>
       </c>
@@ -11102,7 +11093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>10</v>
       </c>
@@ -11113,7 +11104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>1600</v>
       </c>
@@ -11176,7 +11167,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>1444</v>
       </c>
